--- a/tally.xlsx
+++ b/tally.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johngodlee/google_drive/phd/thesis/tls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3158F4B1-81BD-AD4A-BCC9-F379C740F6FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CF2325-479B-4E4A-BFF3-2412E011DC82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{E65B02AA-98F5-FA43-B70D-F94208D9632A}"/>
+    <workbookView xWindow="19320" yWindow="460" windowWidth="19080" windowHeight="21140" xr2:uid="{E65B02AA-98F5-FA43-B70D-F94208D9632A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="57">
   <si>
     <t>plot</t>
   </si>
@@ -163,9 +163,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>Scan doesn't exist</t>
-  </si>
-  <si>
     <t>dpm</t>
   </si>
   <si>
@@ -188,6 +185,30 @@
   </si>
   <si>
     <t>plot_number</t>
+  </si>
+  <si>
+    <t>Subplot not visited, dense thicket</t>
+  </si>
+  <si>
+    <t>plot_name</t>
+  </si>
+  <si>
+    <t>plot_id</t>
+  </si>
+  <si>
+    <t>W11</t>
+  </si>
+  <si>
+    <t>W18</t>
+  </si>
+  <si>
+    <t>W26</t>
+  </si>
+  <si>
+    <t>W9</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
 </sst>
 </file>
@@ -548,21 +569,21 @@
   <dimension ref="A1:P199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
     <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
@@ -572,37 +593,37 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>43</v>
       </c>
       <c r="H1" t="s">
         <v>42</v>
       </c>
       <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
         <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" t="s">
-        <v>36</v>
       </c>
       <c r="L1" t="s">
         <v>37</v>
@@ -622,7 +643,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -630,16 +651,20 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT("P",B2)</f>
+        <v>P1</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>4</v>
       </c>
       <c r="L2" t="b">
@@ -654,7 +679,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -662,16 +687,20 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D64" si="0">_xlfn.CONCAT("P",B3)</f>
+        <v>P1</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>4</v>
       </c>
       <c r="L3" t="b">
@@ -686,7 +715,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -694,16 +723,20 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>4</v>
       </c>
       <c r="L4" t="b">
@@ -718,7 +751,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -726,16 +759,20 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>4</v>
       </c>
       <c r="L5" t="b">
@@ -750,7 +787,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -758,16 +795,20 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>4</v>
       </c>
       <c r="L6" t="b">
@@ -782,7 +823,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -790,16 +831,20 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7">
         <v>4</v>
       </c>
       <c r="L7" t="b">
@@ -814,7 +859,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -822,16 +867,20 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
+      <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>4</v>
       </c>
       <c r="L8" t="b">
@@ -846,7 +895,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -854,16 +903,20 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>4</v>
       </c>
       <c r="L9" t="b">
@@ -878,7 +931,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -886,16 +939,20 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>P1</v>
+      </c>
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>4</v>
       </c>
       <c r="L10" t="b">
@@ -910,7 +967,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -918,19 +975,26 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
+      <c r="E11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>4</v>
       </c>
       <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="b">
         <v>1</v>
       </c>
       <c r="N11" t="b">
@@ -939,7 +1003,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -947,19 +1011,26 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
+      <c r="E12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>4</v>
       </c>
       <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
         <v>1</v>
       </c>
       <c r="N12" t="b">
@@ -968,7 +1039,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -976,19 +1047,26 @@
       <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
+      <c r="E13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
-      <c r="H13">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <v>4</v>
       </c>
       <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
         <v>1</v>
       </c>
       <c r="N13" t="b">
@@ -997,7 +1075,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1005,19 +1083,26 @@
       <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
+      <c r="E14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
-      <c r="H14">
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14">
         <v>4</v>
       </c>
       <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
         <v>1</v>
       </c>
       <c r="N14" t="b">
@@ -1026,7 +1111,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1034,19 +1119,26 @@
       <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
+      <c r="E15" t="s">
         <v>10</v>
       </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
-      <c r="H15">
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>4</v>
       </c>
       <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="b">
         <v>1</v>
       </c>
       <c r="N15" t="b">
@@ -1055,7 +1147,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1063,19 +1155,26 @@
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
+      <c r="E16" t="s">
         <v>11</v>
       </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
-      <c r="H16">
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <v>4</v>
       </c>
       <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
         <v>1</v>
       </c>
       <c r="N16" t="b">
@@ -1084,7 +1183,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1092,19 +1191,26 @@
       <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
+      <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
-      <c r="H17">
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>4</v>
       </c>
       <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
         <v>1</v>
       </c>
       <c r="N17" t="b">
@@ -1113,7 +1219,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1121,19 +1227,26 @@
       <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
+      <c r="E18" t="s">
         <v>13</v>
       </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
-      <c r="H18">
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>4</v>
       </c>
       <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
         <v>1</v>
       </c>
       <c r="N18" t="b">
@@ -1142,7 +1255,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1150,19 +1263,26 @@
       <c r="C19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>P2</v>
+      </c>
+      <c r="E19" t="s">
         <v>14</v>
       </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
-      <c r="H19">
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>4</v>
       </c>
       <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
         <v>1</v>
       </c>
       <c r="N19" t="b">
@@ -1171,7 +1291,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -1179,20 +1299,27 @@
       <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>P3</v>
+      </c>
+      <c r="E20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
-      <c r="H20">
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>4</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>56</v>
       </c>
       <c r="N20" t="b">
         <v>1</v>
@@ -1200,7 +1327,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1208,20 +1335,27 @@
       <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>P3</v>
+      </c>
+      <c r="E21" t="s">
         <v>7</v>
       </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
-      <c r="H21">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>4</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>56</v>
       </c>
       <c r="N21" t="b">
         <v>1</v>
@@ -1229,7 +1363,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -1237,20 +1371,27 @@
       <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>P3</v>
+      </c>
+      <c r="E22" t="s">
         <v>8</v>
       </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
       <c r="F22" t="b">
         <v>1</v>
       </c>
-      <c r="H22">
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>4</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>56</v>
       </c>
       <c r="N22" t="b">
         <v>1</v>
@@ -1258,7 +1399,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -1266,20 +1407,27 @@
       <c r="C23" t="s">
         <v>20</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>P3</v>
+      </c>
+      <c r="E23" t="s">
         <v>9</v>
       </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
-      <c r="H23">
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23">
         <v>4</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>56</v>
       </c>
       <c r="N23" t="b">
         <v>1</v>
@@ -1287,7 +1435,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -1295,20 +1443,27 @@
       <c r="C24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>P3</v>
+      </c>
+      <c r="E24" t="s">
         <v>10</v>
       </c>
-      <c r="E24" t="b">
-        <v>1</v>
-      </c>
       <c r="F24" t="b">
         <v>1</v>
       </c>
-      <c r="H24">
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <v>4</v>
       </c>
       <c r="L24" t="b">
         <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>56</v>
       </c>
       <c r="N24" t="b">
         <v>1</v>
@@ -1316,7 +1471,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -1324,20 +1479,27 @@
       <c r="C25" t="s">
         <v>20</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>P3</v>
+      </c>
+      <c r="E25" t="s">
         <v>11</v>
       </c>
-      <c r="E25" t="b">
-        <v>1</v>
-      </c>
       <c r="F25" t="b">
         <v>1</v>
       </c>
-      <c r="H25">
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>4</v>
       </c>
       <c r="L25" t="b">
         <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>56</v>
       </c>
       <c r="N25" t="b">
         <v>1</v>
@@ -1345,7 +1507,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -1353,20 +1515,27 @@
       <c r="C26" t="s">
         <v>20</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>P3</v>
+      </c>
+      <c r="E26" t="s">
         <v>12</v>
       </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
       <c r="F26" t="b">
         <v>1</v>
       </c>
-      <c r="H26">
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>4</v>
       </c>
       <c r="L26" t="b">
         <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>56</v>
       </c>
       <c r="N26" t="b">
         <v>1</v>
@@ -1374,7 +1543,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1382,20 +1551,27 @@
       <c r="C27" t="s">
         <v>20</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>P3</v>
+      </c>
+      <c r="E27" t="s">
         <v>13</v>
       </c>
-      <c r="E27" t="b">
-        <v>1</v>
-      </c>
       <c r="F27" t="b">
         <v>1</v>
       </c>
-      <c r="H27">
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>4</v>
       </c>
       <c r="L27" t="b">
         <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>56</v>
       </c>
       <c r="N27" t="b">
         <v>1</v>
@@ -1403,7 +1579,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1411,20 +1587,27 @@
       <c r="C28" t="s">
         <v>20</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>P3</v>
+      </c>
+      <c r="E28" t="s">
         <v>14</v>
       </c>
-      <c r="E28" t="b">
-        <v>1</v>
-      </c>
       <c r="F28" t="b">
         <v>1</v>
       </c>
-      <c r="H28">
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28">
         <v>4</v>
       </c>
       <c r="L28" t="b">
         <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>56</v>
       </c>
       <c r="N28" t="b">
         <v>1</v>
@@ -1432,7 +1615,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -1440,19 +1623,26 @@
       <c r="C29" t="s">
         <v>21</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>P4</v>
+      </c>
+      <c r="E29" t="s">
         <v>6</v>
       </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
-      <c r="H29">
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <v>4</v>
       </c>
       <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="b">
         <v>1</v>
       </c>
       <c r="N29" t="b">
@@ -1461,7 +1651,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -1469,19 +1659,26 @@
       <c r="C30" t="s">
         <v>21</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>P4</v>
+      </c>
+      <c r="E30" t="s">
         <v>7</v>
       </c>
-      <c r="E30" t="b">
-        <v>1</v>
-      </c>
       <c r="F30" t="b">
         <v>1</v>
       </c>
-      <c r="H30">
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30">
         <v>4</v>
       </c>
       <c r="L30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" t="b">
         <v>1</v>
       </c>
       <c r="N30" t="b">
@@ -1490,7 +1687,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -1498,19 +1695,26 @@
       <c r="C31" t="s">
         <v>21</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>P4</v>
+      </c>
+      <c r="E31" t="s">
         <v>8</v>
       </c>
-      <c r="E31" t="b">
-        <v>1</v>
-      </c>
       <c r="F31" t="b">
         <v>1</v>
       </c>
-      <c r="H31">
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31">
         <v>4</v>
       </c>
       <c r="L31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" t="b">
         <v>1</v>
       </c>
       <c r="N31" t="b">
@@ -1519,7 +1723,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -1527,19 +1731,26 @@
       <c r="C32" t="s">
         <v>21</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>P4</v>
+      </c>
+      <c r="E32" t="s">
         <v>9</v>
       </c>
-      <c r="E32" t="b">
-        <v>1</v>
-      </c>
       <c r="F32" t="b">
         <v>1</v>
       </c>
-      <c r="H32">
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32">
         <v>4</v>
       </c>
       <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="b">
         <v>1</v>
       </c>
       <c r="N32" t="b">
@@ -1548,7 +1759,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -1556,19 +1767,26 @@
       <c r="C33" t="s">
         <v>21</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>P4</v>
+      </c>
+      <c r="E33" t="s">
         <v>10</v>
       </c>
-      <c r="E33" t="b">
-        <v>1</v>
-      </c>
       <c r="F33" t="b">
         <v>1</v>
       </c>
-      <c r="H33">
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33">
         <v>4</v>
       </c>
       <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" t="b">
         <v>1</v>
       </c>
       <c r="N33" t="b">
@@ -1577,7 +1795,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -1585,19 +1803,26 @@
       <c r="C34" t="s">
         <v>21</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>P4</v>
+      </c>
+      <c r="E34" t="s">
         <v>11</v>
       </c>
-      <c r="E34" t="b">
-        <v>1</v>
-      </c>
       <c r="F34" t="b">
         <v>1</v>
       </c>
-      <c r="H34">
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34">
         <v>4</v>
       </c>
       <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" t="b">
         <v>1</v>
       </c>
       <c r="N34" t="b">
@@ -1606,7 +1831,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -1614,19 +1839,26 @@
       <c r="C35" t="s">
         <v>21</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>P4</v>
+      </c>
+      <c r="E35" t="s">
         <v>12</v>
       </c>
-      <c r="E35" t="b">
-        <v>1</v>
-      </c>
       <c r="F35" t="b">
         <v>1</v>
       </c>
-      <c r="H35">
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35">
         <v>4</v>
       </c>
       <c r="L35" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" t="b">
         <v>1</v>
       </c>
       <c r="N35" t="b">
@@ -1635,7 +1867,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -1643,19 +1875,26 @@
       <c r="C36" t="s">
         <v>21</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>P4</v>
+      </c>
+      <c r="E36" t="s">
         <v>13</v>
       </c>
-      <c r="E36" t="b">
-        <v>1</v>
-      </c>
       <c r="F36" t="b">
         <v>1</v>
       </c>
-      <c r="H36">
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36">
         <v>4</v>
       </c>
       <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" t="b">
         <v>1</v>
       </c>
       <c r="N36" t="b">
@@ -1664,7 +1903,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -1672,19 +1911,26 @@
       <c r="C37" t="s">
         <v>21</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>P4</v>
+      </c>
+      <c r="E37" t="s">
         <v>14</v>
       </c>
-      <c r="E37" t="b">
-        <v>1</v>
-      </c>
       <c r="F37" t="b">
         <v>1</v>
       </c>
-      <c r="H37">
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37">
         <v>4</v>
       </c>
       <c r="L37" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" t="b">
         <v>1</v>
       </c>
       <c r="N37" t="b">
@@ -1693,7 +1939,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -1701,19 +1947,26 @@
       <c r="C38" t="s">
         <v>5</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>P5</v>
+      </c>
+      <c r="E38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" t="b">
-        <v>1</v>
-      </c>
       <c r="F38" t="b">
         <v>1</v>
       </c>
-      <c r="H38">
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38">
         <v>4</v>
       </c>
       <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" t="b">
         <v>1</v>
       </c>
       <c r="N38" t="b">
@@ -1722,7 +1975,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -1730,19 +1983,26 @@
       <c r="C39" t="s">
         <v>5</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>P5</v>
+      </c>
+      <c r="E39" t="s">
         <v>7</v>
       </c>
-      <c r="E39" t="b">
-        <v>1</v>
-      </c>
       <c r="F39" t="b">
         <v>1</v>
       </c>
-      <c r="H39">
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39">
         <v>4</v>
       </c>
       <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="b">
         <v>1</v>
       </c>
       <c r="N39" t="b">
@@ -1751,7 +2011,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -1759,19 +2019,26 @@
       <c r="C40" t="s">
         <v>5</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>P5</v>
+      </c>
+      <c r="E40" t="s">
         <v>8</v>
       </c>
-      <c r="E40" t="b">
-        <v>1</v>
-      </c>
       <c r="F40" t="b">
         <v>1</v>
       </c>
-      <c r="H40">
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40">
         <v>4</v>
       </c>
       <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" t="b">
         <v>1</v>
       </c>
       <c r="N40" t="b">
@@ -1780,7 +2047,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -1788,19 +2055,26 @@
       <c r="C41" t="s">
         <v>5</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>P5</v>
+      </c>
+      <c r="E41" t="s">
         <v>9</v>
       </c>
-      <c r="E41" t="b">
-        <v>1</v>
-      </c>
       <c r="F41" t="b">
         <v>1</v>
       </c>
-      <c r="H41">
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41">
         <v>4</v>
       </c>
       <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" t="b">
         <v>1</v>
       </c>
       <c r="N41" t="b">
@@ -1809,7 +2083,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -1817,19 +2091,26 @@
       <c r="C42" t="s">
         <v>5</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>P5</v>
+      </c>
+      <c r="E42" t="s">
         <v>10</v>
       </c>
-      <c r="E42" t="b">
-        <v>1</v>
-      </c>
       <c r="F42" t="b">
         <v>1</v>
       </c>
-      <c r="H42">
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42">
         <v>4</v>
       </c>
       <c r="L42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" t="b">
         <v>1</v>
       </c>
       <c r="N42" t="b">
@@ -1838,7 +2119,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -1846,19 +2127,26 @@
       <c r="C43" t="s">
         <v>5</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>P5</v>
+      </c>
+      <c r="E43" t="s">
         <v>11</v>
       </c>
-      <c r="E43" t="b">
-        <v>1</v>
-      </c>
       <c r="F43" t="b">
         <v>1</v>
       </c>
-      <c r="H43">
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43">
         <v>4</v>
       </c>
       <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" t="b">
         <v>1</v>
       </c>
       <c r="N43" t="b">
@@ -1867,7 +2155,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -1875,19 +2163,26 @@
       <c r="C44" t="s">
         <v>5</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>P5</v>
+      </c>
+      <c r="E44" t="s">
         <v>12</v>
       </c>
-      <c r="E44" t="b">
-        <v>1</v>
-      </c>
       <c r="F44" t="b">
         <v>1</v>
       </c>
-      <c r="H44">
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44">
         <v>4</v>
       </c>
       <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="b">
         <v>1</v>
       </c>
       <c r="N44" t="b">
@@ -1896,7 +2191,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -1904,19 +2199,26 @@
       <c r="C45" t="s">
         <v>5</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>P5</v>
+      </c>
+      <c r="E45" t="s">
         <v>13</v>
       </c>
-      <c r="E45" t="b">
-        <v>1</v>
-      </c>
       <c r="F45" t="b">
         <v>1</v>
       </c>
-      <c r="H45">
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45">
         <v>4</v>
       </c>
       <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" t="b">
         <v>1</v>
       </c>
       <c r="N45" t="b">
@@ -1925,7 +2227,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -1933,19 +2235,26 @@
       <c r="C46" t="s">
         <v>5</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>P5</v>
+      </c>
+      <c r="E46" t="s">
         <v>14</v>
       </c>
-      <c r="E46" t="b">
-        <v>1</v>
-      </c>
       <c r="F46" t="b">
         <v>1</v>
       </c>
-      <c r="H46">
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46">
         <v>4</v>
       </c>
       <c r="L46" t="b">
+        <v>1</v>
+      </c>
+      <c r="M46" t="b">
         <v>1</v>
       </c>
       <c r="N46" t="b">
@@ -1954,7 +2263,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -1962,19 +2271,26 @@
       <c r="C47" t="s">
         <v>15</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>P6</v>
+      </c>
+      <c r="E47" t="s">
         <v>6</v>
       </c>
-      <c r="E47" t="b">
-        <v>1</v>
-      </c>
       <c r="F47" t="b">
         <v>1</v>
       </c>
-      <c r="H47">
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47">
         <v>4</v>
       </c>
       <c r="L47" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47" t="b">
         <v>1</v>
       </c>
       <c r="N47" t="b">
@@ -1983,7 +2299,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>6</v>
@@ -1991,19 +2307,26 @@
       <c r="C48" t="s">
         <v>15</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>P6</v>
+      </c>
+      <c r="E48" t="s">
         <v>7</v>
       </c>
-      <c r="E48" t="b">
-        <v>1</v>
-      </c>
       <c r="F48" t="b">
         <v>1</v>
       </c>
-      <c r="H48">
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48">
         <v>4</v>
       </c>
       <c r="L48" t="b">
+        <v>1</v>
+      </c>
+      <c r="M48" t="b">
         <v>1</v>
       </c>
       <c r="N48" t="b">
@@ -2012,7 +2335,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49">
         <v>6</v>
@@ -2020,19 +2343,26 @@
       <c r="C49" t="s">
         <v>15</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>P6</v>
+      </c>
+      <c r="E49" t="s">
         <v>8</v>
       </c>
-      <c r="E49" t="b">
-        <v>1</v>
-      </c>
       <c r="F49" t="b">
         <v>1</v>
       </c>
-      <c r="H49">
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49">
         <v>4</v>
       </c>
       <c r="L49" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" t="b">
         <v>1</v>
       </c>
       <c r="N49" t="b">
@@ -2041,7 +2371,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -2049,19 +2379,26 @@
       <c r="C50" t="s">
         <v>15</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>P6</v>
+      </c>
+      <c r="E50" t="s">
         <v>9</v>
       </c>
-      <c r="E50" t="b">
-        <v>1</v>
-      </c>
       <c r="F50" t="b">
         <v>1</v>
       </c>
-      <c r="H50">
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50">
         <v>4</v>
       </c>
       <c r="L50" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" t="b">
         <v>1</v>
       </c>
       <c r="N50" t="b">
@@ -2070,7 +2407,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -2078,19 +2415,26 @@
       <c r="C51" t="s">
         <v>15</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>P6</v>
+      </c>
+      <c r="E51" t="s">
         <v>10</v>
       </c>
-      <c r="E51" t="b">
-        <v>1</v>
-      </c>
       <c r="F51" t="b">
         <v>1</v>
       </c>
-      <c r="H51">
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <v>4</v>
       </c>
       <c r="L51" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" t="b">
         <v>1</v>
       </c>
       <c r="N51" t="b">
@@ -2099,7 +2443,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -2107,19 +2451,26 @@
       <c r="C52" t="s">
         <v>15</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>P6</v>
+      </c>
+      <c r="E52" t="s">
         <v>11</v>
       </c>
-      <c r="E52" t="b">
-        <v>1</v>
-      </c>
       <c r="F52" t="b">
         <v>1</v>
       </c>
-      <c r="H52">
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52">
         <v>4</v>
       </c>
       <c r="L52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M52" t="b">
         <v>1</v>
       </c>
       <c r="N52" t="b">
@@ -2128,7 +2479,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -2136,19 +2487,26 @@
       <c r="C53" t="s">
         <v>15</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>P6</v>
+      </c>
+      <c r="E53" t="s">
         <v>12</v>
       </c>
-      <c r="E53" t="b">
-        <v>1</v>
-      </c>
       <c r="F53" t="b">
         <v>1</v>
       </c>
-      <c r="H53">
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53">
         <v>4</v>
       </c>
       <c r="L53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" t="b">
         <v>1</v>
       </c>
       <c r="N53" t="b">
@@ -2157,7 +2515,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -2165,19 +2523,26 @@
       <c r="C54" t="s">
         <v>15</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>P6</v>
+      </c>
+      <c r="E54" t="s">
         <v>13</v>
       </c>
-      <c r="E54" t="b">
-        <v>1</v>
-      </c>
       <c r="F54" t="b">
         <v>1</v>
       </c>
-      <c r="H54">
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54">
         <v>4</v>
       </c>
       <c r="L54" t="b">
+        <v>1</v>
+      </c>
+      <c r="M54" t="b">
         <v>1</v>
       </c>
       <c r="N54" t="b">
@@ -2186,7 +2551,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -2194,19 +2559,26 @@
       <c r="C55" t="s">
         <v>15</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>P6</v>
+      </c>
+      <c r="E55" t="s">
         <v>14</v>
       </c>
-      <c r="E55" t="b">
-        <v>1</v>
-      </c>
       <c r="F55" t="b">
         <v>1</v>
       </c>
-      <c r="H55">
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55">
         <v>4</v>
       </c>
       <c r="L55" t="b">
+        <v>1</v>
+      </c>
+      <c r="M55" t="b">
         <v>1</v>
       </c>
       <c r="N55" t="b">
@@ -2215,7 +2587,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56">
         <v>7</v>
@@ -2223,19 +2595,26 @@
       <c r="C56" t="s">
         <v>16</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>P7</v>
+      </c>
+      <c r="E56" t="s">
         <v>6</v>
       </c>
-      <c r="E56" t="b">
-        <v>1</v>
-      </c>
       <c r="F56" t="b">
         <v>1</v>
       </c>
-      <c r="H56">
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>4</v>
       </c>
       <c r="L56" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56" t="b">
         <v>1</v>
       </c>
       <c r="N56" t="b">
@@ -2244,7 +2623,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B57">
         <v>7</v>
@@ -2252,19 +2631,26 @@
       <c r="C57" t="s">
         <v>16</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>P7</v>
+      </c>
+      <c r="E57" t="s">
         <v>7</v>
       </c>
-      <c r="E57" t="b">
-        <v>1</v>
-      </c>
       <c r="F57" t="b">
         <v>1</v>
       </c>
-      <c r="H57">
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57">
         <v>4</v>
       </c>
       <c r="L57" t="b">
+        <v>1</v>
+      </c>
+      <c r="M57" t="b">
         <v>1</v>
       </c>
       <c r="N57" t="b">
@@ -2273,7 +2659,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B58">
         <v>7</v>
@@ -2281,19 +2667,26 @@
       <c r="C58" t="s">
         <v>16</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>P7</v>
+      </c>
+      <c r="E58" t="s">
         <v>8</v>
       </c>
-      <c r="E58" t="b">
-        <v>1</v>
-      </c>
       <c r="F58" t="b">
         <v>1</v>
       </c>
-      <c r="H58">
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58">
         <v>4</v>
       </c>
       <c r="L58" t="b">
+        <v>1</v>
+      </c>
+      <c r="M58" t="b">
         <v>1</v>
       </c>
       <c r="N58" t="b">
@@ -2302,7 +2695,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B59">
         <v>7</v>
@@ -2310,19 +2703,26 @@
       <c r="C59" t="s">
         <v>16</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>P7</v>
+      </c>
+      <c r="E59" t="s">
         <v>9</v>
       </c>
-      <c r="E59" t="b">
-        <v>1</v>
-      </c>
       <c r="F59" t="b">
         <v>1</v>
       </c>
-      <c r="H59">
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59">
         <v>4</v>
       </c>
       <c r="L59" t="b">
+        <v>1</v>
+      </c>
+      <c r="M59" t="b">
         <v>1</v>
       </c>
       <c r="N59" t="b">
@@ -2331,7 +2731,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B60">
         <v>7</v>
@@ -2339,19 +2739,26 @@
       <c r="C60" t="s">
         <v>16</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>P7</v>
+      </c>
+      <c r="E60" t="s">
         <v>10</v>
       </c>
-      <c r="E60" t="b">
-        <v>1</v>
-      </c>
       <c r="F60" t="b">
         <v>1</v>
       </c>
-      <c r="H60">
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60">
         <v>4</v>
       </c>
       <c r="L60" t="b">
+        <v>1</v>
+      </c>
+      <c r="M60" t="b">
         <v>1</v>
       </c>
       <c r="N60" t="b">
@@ -2360,7 +2767,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B61">
         <v>7</v>
@@ -2368,19 +2775,26 @@
       <c r="C61" t="s">
         <v>16</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>P7</v>
+      </c>
+      <c r="E61" t="s">
         <v>11</v>
       </c>
-      <c r="E61" t="b">
-        <v>1</v>
-      </c>
       <c r="F61" t="b">
         <v>1</v>
       </c>
-      <c r="H61">
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61">
         <v>4</v>
       </c>
       <c r="L61" t="b">
+        <v>1</v>
+      </c>
+      <c r="M61" t="b">
         <v>1</v>
       </c>
       <c r="N61" t="b">
@@ -2389,7 +2803,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B62">
         <v>7</v>
@@ -2397,19 +2811,26 @@
       <c r="C62" t="s">
         <v>16</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>P7</v>
+      </c>
+      <c r="E62" t="s">
         <v>12</v>
       </c>
-      <c r="E62" t="b">
-        <v>1</v>
-      </c>
       <c r="F62" t="b">
         <v>1</v>
       </c>
-      <c r="H62">
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62">
         <v>4</v>
       </c>
       <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" t="b">
         <v>1</v>
       </c>
       <c r="N62" t="b">
@@ -2418,7 +2839,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B63">
         <v>7</v>
@@ -2426,19 +2847,26 @@
       <c r="C63" t="s">
         <v>16</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>P7</v>
+      </c>
+      <c r="E63" t="s">
         <v>13</v>
       </c>
-      <c r="E63" t="b">
-        <v>1</v>
-      </c>
       <c r="F63" t="b">
         <v>1</v>
       </c>
-      <c r="H63">
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63">
         <v>4</v>
       </c>
       <c r="L63" t="b">
+        <v>1</v>
+      </c>
+      <c r="M63" t="b">
         <v>1</v>
       </c>
       <c r="N63" t="b">
@@ -2447,7 +2875,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B64">
         <v>7</v>
@@ -2455,19 +2883,26 @@
       <c r="C64" t="s">
         <v>16</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>P7</v>
+      </c>
+      <c r="E64" t="s">
         <v>14</v>
       </c>
-      <c r="E64" t="b">
-        <v>1</v>
-      </c>
       <c r="F64" t="b">
         <v>1</v>
       </c>
-      <c r="H64">
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64">
         <v>4</v>
       </c>
       <c r="L64" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" t="b">
         <v>1</v>
       </c>
       <c r="N64" t="b">
@@ -2476,7 +2911,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B65">
         <v>7</v>
@@ -2485,18 +2920,24 @@
         <v>34</v>
       </c>
       <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
         <v>6</v>
       </c>
-      <c r="E65" t="b">
-        <v>1</v>
-      </c>
       <c r="F65" t="b">
         <v>1</v>
       </c>
-      <c r="H65">
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65">
         <v>4</v>
       </c>
       <c r="L65" t="b">
+        <v>1</v>
+      </c>
+      <c r="M65" t="b">
         <v>1</v>
       </c>
       <c r="N65" t="b">
@@ -2505,7 +2946,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B66">
         <v>7</v>
@@ -2514,18 +2955,24 @@
         <v>34</v>
       </c>
       <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
         <v>7</v>
       </c>
-      <c r="E66" t="b">
-        <v>1</v>
-      </c>
       <c r="F66" t="b">
         <v>1</v>
       </c>
-      <c r="H66">
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66">
         <v>4</v>
       </c>
       <c r="L66" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" t="b">
         <v>1</v>
       </c>
       <c r="N66" t="b">
@@ -2534,7 +2981,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B67">
         <v>7</v>
@@ -2545,16 +2992,22 @@
       <c r="D67" t="s">
         <v>8</v>
       </c>
-      <c r="E67" t="b">
-        <v>1</v>
+      <c r="E67" t="s">
+        <v>8</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
       </c>
-      <c r="H67">
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67">
         <v>4</v>
       </c>
       <c r="L67" t="b">
+        <v>1</v>
+      </c>
+      <c r="M67" t="b">
         <v>1</v>
       </c>
       <c r="N67" t="b">
@@ -2563,7 +3016,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B68">
         <v>7</v>
@@ -2572,18 +3025,24 @@
         <v>34</v>
       </c>
       <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s">
         <v>9</v>
       </c>
-      <c r="E68" t="b">
-        <v>1</v>
-      </c>
       <c r="F68" t="b">
         <v>1</v>
       </c>
-      <c r="H68">
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68">
         <v>4</v>
       </c>
       <c r="L68" t="b">
+        <v>1</v>
+      </c>
+      <c r="M68" t="b">
         <v>1</v>
       </c>
       <c r="N68" t="b">
@@ -2592,7 +3051,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B69">
         <v>7</v>
@@ -2601,18 +3060,24 @@
         <v>34</v>
       </c>
       <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" t="s">
         <v>10</v>
       </c>
-      <c r="E69" t="b">
-        <v>1</v>
-      </c>
       <c r="F69" t="b">
         <v>1</v>
       </c>
-      <c r="H69">
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69">
         <v>4</v>
       </c>
       <c r="L69" t="b">
+        <v>1</v>
+      </c>
+      <c r="M69" t="b">
         <v>1</v>
       </c>
       <c r="N69" t="b">
@@ -2621,7 +3086,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B70">
         <v>7</v>
@@ -2630,18 +3095,24 @@
         <v>34</v>
       </c>
       <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
         <v>11</v>
       </c>
-      <c r="E70" t="b">
-        <v>1</v>
-      </c>
       <c r="F70" t="b">
         <v>1</v>
       </c>
-      <c r="H70">
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70">
         <v>4</v>
       </c>
       <c r="L70" t="b">
+        <v>1</v>
+      </c>
+      <c r="M70" t="b">
         <v>1</v>
       </c>
       <c r="N70" t="b">
@@ -2650,7 +3121,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B71">
         <v>7</v>
@@ -2659,18 +3130,24 @@
         <v>34</v>
       </c>
       <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s">
         <v>12</v>
       </c>
-      <c r="E71" t="b">
-        <v>1</v>
-      </c>
       <c r="F71" t="b">
         <v>1</v>
       </c>
-      <c r="H71">
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71">
         <v>4</v>
       </c>
       <c r="L71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M71" t="b">
         <v>1</v>
       </c>
       <c r="N71" t="b">
@@ -2679,7 +3156,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B72">
         <v>7</v>
@@ -2688,18 +3165,24 @@
         <v>34</v>
       </c>
       <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s">
         <v>13</v>
       </c>
-      <c r="E72" t="b">
-        <v>1</v>
-      </c>
       <c r="F72" t="b">
         <v>1</v>
       </c>
-      <c r="H72">
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72">
         <v>4</v>
       </c>
       <c r="L72" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" t="b">
         <v>1</v>
       </c>
       <c r="N72" t="b">
@@ -2708,7 +3191,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B73">
         <v>7</v>
@@ -2717,18 +3200,24 @@
         <v>34</v>
       </c>
       <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s">
         <v>14</v>
       </c>
-      <c r="E73" t="b">
-        <v>1</v>
-      </c>
       <c r="F73" t="b">
         <v>1</v>
       </c>
-      <c r="H73">
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73">
         <v>4</v>
       </c>
       <c r="L73" t="b">
+        <v>1</v>
+      </c>
+      <c r="M73" t="b">
         <v>1</v>
       </c>
       <c r="N73" t="b">
@@ -2737,7 +3226,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -2745,19 +3234,26 @@
       <c r="C74" t="s">
         <v>17</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" t="str">
+        <f t="shared" ref="D74:D109" si="1">_xlfn.CONCAT("P",B74)</f>
+        <v>P8</v>
+      </c>
+      <c r="E74" t="s">
         <v>6</v>
       </c>
-      <c r="E74" t="b">
-        <v>1</v>
-      </c>
       <c r="F74" t="b">
         <v>1</v>
       </c>
-      <c r="H74">
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74">
         <v>4</v>
       </c>
       <c r="L74" t="b">
+        <v>1</v>
+      </c>
+      <c r="M74" t="b">
         <v>1</v>
       </c>
       <c r="N74" t="b">
@@ -2766,7 +3262,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -2774,19 +3270,26 @@
       <c r="C75" t="s">
         <v>17</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>P8</v>
+      </c>
+      <c r="E75" t="s">
         <v>7</v>
       </c>
-      <c r="E75" t="b">
-        <v>1</v>
-      </c>
       <c r="F75" t="b">
         <v>1</v>
       </c>
-      <c r="H75">
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75">
         <v>4</v>
       </c>
       <c r="L75" t="b">
+        <v>1</v>
+      </c>
+      <c r="M75" t="b">
         <v>1</v>
       </c>
       <c r="N75" t="b">
@@ -2795,7 +3298,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B76">
         <v>8</v>
@@ -2803,19 +3306,26 @@
       <c r="C76" t="s">
         <v>17</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>P8</v>
+      </c>
+      <c r="E76" t="s">
         <v>8</v>
       </c>
-      <c r="E76" t="b">
-        <v>1</v>
-      </c>
       <c r="F76" t="b">
         <v>1</v>
       </c>
-      <c r="H76">
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76">
         <v>4</v>
       </c>
       <c r="L76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M76" t="b">
         <v>1</v>
       </c>
       <c r="N76" t="b">
@@ -2824,7 +3334,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B77">
         <v>8</v>
@@ -2832,19 +3342,26 @@
       <c r="C77" t="s">
         <v>17</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>P8</v>
+      </c>
+      <c r="E77" t="s">
         <v>9</v>
       </c>
-      <c r="E77" t="b">
-        <v>1</v>
-      </c>
       <c r="F77" t="b">
         <v>1</v>
       </c>
-      <c r="H77">
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77">
         <v>4</v>
       </c>
       <c r="L77" t="b">
+        <v>1</v>
+      </c>
+      <c r="M77" t="b">
         <v>1</v>
       </c>
       <c r="N77" t="b">
@@ -2853,7 +3370,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B78">
         <v>8</v>
@@ -2861,19 +3378,26 @@
       <c r="C78" t="s">
         <v>17</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>P8</v>
+      </c>
+      <c r="E78" t="s">
         <v>10</v>
       </c>
-      <c r="E78" t="b">
-        <v>1</v>
-      </c>
       <c r="F78" t="b">
         <v>1</v>
       </c>
-      <c r="H78">
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78">
         <v>4</v>
       </c>
       <c r="L78" t="b">
+        <v>1</v>
+      </c>
+      <c r="M78" t="b">
         <v>1</v>
       </c>
       <c r="N78" t="b">
@@ -2882,7 +3406,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B79">
         <v>8</v>
@@ -2890,19 +3414,26 @@
       <c r="C79" t="s">
         <v>17</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>P8</v>
+      </c>
+      <c r="E79" t="s">
         <v>11</v>
       </c>
-      <c r="E79" t="b">
-        <v>1</v>
-      </c>
       <c r="F79" t="b">
         <v>1</v>
       </c>
-      <c r="H79">
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79">
         <v>4</v>
       </c>
       <c r="L79" t="b">
+        <v>1</v>
+      </c>
+      <c r="M79" t="b">
         <v>1</v>
       </c>
       <c r="N79" t="b">
@@ -2911,7 +3442,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B80">
         <v>8</v>
@@ -2919,19 +3450,26 @@
       <c r="C80" t="s">
         <v>17</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>P8</v>
+      </c>
+      <c r="E80" t="s">
         <v>12</v>
       </c>
-      <c r="E80" t="b">
-        <v>1</v>
-      </c>
       <c r="F80" t="b">
         <v>1</v>
       </c>
-      <c r="H80">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80">
         <v>4</v>
       </c>
       <c r="L80" t="b">
+        <v>1</v>
+      </c>
+      <c r="M80" t="b">
         <v>1</v>
       </c>
       <c r="N80" t="b">
@@ -2940,7 +3478,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B81">
         <v>8</v>
@@ -2948,19 +3486,26 @@
       <c r="C81" t="s">
         <v>17</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>P8</v>
+      </c>
+      <c r="E81" t="s">
         <v>13</v>
       </c>
-      <c r="E81" t="b">
-        <v>1</v>
-      </c>
       <c r="F81" t="b">
         <v>1</v>
       </c>
-      <c r="H81">
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81">
         <v>4</v>
       </c>
       <c r="L81" t="b">
+        <v>1</v>
+      </c>
+      <c r="M81" t="b">
         <v>1</v>
       </c>
       <c r="N81" t="b">
@@ -2969,7 +3514,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B82">
         <v>8</v>
@@ -2977,19 +3522,26 @@
       <c r="C82" t="s">
         <v>17</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>P8</v>
+      </c>
+      <c r="E82" t="s">
         <v>14</v>
       </c>
-      <c r="E82" t="b">
-        <v>1</v>
-      </c>
       <c r="F82" t="b">
         <v>1</v>
       </c>
-      <c r="H82">
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82">
         <v>4</v>
       </c>
       <c r="L82" t="b">
+        <v>1</v>
+      </c>
+      <c r="M82" t="b">
         <v>1</v>
       </c>
       <c r="N82" t="b">
@@ -2998,7 +3550,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B83">
         <v>9</v>
@@ -3006,19 +3558,26 @@
       <c r="C83" t="s">
         <v>22</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>P9</v>
+      </c>
+      <c r="E83" t="s">
         <v>6</v>
       </c>
-      <c r="E83" t="b">
-        <v>1</v>
-      </c>
       <c r="F83" t="b">
         <v>1</v>
       </c>
-      <c r="H83">
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83">
         <v>4</v>
       </c>
       <c r="L83" t="b">
+        <v>1</v>
+      </c>
+      <c r="M83" t="b">
         <v>1</v>
       </c>
       <c r="N83" t="b">
@@ -3027,7 +3586,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B84">
         <v>9</v>
@@ -3035,19 +3594,26 @@
       <c r="C84" t="s">
         <v>22</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>P9</v>
+      </c>
+      <c r="E84" t="s">
         <v>7</v>
       </c>
-      <c r="E84" t="b">
-        <v>1</v>
-      </c>
       <c r="F84" t="b">
         <v>1</v>
       </c>
-      <c r="H84">
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84">
         <v>4</v>
       </c>
       <c r="L84" t="b">
+        <v>1</v>
+      </c>
+      <c r="M84" t="b">
         <v>1</v>
       </c>
       <c r="N84" t="b">
@@ -3056,7 +3622,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B85">
         <v>9</v>
@@ -3064,19 +3630,26 @@
       <c r="C85" t="s">
         <v>22</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>P9</v>
+      </c>
+      <c r="E85" t="s">
         <v>8</v>
       </c>
-      <c r="E85" t="b">
-        <v>1</v>
-      </c>
       <c r="F85" t="b">
         <v>1</v>
       </c>
-      <c r="H85">
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85">
         <v>4</v>
       </c>
       <c r="L85" t="b">
+        <v>1</v>
+      </c>
+      <c r="M85" t="b">
         <v>1</v>
       </c>
       <c r="N85" t="b">
@@ -3085,7 +3658,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B86">
         <v>9</v>
@@ -3093,19 +3666,26 @@
       <c r="C86" t="s">
         <v>22</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>P9</v>
+      </c>
+      <c r="E86" t="s">
         <v>9</v>
       </c>
-      <c r="E86" t="b">
-        <v>1</v>
-      </c>
       <c r="F86" t="b">
         <v>1</v>
       </c>
-      <c r="H86">
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86">
         <v>4</v>
       </c>
       <c r="L86" t="b">
+        <v>1</v>
+      </c>
+      <c r="M86" t="b">
         <v>1</v>
       </c>
       <c r="N86" t="b">
@@ -3114,7 +3694,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B87">
         <v>9</v>
@@ -3122,19 +3702,26 @@
       <c r="C87" t="s">
         <v>22</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>P9</v>
+      </c>
+      <c r="E87" t="s">
         <v>10</v>
       </c>
-      <c r="E87" t="b">
-        <v>1</v>
-      </c>
       <c r="F87" t="b">
         <v>1</v>
       </c>
-      <c r="H87">
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+      <c r="I87">
         <v>4</v>
       </c>
       <c r="L87" t="b">
+        <v>1</v>
+      </c>
+      <c r="M87" t="b">
         <v>1</v>
       </c>
       <c r="N87" t="b">
@@ -3143,7 +3730,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B88">
         <v>9</v>
@@ -3151,19 +3738,26 @@
       <c r="C88" t="s">
         <v>22</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>P9</v>
+      </c>
+      <c r="E88" t="s">
         <v>11</v>
       </c>
-      <c r="E88" t="b">
-        <v>1</v>
-      </c>
       <c r="F88" t="b">
         <v>1</v>
       </c>
-      <c r="H88">
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88">
         <v>4</v>
       </c>
       <c r="L88" t="b">
+        <v>1</v>
+      </c>
+      <c r="M88" t="b">
         <v>1</v>
       </c>
       <c r="N88" t="b">
@@ -3172,7 +3766,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B89">
         <v>9</v>
@@ -3180,19 +3774,26 @@
       <c r="C89" t="s">
         <v>22</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>P9</v>
+      </c>
+      <c r="E89" t="s">
         <v>12</v>
       </c>
-      <c r="E89" t="b">
-        <v>1</v>
-      </c>
       <c r="F89" t="b">
         <v>1</v>
       </c>
-      <c r="H89">
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89">
         <v>4</v>
       </c>
       <c r="L89" t="b">
+        <v>1</v>
+      </c>
+      <c r="M89" t="b">
         <v>1</v>
       </c>
       <c r="N89" t="b">
@@ -3201,7 +3802,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B90">
         <v>9</v>
@@ -3209,19 +3810,26 @@
       <c r="C90" t="s">
         <v>22</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>P9</v>
+      </c>
+      <c r="E90" t="s">
         <v>13</v>
       </c>
-      <c r="E90" t="b">
-        <v>1</v>
-      </c>
       <c r="F90" t="b">
         <v>1</v>
       </c>
-      <c r="H90">
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="I90">
         <v>4</v>
       </c>
       <c r="L90" t="b">
+        <v>1</v>
+      </c>
+      <c r="M90" t="b">
         <v>1</v>
       </c>
       <c r="N90" t="b">
@@ -3230,7 +3838,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B91">
         <v>9</v>
@@ -3238,19 +3846,26 @@
       <c r="C91" t="s">
         <v>22</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>P9</v>
+      </c>
+      <c r="E91" t="s">
         <v>14</v>
       </c>
-      <c r="E91" t="b">
-        <v>1</v>
-      </c>
       <c r="F91" t="b">
         <v>1</v>
       </c>
-      <c r="H91">
+      <c r="G91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91">
         <v>4</v>
       </c>
       <c r="L91" t="b">
+        <v>1</v>
+      </c>
+      <c r="M91" t="b">
         <v>1</v>
       </c>
       <c r="N91" t="b">
@@ -3259,7 +3874,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B92">
         <v>9</v>
@@ -3268,18 +3883,24 @@
         <v>32</v>
       </c>
       <c r="D92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s">
         <v>6</v>
       </c>
-      <c r="E92" t="b">
-        <v>1</v>
-      </c>
       <c r="F92" t="b">
         <v>1</v>
       </c>
-      <c r="H92">
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92">
         <v>4</v>
       </c>
       <c r="L92" t="b">
+        <v>1</v>
+      </c>
+      <c r="M92" t="b">
         <v>1</v>
       </c>
       <c r="N92" t="b">
@@ -3288,7 +3909,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B93">
         <v>9</v>
@@ -3297,18 +3918,24 @@
         <v>32</v>
       </c>
       <c r="D93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" t="s">
         <v>7</v>
       </c>
-      <c r="E93" t="b">
-        <v>1</v>
-      </c>
       <c r="F93" t="b">
         <v>1</v>
       </c>
-      <c r="H93">
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93">
         <v>4</v>
       </c>
       <c r="L93" t="b">
+        <v>1</v>
+      </c>
+      <c r="M93" t="b">
         <v>1</v>
       </c>
       <c r="N93" t="b">
@@ -3317,7 +3944,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B94">
         <v>9</v>
@@ -3326,18 +3953,24 @@
         <v>32</v>
       </c>
       <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" t="s">
         <v>8</v>
       </c>
-      <c r="E94" t="b">
-        <v>1</v>
-      </c>
       <c r="F94" t="b">
         <v>1</v>
       </c>
-      <c r="H94">
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94">
         <v>4</v>
       </c>
       <c r="L94" t="b">
+        <v>1</v>
+      </c>
+      <c r="M94" t="b">
         <v>1</v>
       </c>
       <c r="N94" t="b">
@@ -3346,7 +3979,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B95">
         <v>9</v>
@@ -3355,18 +3988,24 @@
         <v>32</v>
       </c>
       <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
         <v>9</v>
       </c>
-      <c r="E95" t="b">
-        <v>1</v>
-      </c>
       <c r="F95" t="b">
         <v>1</v>
       </c>
-      <c r="H95">
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95">
         <v>4</v>
       </c>
       <c r="L95" t="b">
+        <v>1</v>
+      </c>
+      <c r="M95" t="b">
         <v>1</v>
       </c>
       <c r="N95" t="b">
@@ -3375,7 +4014,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B96">
         <v>9</v>
@@ -3386,16 +4025,22 @@
       <c r="D96" t="s">
         <v>10</v>
       </c>
-      <c r="E96" t="b">
-        <v>1</v>
+      <c r="E96" t="s">
+        <v>10</v>
       </c>
       <c r="F96" t="b">
         <v>1</v>
       </c>
-      <c r="H96">
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="I96">
         <v>4</v>
       </c>
       <c r="L96" t="b">
+        <v>1</v>
+      </c>
+      <c r="M96" t="b">
         <v>1</v>
       </c>
       <c r="N96" t="b">
@@ -3404,7 +4049,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B97">
         <v>9</v>
@@ -3413,18 +4058,24 @@
         <v>32</v>
       </c>
       <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
         <v>11</v>
       </c>
-      <c r="E97" t="b">
-        <v>1</v>
-      </c>
       <c r="F97" t="b">
         <v>1</v>
       </c>
-      <c r="H97">
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97">
         <v>4</v>
       </c>
       <c r="L97" t="b">
+        <v>1</v>
+      </c>
+      <c r="M97" t="b">
         <v>1</v>
       </c>
       <c r="N97" t="b">
@@ -3433,7 +4084,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B98">
         <v>9</v>
@@ -3442,18 +4093,24 @@
         <v>32</v>
       </c>
       <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" t="s">
         <v>12</v>
       </c>
-      <c r="E98" t="b">
-        <v>1</v>
-      </c>
       <c r="F98" t="b">
         <v>1</v>
       </c>
-      <c r="H98">
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98">
         <v>4</v>
       </c>
       <c r="L98" t="b">
+        <v>1</v>
+      </c>
+      <c r="M98" t="b">
         <v>1</v>
       </c>
       <c r="N98" t="b">
@@ -3462,7 +4119,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B99">
         <v>9</v>
@@ -3471,18 +4128,24 @@
         <v>32</v>
       </c>
       <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
         <v>13</v>
       </c>
-      <c r="E99" t="b">
-        <v>1</v>
-      </c>
       <c r="F99" t="b">
         <v>1</v>
       </c>
-      <c r="H99">
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99">
         <v>4</v>
       </c>
       <c r="L99" t="b">
+        <v>1</v>
+      </c>
+      <c r="M99" t="b">
         <v>1</v>
       </c>
       <c r="N99" t="b">
@@ -3491,7 +4154,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B100">
         <v>9</v>
@@ -3500,18 +4163,24 @@
         <v>32</v>
       </c>
       <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" t="s">
         <v>14</v>
       </c>
-      <c r="E100" t="b">
-        <v>1</v>
-      </c>
       <c r="F100" t="b">
         <v>1</v>
       </c>
-      <c r="H100">
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100">
         <v>4</v>
       </c>
       <c r="L100" t="b">
+        <v>1</v>
+      </c>
+      <c r="M100" t="b">
         <v>1</v>
       </c>
       <c r="N100" t="b">
@@ -3520,7 +4189,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B101">
         <v>10</v>
@@ -3528,22 +4197,29 @@
       <c r="C101" t="s">
         <v>23</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>P10</v>
+      </c>
+      <c r="E101" t="s">
         <v>6</v>
       </c>
-      <c r="E101" t="b">
-        <v>1</v>
-      </c>
       <c r="F101" t="b">
         <v>1</v>
       </c>
-      <c r="H101">
-        <v>4</v>
-      </c>
-      <c r="I101" t="b">
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>4</v>
+      </c>
+      <c r="J101" t="b">
         <v>1</v>
       </c>
       <c r="L101" t="b">
+        <v>1</v>
+      </c>
+      <c r="M101" t="b">
         <v>1</v>
       </c>
       <c r="N101" t="b">
@@ -3552,7 +4228,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B102">
         <v>10</v>
@@ -3560,19 +4236,26 @@
       <c r="C102" t="s">
         <v>23</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>P10</v>
+      </c>
+      <c r="E102" t="s">
         <v>7</v>
       </c>
-      <c r="E102" t="b">
-        <v>1</v>
-      </c>
       <c r="F102" t="b">
         <v>1</v>
       </c>
-      <c r="H102">
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102">
         <v>4</v>
       </c>
       <c r="L102" t="b">
+        <v>1</v>
+      </c>
+      <c r="M102" t="b">
         <v>1</v>
       </c>
       <c r="N102" t="b">
@@ -3581,7 +4264,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B103">
         <v>10</v>
@@ -3589,19 +4272,26 @@
       <c r="C103" t="s">
         <v>23</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v>P10</v>
+      </c>
+      <c r="E103" t="s">
         <v>8</v>
       </c>
-      <c r="E103" t="b">
-        <v>1</v>
-      </c>
       <c r="F103" t="b">
         <v>1</v>
       </c>
-      <c r="H103">
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103">
         <v>4</v>
       </c>
       <c r="L103" t="b">
+        <v>1</v>
+      </c>
+      <c r="M103" t="b">
         <v>1</v>
       </c>
       <c r="N103" t="b">
@@ -3610,7 +4300,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B104">
         <v>10</v>
@@ -3618,19 +4308,26 @@
       <c r="C104" t="s">
         <v>23</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>P10</v>
+      </c>
+      <c r="E104" t="s">
         <v>9</v>
       </c>
-      <c r="E104" t="b">
-        <v>1</v>
-      </c>
       <c r="F104" t="b">
         <v>1</v>
       </c>
-      <c r="H104">
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104">
         <v>4</v>
       </c>
       <c r="L104" t="b">
+        <v>1</v>
+      </c>
+      <c r="M104" t="b">
         <v>1</v>
       </c>
       <c r="N104" t="b">
@@ -3639,7 +4336,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B105">
         <v>10</v>
@@ -3647,19 +4344,26 @@
       <c r="C105" t="s">
         <v>23</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>P10</v>
+      </c>
+      <c r="E105" t="s">
         <v>10</v>
       </c>
-      <c r="E105" t="b">
-        <v>1</v>
-      </c>
       <c r="F105" t="b">
         <v>1</v>
       </c>
-      <c r="H105">
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105">
         <v>4</v>
       </c>
       <c r="L105" t="b">
+        <v>1</v>
+      </c>
+      <c r="M105" t="b">
         <v>1</v>
       </c>
       <c r="N105" t="b">
@@ -3668,7 +4372,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B106">
         <v>10</v>
@@ -3676,19 +4380,26 @@
       <c r="C106" t="s">
         <v>23</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" t="str">
+        <f t="shared" si="1"/>
+        <v>P10</v>
+      </c>
+      <c r="E106" t="s">
         <v>11</v>
       </c>
-      <c r="E106" t="b">
-        <v>1</v>
-      </c>
       <c r="F106" t="b">
         <v>1</v>
       </c>
-      <c r="H106">
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I106">
         <v>4</v>
       </c>
       <c r="L106" t="b">
+        <v>1</v>
+      </c>
+      <c r="M106" t="b">
         <v>1</v>
       </c>
       <c r="N106" t="b">
@@ -3697,7 +4408,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B107">
         <v>10</v>
@@ -3705,19 +4416,26 @@
       <c r="C107" t="s">
         <v>23</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>P10</v>
+      </c>
+      <c r="E107" t="s">
         <v>12</v>
       </c>
-      <c r="E107" t="b">
-        <v>1</v>
-      </c>
       <c r="F107" t="b">
         <v>1</v>
       </c>
-      <c r="H107">
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I107">
         <v>4</v>
       </c>
       <c r="L107" t="b">
+        <v>1</v>
+      </c>
+      <c r="M107" t="b">
         <v>1</v>
       </c>
       <c r="N107" t="b">
@@ -3726,7 +4444,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B108">
         <v>10</v>
@@ -3734,19 +4452,26 @@
       <c r="C108" t="s">
         <v>23</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" t="str">
+        <f t="shared" si="1"/>
+        <v>P10</v>
+      </c>
+      <c r="E108" t="s">
         <v>13</v>
       </c>
-      <c r="E108" t="b">
-        <v>1</v>
-      </c>
       <c r="F108" t="b">
         <v>1</v>
       </c>
-      <c r="H108">
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="I108">
         <v>4</v>
       </c>
       <c r="L108" t="b">
+        <v>1</v>
+      </c>
+      <c r="M108" t="b">
         <v>1</v>
       </c>
       <c r="N108" t="b">
@@ -3755,7 +4480,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B109">
         <v>10</v>
@@ -3763,19 +4488,26 @@
       <c r="C109" t="s">
         <v>23</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v>P10</v>
+      </c>
+      <c r="E109" t="s">
         <v>14</v>
       </c>
-      <c r="E109" t="b">
-        <v>1</v>
-      </c>
       <c r="F109" t="b">
         <v>1</v>
       </c>
-      <c r="H109">
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="I109">
         <v>4</v>
       </c>
       <c r="L109" t="b">
+        <v>1</v>
+      </c>
+      <c r="M109" t="b">
         <v>1</v>
       </c>
       <c r="N109" t="b">
@@ -3784,7 +4516,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B110">
         <v>10</v>
@@ -3793,18 +4525,24 @@
         <v>30</v>
       </c>
       <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" t="s">
         <v>6</v>
       </c>
-      <c r="E110" t="b">
-        <v>1</v>
-      </c>
       <c r="F110" t="b">
         <v>1</v>
       </c>
-      <c r="H110">
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I110">
         <v>4</v>
       </c>
       <c r="L110" t="b">
+        <v>1</v>
+      </c>
+      <c r="M110" t="b">
         <v>1</v>
       </c>
       <c r="N110" t="b">
@@ -3813,7 +4551,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B111">
         <v>10</v>
@@ -3822,18 +4560,24 @@
         <v>30</v>
       </c>
       <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
         <v>7</v>
       </c>
-      <c r="E111" t="b">
-        <v>1</v>
-      </c>
       <c r="F111" t="b">
         <v>1</v>
       </c>
-      <c r="H111">
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="I111">
         <v>4</v>
       </c>
       <c r="L111" t="b">
+        <v>1</v>
+      </c>
+      <c r="M111" t="b">
         <v>1</v>
       </c>
       <c r="N111" t="b">
@@ -3842,7 +4586,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B112">
         <v>10</v>
@@ -3851,18 +4595,24 @@
         <v>30</v>
       </c>
       <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
         <v>8</v>
       </c>
-      <c r="E112" t="b">
-        <v>1</v>
-      </c>
       <c r="F112" t="b">
         <v>1</v>
       </c>
-      <c r="H112">
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="I112">
         <v>4</v>
       </c>
       <c r="L112" t="b">
+        <v>1</v>
+      </c>
+      <c r="M112" t="b">
         <v>1</v>
       </c>
       <c r="N112" t="b">
@@ -3871,7 +4621,7 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B113">
         <v>10</v>
@@ -3880,18 +4630,24 @@
         <v>30</v>
       </c>
       <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s">
         <v>9</v>
       </c>
-      <c r="E113" t="b">
-        <v>1</v>
-      </c>
       <c r="F113" t="b">
         <v>1</v>
       </c>
-      <c r="H113">
+      <c r="G113" t="b">
+        <v>1</v>
+      </c>
+      <c r="I113">
         <v>4</v>
       </c>
       <c r="L113" t="b">
+        <v>1</v>
+      </c>
+      <c r="M113" t="b">
         <v>1</v>
       </c>
       <c r="N113" t="b">
@@ -3900,7 +4656,7 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B114">
         <v>10</v>
@@ -3909,18 +4665,24 @@
         <v>30</v>
       </c>
       <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" t="s">
         <v>10</v>
       </c>
-      <c r="E114" t="b">
-        <v>1</v>
-      </c>
       <c r="F114" t="b">
         <v>1</v>
       </c>
-      <c r="H114">
+      <c r="G114" t="b">
+        <v>1</v>
+      </c>
+      <c r="I114">
         <v>4</v>
       </c>
       <c r="L114" t="b">
+        <v>1</v>
+      </c>
+      <c r="M114" t="b">
         <v>1</v>
       </c>
       <c r="N114" t="b">
@@ -3929,7 +4691,7 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B115">
         <v>10</v>
@@ -3938,18 +4700,24 @@
         <v>30</v>
       </c>
       <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
         <v>11</v>
       </c>
-      <c r="E115" t="b">
-        <v>1</v>
-      </c>
       <c r="F115" t="b">
         <v>1</v>
       </c>
-      <c r="H115">
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="I115">
         <v>4</v>
       </c>
       <c r="L115" t="b">
+        <v>1</v>
+      </c>
+      <c r="M115" t="b">
         <v>1</v>
       </c>
       <c r="N115" t="b">
@@ -3958,7 +4726,7 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B116">
         <v>10</v>
@@ -3969,16 +4737,22 @@
       <c r="D116" t="s">
         <v>12</v>
       </c>
-      <c r="E116" t="b">
-        <v>1</v>
+      <c r="E116" t="s">
+        <v>12</v>
       </c>
       <c r="F116" t="b">
         <v>1</v>
       </c>
-      <c r="H116">
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="I116">
         <v>4</v>
       </c>
       <c r="L116" t="b">
+        <v>1</v>
+      </c>
+      <c r="M116" t="b">
         <v>1</v>
       </c>
       <c r="N116" t="b">
@@ -3987,7 +4761,7 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B117">
         <v>10</v>
@@ -3996,18 +4770,24 @@
         <v>30</v>
       </c>
       <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
         <v>13</v>
       </c>
-      <c r="E117" t="b">
-        <v>1</v>
-      </c>
       <c r="F117" t="b">
         <v>1</v>
       </c>
-      <c r="H117">
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="I117">
         <v>4</v>
       </c>
       <c r="L117" t="b">
+        <v>1</v>
+      </c>
+      <c r="M117" t="b">
         <v>1</v>
       </c>
       <c r="N117" t="b">
@@ -4016,7 +4796,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B118">
         <v>10</v>
@@ -4025,18 +4805,24 @@
         <v>30</v>
       </c>
       <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
         <v>14</v>
       </c>
-      <c r="E118" t="b">
-        <v>1</v>
-      </c>
       <c r="F118" t="b">
         <v>1</v>
       </c>
-      <c r="H118">
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="I118">
         <v>4</v>
       </c>
       <c r="L118" t="b">
+        <v>1</v>
+      </c>
+      <c r="M118" t="b">
         <v>1</v>
       </c>
       <c r="N118" t="b">
@@ -4045,7 +4831,7 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B119">
         <v>11</v>
@@ -4053,23 +4839,30 @@
       <c r="C119" t="s">
         <v>24</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" t="str">
+        <f t="shared" ref="D119:D145" si="2">_xlfn.CONCAT("P",B119)</f>
+        <v>P11</v>
+      </c>
+      <c r="E119" t="s">
         <v>6</v>
       </c>
-      <c r="E119" t="b">
-        <v>1</v>
-      </c>
       <c r="F119" t="b">
         <v>1</v>
       </c>
-      <c r="H119">
-        <v>4</v>
-      </c>
-      <c r="I119" t="b">
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>4</v>
+      </c>
+      <c r="J119" t="b">
         <v>1</v>
       </c>
       <c r="L119" t="b">
         <v>1</v>
+      </c>
+      <c r="M119" t="s">
+        <v>56</v>
       </c>
       <c r="N119" t="b">
         <v>1</v>
@@ -4077,7 +4870,7 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B120">
         <v>11</v>
@@ -4085,23 +4878,30 @@
       <c r="C120" t="s">
         <v>24</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" t="str">
+        <f t="shared" si="2"/>
+        <v>P11</v>
+      </c>
+      <c r="E120" t="s">
         <v>7</v>
       </c>
-      <c r="E120" t="b">
-        <v>1</v>
-      </c>
       <c r="F120" t="b">
         <v>1</v>
       </c>
-      <c r="H120">
-        <v>4</v>
-      </c>
-      <c r="I120" t="b">
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>4</v>
+      </c>
+      <c r="J120" t="b">
         <v>1</v>
       </c>
       <c r="L120" t="b">
         <v>1</v>
+      </c>
+      <c r="M120" t="s">
+        <v>56</v>
       </c>
       <c r="N120" t="b">
         <v>1</v>
@@ -4109,7 +4909,7 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B121">
         <v>11</v>
@@ -4117,20 +4917,27 @@
       <c r="C121" t="s">
         <v>24</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" t="str">
+        <f t="shared" si="2"/>
+        <v>P11</v>
+      </c>
+      <c r="E121" t="s">
         <v>8</v>
       </c>
-      <c r="E121" t="b">
-        <v>1</v>
-      </c>
       <c r="F121" t="b">
         <v>1</v>
       </c>
-      <c r="H121">
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="I121">
         <v>4</v>
       </c>
       <c r="L121" t="b">
         <v>1</v>
+      </c>
+      <c r="M121" t="s">
+        <v>56</v>
       </c>
       <c r="N121" t="b">
         <v>1</v>
@@ -4138,7 +4945,7 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B122">
         <v>11</v>
@@ -4146,20 +4953,27 @@
       <c r="C122" t="s">
         <v>24</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" t="str">
+        <f t="shared" si="2"/>
+        <v>P11</v>
+      </c>
+      <c r="E122" t="s">
         <v>9</v>
       </c>
-      <c r="E122" t="b">
-        <v>1</v>
-      </c>
       <c r="F122" t="b">
         <v>1</v>
       </c>
-      <c r="H122">
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="I122">
         <v>4</v>
       </c>
       <c r="L122" t="b">
         <v>1</v>
+      </c>
+      <c r="M122" t="s">
+        <v>56</v>
       </c>
       <c r="N122" t="b">
         <v>1</v>
@@ -4167,7 +4981,7 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B123">
         <v>11</v>
@@ -4175,20 +4989,27 @@
       <c r="C123" t="s">
         <v>24</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" t="str">
+        <f t="shared" si="2"/>
+        <v>P11</v>
+      </c>
+      <c r="E123" t="s">
         <v>10</v>
       </c>
-      <c r="E123" t="b">
-        <v>1</v>
-      </c>
       <c r="F123" t="b">
         <v>1</v>
       </c>
-      <c r="H123">
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="I123">
         <v>4</v>
       </c>
       <c r="L123" t="b">
         <v>1</v>
+      </c>
+      <c r="M123" t="s">
+        <v>56</v>
       </c>
       <c r="N123" t="b">
         <v>1</v>
@@ -4196,7 +5017,7 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B124">
         <v>11</v>
@@ -4204,20 +5025,27 @@
       <c r="C124" t="s">
         <v>24</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" t="str">
+        <f t="shared" si="2"/>
+        <v>P11</v>
+      </c>
+      <c r="E124" t="s">
         <v>11</v>
       </c>
-      <c r="E124" t="b">
-        <v>1</v>
-      </c>
       <c r="F124" t="b">
         <v>1</v>
       </c>
-      <c r="H124">
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="I124">
         <v>4</v>
       </c>
       <c r="L124" t="b">
         <v>1</v>
+      </c>
+      <c r="M124" t="s">
+        <v>56</v>
       </c>
       <c r="N124" t="b">
         <v>1</v>
@@ -4225,7 +5053,7 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B125">
         <v>11</v>
@@ -4233,20 +5061,27 @@
       <c r="C125" t="s">
         <v>24</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" t="str">
+        <f t="shared" si="2"/>
+        <v>P11</v>
+      </c>
+      <c r="E125" t="s">
         <v>12</v>
       </c>
-      <c r="E125" t="b">
-        <v>1</v>
-      </c>
       <c r="F125" t="b">
         <v>1</v>
       </c>
-      <c r="H125">
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="I125">
         <v>4</v>
       </c>
       <c r="L125" t="b">
         <v>1</v>
+      </c>
+      <c r="M125" t="s">
+        <v>56</v>
       </c>
       <c r="N125" t="b">
         <v>1</v>
@@ -4254,7 +5089,7 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B126">
         <v>11</v>
@@ -4262,20 +5097,27 @@
       <c r="C126" t="s">
         <v>24</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" t="str">
+        <f t="shared" si="2"/>
+        <v>P11</v>
+      </c>
+      <c r="E126" t="s">
         <v>13</v>
       </c>
-      <c r="E126" t="b">
-        <v>1</v>
-      </c>
       <c r="F126" t="b">
         <v>1</v>
       </c>
-      <c r="H126">
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="I126">
         <v>4</v>
       </c>
       <c r="L126" t="b">
         <v>1</v>
+      </c>
+      <c r="M126" t="s">
+        <v>56</v>
       </c>
       <c r="N126" t="b">
         <v>1</v>
@@ -4283,7 +5125,7 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B127">
         <v>11</v>
@@ -4291,20 +5133,27 @@
       <c r="C127" t="s">
         <v>24</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" t="str">
+        <f t="shared" si="2"/>
+        <v>P11</v>
+      </c>
+      <c r="E127" t="s">
         <v>14</v>
       </c>
-      <c r="E127" t="b">
-        <v>1</v>
-      </c>
       <c r="F127" t="b">
         <v>1</v>
       </c>
-      <c r="H127">
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="I127">
         <v>4</v>
       </c>
       <c r="L127" t="b">
         <v>1</v>
+      </c>
+      <c r="M127" t="s">
+        <v>56</v>
       </c>
       <c r="N127" t="b">
         <v>1</v>
@@ -4312,7 +5161,7 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B128">
         <v>12</v>
@@ -4320,20 +5169,27 @@
       <c r="C128" t="s">
         <v>25</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" t="str">
+        <f t="shared" si="2"/>
+        <v>P12</v>
+      </c>
+      <c r="E128" t="s">
         <v>6</v>
       </c>
-      <c r="E128" t="b">
-        <v>1</v>
-      </c>
       <c r="F128" t="b">
         <v>1</v>
       </c>
-      <c r="H128">
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="I128">
         <v>4</v>
       </c>
       <c r="L128" t="b">
         <v>1</v>
+      </c>
+      <c r="M128" t="s">
+        <v>56</v>
       </c>
       <c r="N128" t="b">
         <v>1</v>
@@ -4341,7 +5197,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B129">
         <v>12</v>
@@ -4349,20 +5205,27 @@
       <c r="C129" t="s">
         <v>25</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" t="str">
+        <f t="shared" si="2"/>
+        <v>P12</v>
+      </c>
+      <c r="E129" t="s">
         <v>7</v>
       </c>
-      <c r="E129" t="b">
-        <v>1</v>
-      </c>
       <c r="F129" t="b">
         <v>1</v>
       </c>
-      <c r="H129">
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="I129">
         <v>4</v>
       </c>
       <c r="L129" t="b">
         <v>1</v>
+      </c>
+      <c r="M129" t="s">
+        <v>56</v>
       </c>
       <c r="N129" t="b">
         <v>1</v>
@@ -4370,7 +5233,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B130">
         <v>12</v>
@@ -4378,20 +5241,27 @@
       <c r="C130" t="s">
         <v>25</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" t="str">
+        <f t="shared" si="2"/>
+        <v>P12</v>
+      </c>
+      <c r="E130" t="s">
         <v>8</v>
       </c>
-      <c r="E130" t="b">
-        <v>1</v>
-      </c>
       <c r="F130" t="b">
         <v>1</v>
       </c>
-      <c r="H130">
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="I130">
         <v>4</v>
       </c>
       <c r="L130" t="b">
         <v>1</v>
+      </c>
+      <c r="M130" t="s">
+        <v>56</v>
       </c>
       <c r="N130" t="b">
         <v>1</v>
@@ -4399,7 +5269,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B131">
         <v>12</v>
@@ -4407,20 +5277,27 @@
       <c r="C131" t="s">
         <v>25</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" t="str">
+        <f t="shared" si="2"/>
+        <v>P12</v>
+      </c>
+      <c r="E131" t="s">
         <v>9</v>
       </c>
-      <c r="E131" t="b">
-        <v>1</v>
-      </c>
       <c r="F131" t="b">
         <v>1</v>
       </c>
-      <c r="H131">
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="I131">
         <v>4</v>
       </c>
       <c r="L131" t="b">
         <v>1</v>
+      </c>
+      <c r="M131" t="s">
+        <v>56</v>
       </c>
       <c r="N131" t="b">
         <v>1</v>
@@ -4428,7 +5305,7 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B132">
         <v>12</v>
@@ -4436,20 +5313,27 @@
       <c r="C132" t="s">
         <v>25</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" t="str">
+        <f t="shared" si="2"/>
+        <v>P12</v>
+      </c>
+      <c r="E132" t="s">
         <v>10</v>
       </c>
-      <c r="E132" t="b">
-        <v>1</v>
-      </c>
       <c r="F132" t="b">
         <v>1</v>
       </c>
-      <c r="H132">
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="I132">
         <v>4</v>
       </c>
       <c r="L132" t="b">
         <v>1</v>
+      </c>
+      <c r="M132" t="s">
+        <v>56</v>
       </c>
       <c r="N132" t="b">
         <v>1</v>
@@ -4457,7 +5341,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B133">
         <v>12</v>
@@ -4465,20 +5349,27 @@
       <c r="C133" t="s">
         <v>25</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" t="str">
+        <f t="shared" si="2"/>
+        <v>P12</v>
+      </c>
+      <c r="E133" t="s">
         <v>11</v>
       </c>
-      <c r="E133" t="b">
-        <v>1</v>
-      </c>
       <c r="F133" t="b">
         <v>1</v>
       </c>
-      <c r="H133">
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="I133">
         <v>4</v>
       </c>
       <c r="L133" t="b">
         <v>1</v>
+      </c>
+      <c r="M133" t="s">
+        <v>56</v>
       </c>
       <c r="N133" t="b">
         <v>1</v>
@@ -4486,7 +5377,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B134">
         <v>12</v>
@@ -4494,20 +5385,27 @@
       <c r="C134" t="s">
         <v>25</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" t="str">
+        <f t="shared" si="2"/>
+        <v>P12</v>
+      </c>
+      <c r="E134" t="s">
         <v>12</v>
       </c>
-      <c r="E134" t="b">
-        <v>1</v>
-      </c>
       <c r="F134" t="b">
         <v>1</v>
       </c>
-      <c r="H134">
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="I134">
         <v>4</v>
       </c>
       <c r="L134" t="b">
         <v>1</v>
+      </c>
+      <c r="M134" t="s">
+        <v>56</v>
       </c>
       <c r="N134" t="b">
         <v>1</v>
@@ -4515,7 +5413,7 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B135">
         <v>12</v>
@@ -4523,20 +5421,27 @@
       <c r="C135" t="s">
         <v>25</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" t="str">
+        <f t="shared" si="2"/>
+        <v>P12</v>
+      </c>
+      <c r="E135" t="s">
         <v>13</v>
       </c>
-      <c r="E135" t="b">
-        <v>1</v>
-      </c>
       <c r="F135" t="b">
         <v>1</v>
       </c>
-      <c r="H135">
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="I135">
         <v>4</v>
       </c>
       <c r="L135" t="b">
         <v>1</v>
+      </c>
+      <c r="M135" t="s">
+        <v>56</v>
       </c>
       <c r="N135" t="b">
         <v>1</v>
@@ -4544,7 +5449,7 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B136">
         <v>12</v>
@@ -4552,20 +5457,27 @@
       <c r="C136" t="s">
         <v>25</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" t="str">
+        <f t="shared" si="2"/>
+        <v>P12</v>
+      </c>
+      <c r="E136" t="s">
         <v>14</v>
       </c>
-      <c r="E136" t="b">
-        <v>1</v>
-      </c>
       <c r="F136" t="b">
         <v>1</v>
       </c>
-      <c r="H136">
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="I136">
         <v>4</v>
       </c>
       <c r="L136" t="b">
         <v>1</v>
+      </c>
+      <c r="M136" t="s">
+        <v>56</v>
       </c>
       <c r="N136" t="b">
         <v>1</v>
@@ -4573,7 +5485,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B137">
         <v>13</v>
@@ -4581,19 +5493,26 @@
       <c r="C137" t="s">
         <v>26</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" t="str">
+        <f t="shared" si="2"/>
+        <v>P13</v>
+      </c>
+      <c r="E137" t="s">
         <v>6</v>
       </c>
-      <c r="E137" t="b">
-        <v>1</v>
-      </c>
       <c r="F137" t="b">
         <v>1</v>
       </c>
-      <c r="H137">
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
+      <c r="I137">
         <v>4</v>
       </c>
       <c r="L137" t="b">
+        <v>1</v>
+      </c>
+      <c r="M137" t="b">
         <v>1</v>
       </c>
       <c r="N137" t="b">
@@ -4602,7 +5521,7 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B138">
         <v>13</v>
@@ -4610,19 +5529,26 @@
       <c r="C138" t="s">
         <v>26</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" t="str">
+        <f t="shared" si="2"/>
+        <v>P13</v>
+      </c>
+      <c r="E138" t="s">
         <v>7</v>
       </c>
-      <c r="E138" t="b">
-        <v>1</v>
-      </c>
       <c r="F138" t="b">
         <v>1</v>
       </c>
-      <c r="H138">
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="I138">
         <v>4</v>
       </c>
       <c r="L138" t="b">
+        <v>1</v>
+      </c>
+      <c r="M138" t="b">
         <v>1</v>
       </c>
       <c r="N138" t="b">
@@ -4631,7 +5557,7 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B139">
         <v>13</v>
@@ -4639,19 +5565,26 @@
       <c r="C139" t="s">
         <v>26</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" t="str">
+        <f t="shared" si="2"/>
+        <v>P13</v>
+      </c>
+      <c r="E139" t="s">
         <v>8</v>
       </c>
-      <c r="E139" t="b">
-        <v>1</v>
-      </c>
       <c r="F139" t="b">
         <v>1</v>
       </c>
-      <c r="H139">
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="I139">
         <v>4</v>
       </c>
       <c r="L139" t="b">
+        <v>1</v>
+      </c>
+      <c r="M139" t="b">
         <v>1</v>
       </c>
       <c r="N139" t="b">
@@ -4660,7 +5593,7 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B140">
         <v>13</v>
@@ -4668,19 +5601,26 @@
       <c r="C140" t="s">
         <v>26</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" t="str">
+        <f t="shared" si="2"/>
+        <v>P13</v>
+      </c>
+      <c r="E140" t="s">
         <v>9</v>
       </c>
-      <c r="E140" t="b">
-        <v>1</v>
-      </c>
       <c r="F140" t="b">
         <v>1</v>
       </c>
-      <c r="H140">
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="I140">
         <v>4</v>
       </c>
       <c r="L140" t="b">
+        <v>1</v>
+      </c>
+      <c r="M140" t="b">
         <v>1</v>
       </c>
       <c r="N140" t="b">
@@ -4689,7 +5629,7 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B141">
         <v>13</v>
@@ -4697,19 +5637,26 @@
       <c r="C141" t="s">
         <v>26</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" t="str">
+        <f t="shared" si="2"/>
+        <v>P13</v>
+      </c>
+      <c r="E141" t="s">
         <v>10</v>
       </c>
-      <c r="E141" t="b">
-        <v>1</v>
-      </c>
       <c r="F141" t="b">
         <v>1</v>
       </c>
-      <c r="H141">
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="I141">
         <v>4</v>
       </c>
       <c r="L141" t="b">
+        <v>1</v>
+      </c>
+      <c r="M141" t="b">
         <v>1</v>
       </c>
       <c r="N141" t="b">
@@ -4718,7 +5665,7 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B142">
         <v>13</v>
@@ -4726,19 +5673,26 @@
       <c r="C142" t="s">
         <v>26</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" t="str">
+        <f t="shared" si="2"/>
+        <v>P13</v>
+      </c>
+      <c r="E142" t="s">
         <v>11</v>
       </c>
-      <c r="E142" t="b">
-        <v>1</v>
-      </c>
       <c r="F142" t="b">
         <v>1</v>
       </c>
-      <c r="H142">
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="I142">
         <v>4</v>
       </c>
       <c r="L142" t="b">
+        <v>1</v>
+      </c>
+      <c r="M142" t="b">
         <v>1</v>
       </c>
       <c r="N142" t="b">
@@ -4747,7 +5701,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B143">
         <v>13</v>
@@ -4755,19 +5709,26 @@
       <c r="C143" t="s">
         <v>26</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" t="str">
+        <f t="shared" si="2"/>
+        <v>P13</v>
+      </c>
+      <c r="E143" t="s">
         <v>12</v>
       </c>
-      <c r="E143" t="b">
-        <v>1</v>
-      </c>
       <c r="F143" t="b">
         <v>1</v>
       </c>
-      <c r="H143">
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="I143">
         <v>4</v>
       </c>
       <c r="L143" t="b">
+        <v>1</v>
+      </c>
+      <c r="M143" t="b">
         <v>1</v>
       </c>
       <c r="N143" t="b">
@@ -4776,7 +5737,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B144">
         <v>13</v>
@@ -4784,19 +5745,26 @@
       <c r="C144" t="s">
         <v>26</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" t="str">
+        <f t="shared" si="2"/>
+        <v>P13</v>
+      </c>
+      <c r="E144" t="s">
         <v>13</v>
       </c>
-      <c r="E144" t="b">
-        <v>1</v>
-      </c>
       <c r="F144" t="b">
         <v>1</v>
       </c>
-      <c r="H144">
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+      <c r="I144">
         <v>4</v>
       </c>
       <c r="L144" t="b">
+        <v>1</v>
+      </c>
+      <c r="M144" t="b">
         <v>1</v>
       </c>
       <c r="N144" t="b">
@@ -4805,7 +5773,7 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B145">
         <v>13</v>
@@ -4813,19 +5781,26 @@
       <c r="C145" t="s">
         <v>26</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" t="str">
+        <f t="shared" si="2"/>
+        <v>P13</v>
+      </c>
+      <c r="E145" t="s">
         <v>14</v>
       </c>
-      <c r="E145" t="b">
-        <v>1</v>
-      </c>
       <c r="F145" t="b">
         <v>1</v>
       </c>
-      <c r="H145">
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="I145">
         <v>4</v>
       </c>
       <c r="L145" t="b">
+        <v>1</v>
+      </c>
+      <c r="M145" t="b">
         <v>1</v>
       </c>
       <c r="N145" t="b">
@@ -4834,7 +5809,7 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B146">
         <v>13</v>
@@ -4843,18 +5818,24 @@
         <v>33</v>
       </c>
       <c r="D146" t="s">
+        <v>52</v>
+      </c>
+      <c r="E146" t="s">
         <v>6</v>
       </c>
-      <c r="E146" t="b">
-        <v>1</v>
-      </c>
       <c r="F146" t="b">
         <v>1</v>
       </c>
-      <c r="H146">
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+      <c r="I146">
         <v>4</v>
       </c>
       <c r="L146" t="b">
+        <v>1</v>
+      </c>
+      <c r="M146" t="b">
         <v>1</v>
       </c>
       <c r="N146" t="b">
@@ -4863,7 +5844,7 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B147">
         <v>13</v>
@@ -4872,18 +5853,24 @@
         <v>33</v>
       </c>
       <c r="D147" t="s">
+        <v>52</v>
+      </c>
+      <c r="E147" t="s">
         <v>7</v>
       </c>
-      <c r="E147" t="b">
-        <v>1</v>
-      </c>
       <c r="F147" t="b">
         <v>1</v>
       </c>
-      <c r="H147">
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="I147">
         <v>4</v>
       </c>
       <c r="L147" t="b">
+        <v>1</v>
+      </c>
+      <c r="M147" t="b">
         <v>1</v>
       </c>
       <c r="N147" t="b">
@@ -4892,7 +5879,7 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B148">
         <v>13</v>
@@ -4901,18 +5888,24 @@
         <v>33</v>
       </c>
       <c r="D148" t="s">
+        <v>52</v>
+      </c>
+      <c r="E148" t="s">
         <v>8</v>
       </c>
-      <c r="E148" t="b">
-        <v>1</v>
-      </c>
       <c r="F148" t="b">
         <v>1</v>
       </c>
-      <c r="H148">
+      <c r="G148" t="b">
+        <v>1</v>
+      </c>
+      <c r="I148">
         <v>4</v>
       </c>
       <c r="L148" t="b">
+        <v>1</v>
+      </c>
+      <c r="M148" t="b">
         <v>1</v>
       </c>
       <c r="N148" t="b">
@@ -4921,7 +5914,7 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B149">
         <v>13</v>
@@ -4930,18 +5923,24 @@
         <v>33</v>
       </c>
       <c r="D149" t="s">
+        <v>52</v>
+      </c>
+      <c r="E149" t="s">
         <v>9</v>
       </c>
-      <c r="E149" t="b">
-        <v>1</v>
-      </c>
       <c r="F149" t="b">
         <v>1</v>
       </c>
-      <c r="H149">
+      <c r="G149" t="b">
+        <v>1</v>
+      </c>
+      <c r="I149">
         <v>4</v>
       </c>
       <c r="L149" t="b">
+        <v>1</v>
+      </c>
+      <c r="M149" t="b">
         <v>1</v>
       </c>
       <c r="N149" t="b">
@@ -4950,7 +5949,7 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B150">
         <v>13</v>
@@ -4959,18 +5958,24 @@
         <v>33</v>
       </c>
       <c r="D150" t="s">
+        <v>52</v>
+      </c>
+      <c r="E150" t="s">
         <v>10</v>
       </c>
-      <c r="E150" t="b">
-        <v>1</v>
-      </c>
       <c r="F150" t="b">
         <v>1</v>
       </c>
-      <c r="H150">
+      <c r="G150" t="b">
+        <v>1</v>
+      </c>
+      <c r="I150">
         <v>4</v>
       </c>
       <c r="L150" t="b">
+        <v>1</v>
+      </c>
+      <c r="M150" t="b">
         <v>1</v>
       </c>
       <c r="N150" t="b">
@@ -4979,7 +5984,7 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B151">
         <v>13</v>
@@ -4988,18 +5993,24 @@
         <v>33</v>
       </c>
       <c r="D151" t="s">
+        <v>52</v>
+      </c>
+      <c r="E151" t="s">
         <v>11</v>
       </c>
-      <c r="E151" t="b">
-        <v>1</v>
-      </c>
       <c r="F151" t="b">
         <v>1</v>
       </c>
-      <c r="H151">
+      <c r="G151" t="b">
+        <v>1</v>
+      </c>
+      <c r="I151">
         <v>4</v>
       </c>
       <c r="L151" t="b">
+        <v>1</v>
+      </c>
+      <c r="M151" t="b">
         <v>1</v>
       </c>
       <c r="N151" t="b">
@@ -5008,7 +6019,7 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B152">
         <v>13</v>
@@ -5017,18 +6028,24 @@
         <v>33</v>
       </c>
       <c r="D152" t="s">
+        <v>52</v>
+      </c>
+      <c r="E152" t="s">
         <v>12</v>
       </c>
-      <c r="E152" t="b">
-        <v>1</v>
-      </c>
       <c r="F152" t="b">
         <v>1</v>
       </c>
-      <c r="H152">
+      <c r="G152" t="b">
+        <v>1</v>
+      </c>
+      <c r="I152">
         <v>4</v>
       </c>
       <c r="L152" t="b">
+        <v>1</v>
+      </c>
+      <c r="M152" t="b">
         <v>1</v>
       </c>
       <c r="N152" t="b">
@@ -5037,7 +6054,7 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B153">
         <v>13</v>
@@ -5046,18 +6063,24 @@
         <v>33</v>
       </c>
       <c r="D153" t="s">
+        <v>52</v>
+      </c>
+      <c r="E153" t="s">
         <v>13</v>
       </c>
-      <c r="E153" t="b">
-        <v>1</v>
-      </c>
       <c r="F153" t="b">
         <v>1</v>
       </c>
-      <c r="H153">
+      <c r="G153" t="b">
+        <v>1</v>
+      </c>
+      <c r="I153">
         <v>4</v>
       </c>
       <c r="L153" t="b">
+        <v>1</v>
+      </c>
+      <c r="M153" t="b">
         <v>1</v>
       </c>
       <c r="N153" t="b">
@@ -5066,7 +6089,7 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B154">
         <v>13</v>
@@ -5075,18 +6098,24 @@
         <v>33</v>
       </c>
       <c r="D154" t="s">
+        <v>52</v>
+      </c>
+      <c r="E154" t="s">
         <v>14</v>
       </c>
-      <c r="E154" t="b">
-        <v>1</v>
-      </c>
       <c r="F154" t="b">
         <v>1</v>
       </c>
-      <c r="H154">
+      <c r="G154" t="b">
+        <v>1</v>
+      </c>
+      <c r="I154">
         <v>4</v>
       </c>
       <c r="L154" t="b">
+        <v>1</v>
+      </c>
+      <c r="M154" t="b">
         <v>1</v>
       </c>
       <c r="N154" t="b">
@@ -5095,7 +6124,7 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B155">
         <v>14</v>
@@ -5103,20 +6132,27 @@
       <c r="C155" t="s">
         <v>27</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" t="str">
+        <f t="shared" ref="D155:D172" si="3">_xlfn.CONCAT("P",B155)</f>
+        <v>P14</v>
+      </c>
+      <c r="E155" t="s">
         <v>6</v>
       </c>
-      <c r="E155" t="b">
-        <v>1</v>
-      </c>
       <c r="F155" t="b">
         <v>1</v>
       </c>
-      <c r="H155">
+      <c r="G155" t="b">
+        <v>1</v>
+      </c>
+      <c r="I155">
         <v>4</v>
       </c>
       <c r="L155" t="b">
         <v>1</v>
+      </c>
+      <c r="M155" t="s">
+        <v>56</v>
       </c>
       <c r="N155" t="b">
         <v>1</v>
@@ -5124,7 +6160,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B156">
         <v>14</v>
@@ -5132,20 +6168,27 @@
       <c r="C156" t="s">
         <v>27</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" t="str">
+        <f t="shared" si="3"/>
+        <v>P14</v>
+      </c>
+      <c r="E156" t="s">
         <v>7</v>
       </c>
-      <c r="E156" t="b">
-        <v>1</v>
-      </c>
       <c r="F156" t="b">
         <v>1</v>
       </c>
-      <c r="H156">
+      <c r="G156" t="b">
+        <v>1</v>
+      </c>
+      <c r="I156">
         <v>4</v>
       </c>
       <c r="L156" t="b">
         <v>1</v>
+      </c>
+      <c r="M156" t="s">
+        <v>56</v>
       </c>
       <c r="N156" t="b">
         <v>1</v>
@@ -5153,7 +6196,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B157">
         <v>14</v>
@@ -5161,20 +6204,27 @@
       <c r="C157" t="s">
         <v>27</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" t="str">
+        <f t="shared" si="3"/>
+        <v>P14</v>
+      </c>
+      <c r="E157" t="s">
         <v>8</v>
       </c>
-      <c r="E157" t="b">
-        <v>1</v>
-      </c>
       <c r="F157" t="b">
         <v>1</v>
       </c>
-      <c r="H157">
+      <c r="G157" t="b">
+        <v>1</v>
+      </c>
+      <c r="I157">
         <v>4</v>
       </c>
       <c r="L157" t="b">
         <v>1</v>
+      </c>
+      <c r="M157" t="s">
+        <v>56</v>
       </c>
       <c r="N157" t="b">
         <v>1</v>
@@ -5182,7 +6232,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B158">
         <v>14</v>
@@ -5190,20 +6240,27 @@
       <c r="C158" t="s">
         <v>27</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" t="str">
+        <f t="shared" si="3"/>
+        <v>P14</v>
+      </c>
+      <c r="E158" t="s">
         <v>9</v>
       </c>
-      <c r="E158" t="b">
-        <v>1</v>
-      </c>
       <c r="F158" t="b">
         <v>1</v>
       </c>
-      <c r="H158">
+      <c r="G158" t="b">
+        <v>1</v>
+      </c>
+      <c r="I158">
         <v>4</v>
       </c>
       <c r="L158" t="b">
         <v>1</v>
+      </c>
+      <c r="M158" t="s">
+        <v>56</v>
       </c>
       <c r="N158" t="b">
         <v>1</v>
@@ -5211,7 +6268,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B159">
         <v>14</v>
@@ -5219,20 +6276,27 @@
       <c r="C159" t="s">
         <v>27</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" t="str">
+        <f t="shared" si="3"/>
+        <v>P14</v>
+      </c>
+      <c r="E159" t="s">
         <v>10</v>
       </c>
-      <c r="E159" t="b">
-        <v>1</v>
-      </c>
       <c r="F159" t="b">
         <v>1</v>
       </c>
-      <c r="H159">
+      <c r="G159" t="b">
+        <v>1</v>
+      </c>
+      <c r="I159">
         <v>4</v>
       </c>
       <c r="L159" t="b">
         <v>1</v>
+      </c>
+      <c r="M159" t="s">
+        <v>56</v>
       </c>
       <c r="N159" t="b">
         <v>1</v>
@@ -5240,7 +6304,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B160">
         <v>14</v>
@@ -5248,20 +6312,27 @@
       <c r="C160" t="s">
         <v>27</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" t="str">
+        <f t="shared" si="3"/>
+        <v>P14</v>
+      </c>
+      <c r="E160" t="s">
         <v>11</v>
       </c>
-      <c r="E160" t="b">
-        <v>1</v>
-      </c>
       <c r="F160" t="b">
         <v>1</v>
       </c>
-      <c r="H160">
+      <c r="G160" t="b">
+        <v>1</v>
+      </c>
+      <c r="I160">
         <v>4</v>
       </c>
       <c r="L160" t="b">
         <v>1</v>
+      </c>
+      <c r="M160" t="s">
+        <v>56</v>
       </c>
       <c r="N160" t="b">
         <v>1</v>
@@ -5269,7 +6340,7 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B161">
         <v>14</v>
@@ -5277,20 +6348,27 @@
       <c r="C161" t="s">
         <v>27</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" t="str">
+        <f t="shared" si="3"/>
+        <v>P14</v>
+      </c>
+      <c r="E161" t="s">
         <v>12</v>
       </c>
-      <c r="E161" t="b">
-        <v>1</v>
-      </c>
       <c r="F161" t="b">
         <v>1</v>
       </c>
-      <c r="H161">
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+      <c r="I161">
         <v>4</v>
       </c>
       <c r="L161" t="b">
         <v>1</v>
+      </c>
+      <c r="M161" t="s">
+        <v>56</v>
       </c>
       <c r="N161" t="b">
         <v>1</v>
@@ -5298,7 +6376,7 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B162">
         <v>14</v>
@@ -5306,20 +6384,27 @@
       <c r="C162" t="s">
         <v>27</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" t="str">
+        <f t="shared" si="3"/>
+        <v>P14</v>
+      </c>
+      <c r="E162" t="s">
         <v>13</v>
       </c>
-      <c r="E162" t="b">
-        <v>1</v>
-      </c>
       <c r="F162" t="b">
         <v>1</v>
       </c>
-      <c r="H162">
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
+      <c r="I162">
         <v>4</v>
       </c>
       <c r="L162" t="b">
         <v>1</v>
+      </c>
+      <c r="M162" t="s">
+        <v>56</v>
       </c>
       <c r="N162" t="b">
         <v>1</v>
@@ -5327,7 +6412,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B163">
         <v>14</v>
@@ -5335,20 +6420,27 @@
       <c r="C163" t="s">
         <v>27</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" t="str">
+        <f t="shared" si="3"/>
+        <v>P14</v>
+      </c>
+      <c r="E163" t="s">
         <v>14</v>
       </c>
-      <c r="E163" t="b">
-        <v>1</v>
-      </c>
       <c r="F163" t="b">
         <v>1</v>
       </c>
-      <c r="H163">
+      <c r="G163" t="b">
+        <v>1</v>
+      </c>
+      <c r="I163">
         <v>4</v>
       </c>
       <c r="L163" t="b">
         <v>1</v>
+      </c>
+      <c r="M163" t="s">
+        <v>56</v>
       </c>
       <c r="N163" t="b">
         <v>1</v>
@@ -5356,7 +6448,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B164">
         <v>15</v>
@@ -5364,19 +6456,26 @@
       <c r="C164" t="s">
         <v>28</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" t="str">
+        <f t="shared" si="3"/>
+        <v>P15</v>
+      </c>
+      <c r="E164" t="s">
         <v>6</v>
       </c>
-      <c r="E164" t="b">
-        <v>1</v>
-      </c>
       <c r="F164" t="b">
         <v>1</v>
       </c>
-      <c r="H164">
+      <c r="G164" t="b">
+        <v>1</v>
+      </c>
+      <c r="I164">
         <v>4</v>
       </c>
       <c r="L164" t="b">
+        <v>1</v>
+      </c>
+      <c r="M164" t="b">
         <v>1</v>
       </c>
       <c r="N164" t="b">
@@ -5385,7 +6484,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B165">
         <v>15</v>
@@ -5393,23 +6492,24 @@
       <c r="C165" t="s">
         <v>28</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" t="str">
+        <f t="shared" si="3"/>
+        <v>P15</v>
+      </c>
+      <c r="E165" t="s">
         <v>7</v>
       </c>
-      <c r="E165" t="b">
-        <v>1</v>
-      </c>
       <c r="F165" t="b">
         <v>1</v>
       </c>
-      <c r="G165">
-        <v>4</v>
+      <c r="G165" t="b">
+        <v>1</v>
       </c>
       <c r="H165">
         <v>4</v>
       </c>
-      <c r="I165" t="b">
-        <v>1</v>
+      <c r="I165">
+        <v>4</v>
       </c>
       <c r="J165" t="b">
         <v>1</v>
@@ -5429,7 +6529,7 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B166">
         <v>15</v>
@@ -5437,19 +6537,26 @@
       <c r="C166" t="s">
         <v>28</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" t="str">
+        <f t="shared" si="3"/>
+        <v>P15</v>
+      </c>
+      <c r="E166" t="s">
         <v>8</v>
       </c>
-      <c r="E166" t="b">
-        <v>1</v>
-      </c>
       <c r="F166" t="b">
         <v>1</v>
       </c>
-      <c r="H166">
+      <c r="G166" t="b">
+        <v>1</v>
+      </c>
+      <c r="I166">
         <v>4</v>
       </c>
       <c r="L166" t="b">
+        <v>1</v>
+      </c>
+      <c r="M166" t="b">
         <v>1</v>
       </c>
       <c r="N166" t="b">
@@ -5458,7 +6565,7 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B167">
         <v>15</v>
@@ -5466,19 +6573,26 @@
       <c r="C167" t="s">
         <v>28</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" t="str">
+        <f t="shared" si="3"/>
+        <v>P15</v>
+      </c>
+      <c r="E167" t="s">
         <v>9</v>
       </c>
-      <c r="E167" t="b">
-        <v>1</v>
-      </c>
       <c r="F167" t="b">
         <v>1</v>
       </c>
-      <c r="H167">
+      <c r="G167" t="b">
+        <v>1</v>
+      </c>
+      <c r="I167">
         <v>4</v>
       </c>
       <c r="L167" t="b">
+        <v>1</v>
+      </c>
+      <c r="M167" t="b">
         <v>1</v>
       </c>
       <c r="N167" t="b">
@@ -5487,7 +6601,7 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B168">
         <v>15</v>
@@ -5495,19 +6609,26 @@
       <c r="C168" t="s">
         <v>28</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" t="str">
+        <f t="shared" si="3"/>
+        <v>P15</v>
+      </c>
+      <c r="E168" t="s">
         <v>10</v>
       </c>
-      <c r="E168" t="b">
-        <v>1</v>
-      </c>
       <c r="F168" t="b">
         <v>1</v>
       </c>
-      <c r="H168">
+      <c r="G168" t="b">
+        <v>1</v>
+      </c>
+      <c r="I168">
         <v>4</v>
       </c>
       <c r="L168" t="b">
+        <v>1</v>
+      </c>
+      <c r="M168" t="b">
         <v>1</v>
       </c>
       <c r="N168" t="b">
@@ -5516,7 +6637,7 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B169">
         <v>15</v>
@@ -5524,19 +6645,26 @@
       <c r="C169" t="s">
         <v>28</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" t="str">
+        <f t="shared" si="3"/>
+        <v>P15</v>
+      </c>
+      <c r="E169" t="s">
         <v>11</v>
       </c>
-      <c r="E169" t="b">
-        <v>1</v>
-      </c>
       <c r="F169" t="b">
         <v>1</v>
       </c>
-      <c r="H169">
+      <c r="G169" t="b">
+        <v>1</v>
+      </c>
+      <c r="I169">
         <v>4</v>
       </c>
       <c r="L169" t="b">
+        <v>1</v>
+      </c>
+      <c r="M169" t="b">
         <v>1</v>
       </c>
       <c r="N169" t="b">
@@ -5545,7 +6673,7 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B170">
         <v>15</v>
@@ -5553,19 +6681,26 @@
       <c r="C170" t="s">
         <v>28</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" t="str">
+        <f t="shared" si="3"/>
+        <v>P15</v>
+      </c>
+      <c r="E170" t="s">
         <v>12</v>
       </c>
-      <c r="E170" t="b">
-        <v>1</v>
-      </c>
       <c r="F170" t="b">
         <v>1</v>
       </c>
-      <c r="H170">
+      <c r="G170" t="b">
+        <v>1</v>
+      </c>
+      <c r="I170">
         <v>4</v>
       </c>
       <c r="L170" t="b">
+        <v>1</v>
+      </c>
+      <c r="M170" t="b">
         <v>1</v>
       </c>
       <c r="N170" t="b">
@@ -5574,7 +6709,7 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B171">
         <v>15</v>
@@ -5582,19 +6717,26 @@
       <c r="C171" t="s">
         <v>28</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" t="str">
+        <f t="shared" si="3"/>
+        <v>P15</v>
+      </c>
+      <c r="E171" t="s">
         <v>13</v>
       </c>
-      <c r="E171" t="b">
-        <v>1</v>
-      </c>
       <c r="F171" t="b">
         <v>1</v>
       </c>
-      <c r="H171">
+      <c r="G171" t="b">
+        <v>1</v>
+      </c>
+      <c r="I171">
         <v>4</v>
       </c>
       <c r="L171" t="b">
+        <v>1</v>
+      </c>
+      <c r="M171" t="b">
         <v>1</v>
       </c>
       <c r="N171" t="b">
@@ -5603,7 +6745,7 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B172">
         <v>15</v>
@@ -5611,19 +6753,26 @@
       <c r="C172" t="s">
         <v>28</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" t="str">
+        <f t="shared" si="3"/>
+        <v>P15</v>
+      </c>
+      <c r="E172" t="s">
         <v>14</v>
       </c>
-      <c r="E172" t="b">
-        <v>1</v>
-      </c>
       <c r="F172" t="b">
         <v>1</v>
       </c>
-      <c r="H172">
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="I172">
         <v>4</v>
       </c>
       <c r="L172" t="b">
+        <v>1</v>
+      </c>
+      <c r="M172" t="b">
         <v>1</v>
       </c>
       <c r="N172" t="b">
@@ -5632,7 +6781,7 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B173">
         <v>19</v>
@@ -5641,18 +6790,24 @@
         <v>29</v>
       </c>
       <c r="D173" t="s">
+        <v>53</v>
+      </c>
+      <c r="E173" t="s">
         <v>6</v>
       </c>
-      <c r="E173" t="b">
-        <v>1</v>
-      </c>
       <c r="F173" t="b">
         <v>1</v>
       </c>
-      <c r="H173">
+      <c r="G173" t="b">
+        <v>1</v>
+      </c>
+      <c r="I173">
         <v>4</v>
       </c>
       <c r="L173" t="b">
+        <v>1</v>
+      </c>
+      <c r="M173" t="b">
         <v>1</v>
       </c>
       <c r="N173" t="b">
@@ -5661,7 +6816,7 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B174">
         <v>19</v>
@@ -5670,18 +6825,24 @@
         <v>29</v>
       </c>
       <c r="D174" t="s">
+        <v>53</v>
+      </c>
+      <c r="E174" t="s">
         <v>7</v>
       </c>
-      <c r="E174" t="b">
-        <v>1</v>
-      </c>
       <c r="F174" t="b">
         <v>1</v>
       </c>
-      <c r="H174">
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="I174">
         <v>4</v>
       </c>
       <c r="L174" t="b">
+        <v>1</v>
+      </c>
+      <c r="M174" t="b">
         <v>1</v>
       </c>
       <c r="N174" t="b">
@@ -5690,7 +6851,7 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B175">
         <v>19</v>
@@ -5699,18 +6860,24 @@
         <v>29</v>
       </c>
       <c r="D175" t="s">
+        <v>53</v>
+      </c>
+      <c r="E175" t="s">
         <v>8</v>
       </c>
-      <c r="E175" t="b">
-        <v>1</v>
-      </c>
       <c r="F175" t="b">
         <v>1</v>
       </c>
-      <c r="H175">
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="I175">
         <v>4</v>
       </c>
       <c r="L175" t="b">
+        <v>1</v>
+      </c>
+      <c r="M175" t="b">
         <v>1</v>
       </c>
       <c r="N175" t="b">
@@ -5719,7 +6886,7 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B176">
         <v>19</v>
@@ -5728,18 +6895,24 @@
         <v>29</v>
       </c>
       <c r="D176" t="s">
+        <v>53</v>
+      </c>
+      <c r="E176" t="s">
         <v>9</v>
       </c>
-      <c r="E176" t="b">
-        <v>1</v>
-      </c>
       <c r="F176" t="b">
         <v>1</v>
       </c>
-      <c r="H176">
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="I176">
         <v>4</v>
       </c>
       <c r="L176" t="b">
+        <v>1</v>
+      </c>
+      <c r="M176" t="b">
         <v>1</v>
       </c>
       <c r="N176" t="b">
@@ -5748,7 +6921,7 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B177">
         <v>19</v>
@@ -5757,18 +6930,24 @@
         <v>29</v>
       </c>
       <c r="D177" t="s">
+        <v>53</v>
+      </c>
+      <c r="E177" t="s">
         <v>10</v>
       </c>
-      <c r="E177" t="b">
-        <v>1</v>
-      </c>
       <c r="F177" t="b">
         <v>1</v>
       </c>
-      <c r="H177">
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="I177">
         <v>4</v>
       </c>
       <c r="L177" t="b">
+        <v>1</v>
+      </c>
+      <c r="M177" t="b">
         <v>1</v>
       </c>
       <c r="N177" t="b">
@@ -5777,7 +6956,7 @@
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B178">
         <v>19</v>
@@ -5786,18 +6965,24 @@
         <v>29</v>
       </c>
       <c r="D178" t="s">
+        <v>53</v>
+      </c>
+      <c r="E178" t="s">
         <v>11</v>
       </c>
-      <c r="E178" t="b">
-        <v>1</v>
-      </c>
       <c r="F178" t="b">
         <v>1</v>
       </c>
-      <c r="H178">
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="I178">
         <v>4</v>
       </c>
       <c r="L178" t="b">
+        <v>1</v>
+      </c>
+      <c r="M178" t="b">
         <v>1</v>
       </c>
       <c r="N178" t="b">
@@ -5806,7 +6991,7 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B179">
         <v>19</v>
@@ -5815,18 +7000,24 @@
         <v>29</v>
       </c>
       <c r="D179" t="s">
+        <v>53</v>
+      </c>
+      <c r="E179" t="s">
         <v>12</v>
       </c>
-      <c r="E179" t="b">
-        <v>1</v>
-      </c>
       <c r="F179" t="b">
         <v>1</v>
       </c>
-      <c r="H179">
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="I179">
         <v>4</v>
       </c>
       <c r="L179" t="b">
+        <v>1</v>
+      </c>
+      <c r="M179" t="b">
         <v>1</v>
       </c>
       <c r="N179" t="b">
@@ -5835,7 +7026,7 @@
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B180">
         <v>19</v>
@@ -5844,18 +7035,24 @@
         <v>29</v>
       </c>
       <c r="D180" t="s">
+        <v>53</v>
+      </c>
+      <c r="E180" t="s">
         <v>13</v>
       </c>
-      <c r="E180" t="b">
-        <v>1</v>
-      </c>
       <c r="F180" t="b">
         <v>1</v>
       </c>
-      <c r="H180">
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="I180">
         <v>4</v>
       </c>
       <c r="L180" t="b">
+        <v>1</v>
+      </c>
+      <c r="M180" t="b">
         <v>1</v>
       </c>
       <c r="N180" t="b">
@@ -5864,7 +7061,7 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B181">
         <v>19</v>
@@ -5873,18 +7070,24 @@
         <v>29</v>
       </c>
       <c r="D181" t="s">
+        <v>53</v>
+      </c>
+      <c r="E181" t="s">
         <v>14</v>
       </c>
-      <c r="E181" t="b">
-        <v>1</v>
-      </c>
       <c r="F181" t="b">
         <v>1</v>
       </c>
-      <c r="H181">
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="I181">
         <v>4</v>
       </c>
       <c r="L181" t="b">
+        <v>1</v>
+      </c>
+      <c r="M181" t="b">
         <v>1</v>
       </c>
       <c r="N181" t="b">
@@ -5893,7 +7096,7 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B182">
         <v>21</v>
@@ -5902,18 +7105,24 @@
         <v>31</v>
       </c>
       <c r="D182" t="s">
+        <v>54</v>
+      </c>
+      <c r="E182" t="s">
         <v>6</v>
       </c>
-      <c r="E182" t="b">
-        <v>1</v>
-      </c>
       <c r="F182" t="b">
         <v>1</v>
       </c>
-      <c r="H182">
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="I182">
         <v>4</v>
       </c>
       <c r="L182" t="b">
+        <v>1</v>
+      </c>
+      <c r="M182" t="b">
         <v>1</v>
       </c>
       <c r="N182" t="b">
@@ -5922,7 +7131,7 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B183">
         <v>21</v>
@@ -5931,18 +7140,24 @@
         <v>31</v>
       </c>
       <c r="D183" t="s">
+        <v>54</v>
+      </c>
+      <c r="E183" t="s">
         <v>7</v>
       </c>
-      <c r="E183" t="b">
-        <v>1</v>
-      </c>
       <c r="F183" t="b">
         <v>1</v>
       </c>
-      <c r="H183">
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="I183">
         <v>4</v>
       </c>
       <c r="L183" t="b">
+        <v>1</v>
+      </c>
+      <c r="M183" t="b">
         <v>1</v>
       </c>
       <c r="N183" t="b">
@@ -5951,7 +7166,7 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B184">
         <v>21</v>
@@ -5960,18 +7175,24 @@
         <v>31</v>
       </c>
       <c r="D184" t="s">
+        <v>54</v>
+      </c>
+      <c r="E184" t="s">
         <v>8</v>
       </c>
-      <c r="E184" t="b">
-        <v>1</v>
-      </c>
       <c r="F184" t="b">
         <v>1</v>
       </c>
-      <c r="H184">
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="I184">
         <v>4</v>
       </c>
       <c r="L184" t="b">
+        <v>1</v>
+      </c>
+      <c r="M184" t="b">
         <v>1</v>
       </c>
       <c r="N184" t="b">
@@ -5980,7 +7201,7 @@
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B185">
         <v>21</v>
@@ -5989,18 +7210,24 @@
         <v>31</v>
       </c>
       <c r="D185" t="s">
+        <v>54</v>
+      </c>
+      <c r="E185" t="s">
         <v>9</v>
       </c>
-      <c r="E185" t="b">
-        <v>1</v>
-      </c>
       <c r="F185" t="b">
         <v>1</v>
       </c>
-      <c r="H185">
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="I185">
         <v>4</v>
       </c>
       <c r="L185" t="b">
+        <v>1</v>
+      </c>
+      <c r="M185" t="b">
         <v>1</v>
       </c>
       <c r="N185" t="b">
@@ -6009,7 +7236,7 @@
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B186">
         <v>21</v>
@@ -6018,18 +7245,24 @@
         <v>31</v>
       </c>
       <c r="D186" t="s">
+        <v>54</v>
+      </c>
+      <c r="E186" t="s">
         <v>10</v>
       </c>
-      <c r="E186" t="b">
-        <v>1</v>
-      </c>
       <c r="F186" t="b">
         <v>1</v>
       </c>
-      <c r="H186">
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="I186">
         <v>4</v>
       </c>
       <c r="L186" t="b">
+        <v>1</v>
+      </c>
+      <c r="M186" t="b">
         <v>1</v>
       </c>
       <c r="N186" t="b">
@@ -6038,7 +7271,7 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B187">
         <v>21</v>
@@ -6047,30 +7280,48 @@
         <v>31</v>
       </c>
       <c r="D187" t="s">
+        <v>54</v>
+      </c>
+      <c r="E187" t="s">
         <v>11</v>
-      </c>
-      <c r="E187" t="b">
-        <v>0</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
       </c>
+      <c r="G187" t="b">
+        <v>0</v>
+      </c>
       <c r="H187">
         <v>0</v>
       </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187" t="b">
+        <v>0</v>
+      </c>
+      <c r="K187" t="b">
+        <v>0</v>
+      </c>
       <c r="L187" t="b">
         <v>0</v>
       </c>
+      <c r="M187" t="b">
+        <v>0</v>
+      </c>
       <c r="N187" t="b">
         <v>0</v>
       </c>
+      <c r="O187" t="b">
+        <v>0</v>
+      </c>
       <c r="P187" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B188">
         <v>21</v>
@@ -6079,18 +7330,24 @@
         <v>31</v>
       </c>
       <c r="D188" t="s">
+        <v>54</v>
+      </c>
+      <c r="E188" t="s">
         <v>12</v>
       </c>
-      <c r="E188" t="b">
-        <v>1</v>
-      </c>
       <c r="F188" t="b">
         <v>1</v>
       </c>
-      <c r="H188">
+      <c r="G188" t="b">
+        <v>1</v>
+      </c>
+      <c r="I188">
         <v>4</v>
       </c>
       <c r="L188" t="b">
+        <v>1</v>
+      </c>
+      <c r="M188" t="b">
         <v>1</v>
       </c>
       <c r="N188" t="b">
@@ -6099,7 +7356,7 @@
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B189">
         <v>21</v>
@@ -6108,18 +7365,24 @@
         <v>31</v>
       </c>
       <c r="D189" t="s">
+        <v>54</v>
+      </c>
+      <c r="E189" t="s">
         <v>13</v>
       </c>
-      <c r="E189" t="b">
-        <v>1</v>
-      </c>
       <c r="F189" t="b">
         <v>1</v>
       </c>
-      <c r="H189">
+      <c r="G189" t="b">
+        <v>1</v>
+      </c>
+      <c r="I189">
         <v>4</v>
       </c>
       <c r="L189" t="b">
+        <v>1</v>
+      </c>
+      <c r="M189" t="b">
         <v>1</v>
       </c>
       <c r="N189" t="b">
@@ -6128,7 +7391,7 @@
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B190">
         <v>21</v>
@@ -6137,18 +7400,24 @@
         <v>31</v>
       </c>
       <c r="D190" t="s">
+        <v>54</v>
+      </c>
+      <c r="E190" t="s">
         <v>14</v>
       </c>
-      <c r="E190" t="b">
-        <v>1</v>
-      </c>
       <c r="F190" t="b">
         <v>1</v>
       </c>
-      <c r="H190">
+      <c r="G190" t="b">
+        <v>1</v>
+      </c>
+      <c r="I190">
         <v>4</v>
       </c>
       <c r="L190" t="b">
+        <v>1</v>
+      </c>
+      <c r="M190" t="b">
         <v>1</v>
       </c>
       <c r="N190" t="b">
@@ -6157,7 +7426,7 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B191">
         <v>25</v>
@@ -6166,18 +7435,24 @@
         <v>35</v>
       </c>
       <c r="D191" t="s">
+        <v>55</v>
+      </c>
+      <c r="E191" t="s">
         <v>6</v>
       </c>
-      <c r="E191" t="b">
-        <v>1</v>
-      </c>
       <c r="F191" t="b">
         <v>1</v>
       </c>
-      <c r="H191">
+      <c r="G191" t="b">
+        <v>1</v>
+      </c>
+      <c r="I191">
         <v>4</v>
       </c>
       <c r="L191" t="b">
+        <v>1</v>
+      </c>
+      <c r="M191" t="b">
         <v>1</v>
       </c>
       <c r="N191" t="b">
@@ -6186,7 +7461,7 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B192">
         <v>25</v>
@@ -6195,18 +7470,24 @@
         <v>35</v>
       </c>
       <c r="D192" t="s">
+        <v>55</v>
+      </c>
+      <c r="E192" t="s">
         <v>7</v>
       </c>
-      <c r="E192" t="b">
-        <v>1</v>
-      </c>
       <c r="F192" t="b">
         <v>1</v>
       </c>
-      <c r="H192">
+      <c r="G192" t="b">
+        <v>1</v>
+      </c>
+      <c r="I192">
         <v>4</v>
       </c>
       <c r="L192" t="b">
+        <v>1</v>
+      </c>
+      <c r="M192" t="b">
         <v>1</v>
       </c>
       <c r="N192" t="b">
@@ -6215,7 +7496,7 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B193">
         <v>25</v>
@@ -6224,18 +7505,24 @@
         <v>35</v>
       </c>
       <c r="D193" t="s">
+        <v>55</v>
+      </c>
+      <c r="E193" t="s">
         <v>8</v>
       </c>
-      <c r="E193" t="b">
-        <v>1</v>
-      </c>
       <c r="F193" t="b">
         <v>1</v>
       </c>
-      <c r="H193">
+      <c r="G193" t="b">
+        <v>1</v>
+      </c>
+      <c r="I193">
         <v>4</v>
       </c>
       <c r="L193" t="b">
+        <v>1</v>
+      </c>
+      <c r="M193" t="b">
         <v>1</v>
       </c>
       <c r="N193" t="b">
@@ -6244,7 +7531,7 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B194">
         <v>25</v>
@@ -6253,18 +7540,24 @@
         <v>35</v>
       </c>
       <c r="D194" t="s">
+        <v>55</v>
+      </c>
+      <c r="E194" t="s">
         <v>9</v>
       </c>
-      <c r="E194" t="b">
-        <v>1</v>
-      </c>
       <c r="F194" t="b">
         <v>1</v>
       </c>
-      <c r="H194">
+      <c r="G194" t="b">
+        <v>1</v>
+      </c>
+      <c r="I194">
         <v>4</v>
       </c>
       <c r="L194" t="b">
+        <v>1</v>
+      </c>
+      <c r="M194" t="b">
         <v>1</v>
       </c>
       <c r="N194" t="b">
@@ -6273,7 +7566,7 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B195">
         <v>25</v>
@@ -6282,18 +7575,24 @@
         <v>35</v>
       </c>
       <c r="D195" t="s">
+        <v>55</v>
+      </c>
+      <c r="E195" t="s">
         <v>10</v>
       </c>
-      <c r="E195" t="b">
-        <v>1</v>
-      </c>
       <c r="F195" t="b">
         <v>1</v>
       </c>
-      <c r="H195">
+      <c r="G195" t="b">
+        <v>1</v>
+      </c>
+      <c r="I195">
         <v>4</v>
       </c>
       <c r="L195" t="b">
+        <v>1</v>
+      </c>
+      <c r="M195" t="b">
         <v>1</v>
       </c>
       <c r="N195" t="b">
@@ -6302,7 +7601,7 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B196">
         <v>25</v>
@@ -6311,18 +7610,24 @@
         <v>35</v>
       </c>
       <c r="D196" t="s">
+        <v>55</v>
+      </c>
+      <c r="E196" t="s">
         <v>11</v>
       </c>
-      <c r="E196" t="b">
-        <v>1</v>
-      </c>
       <c r="F196" t="b">
         <v>1</v>
       </c>
-      <c r="H196">
+      <c r="G196" t="b">
+        <v>1</v>
+      </c>
+      <c r="I196">
         <v>4</v>
       </c>
       <c r="L196" t="b">
+        <v>1</v>
+      </c>
+      <c r="M196" t="b">
         <v>1</v>
       </c>
       <c r="N196" t="b">
@@ -6331,7 +7636,7 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B197">
         <v>25</v>
@@ -6340,18 +7645,24 @@
         <v>35</v>
       </c>
       <c r="D197" t="s">
+        <v>55</v>
+      </c>
+      <c r="E197" t="s">
         <v>12</v>
       </c>
-      <c r="E197" t="b">
-        <v>1</v>
-      </c>
       <c r="F197" t="b">
         <v>1</v>
       </c>
-      <c r="H197">
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="I197">
         <v>4</v>
       </c>
       <c r="L197" t="b">
+        <v>1</v>
+      </c>
+      <c r="M197" t="b">
         <v>1</v>
       </c>
       <c r="N197" t="b">
@@ -6360,7 +7671,7 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B198">
         <v>25</v>
@@ -6369,18 +7680,24 @@
         <v>35</v>
       </c>
       <c r="D198" t="s">
+        <v>55</v>
+      </c>
+      <c r="E198" t="s">
         <v>13</v>
       </c>
-      <c r="E198" t="b">
-        <v>1</v>
-      </c>
       <c r="F198" t="b">
         <v>1</v>
       </c>
-      <c r="H198">
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="I198">
         <v>4</v>
       </c>
       <c r="L198" t="b">
+        <v>1</v>
+      </c>
+      <c r="M198" t="b">
         <v>1</v>
       </c>
       <c r="N198" t="b">
@@ -6389,7 +7706,7 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B199">
         <v>25</v>
@@ -6398,18 +7715,24 @@
         <v>35</v>
       </c>
       <c r="D199" t="s">
+        <v>55</v>
+      </c>
+      <c r="E199" t="s">
         <v>14</v>
       </c>
-      <c r="E199" t="b">
-        <v>1</v>
-      </c>
       <c r="F199" t="b">
         <v>1</v>
       </c>
-      <c r="H199">
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="I199">
         <v>4</v>
       </c>
       <c r="L199" t="b">
+        <v>1</v>
+      </c>
+      <c r="M199" t="b">
         <v>1</v>
       </c>
       <c r="N199" t="b">

--- a/tally.xlsx
+++ b/tally.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johngodlee/google_drive/phd/thesis/tls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CF2325-479B-4E4A-BFF3-2412E011DC82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5732138D-B242-5A4A-87B9-390182FC59EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19320" yWindow="460" windowWidth="19080" windowHeight="21140" xr2:uid="{E65B02AA-98F5-FA43-B70D-F94208D9632A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{E65B02AA-98F5-FA43-B70D-F94208D9632A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$199</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$199</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="58">
   <si>
     <t>plot</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>FAILED</t>
+  </si>
+  <si>
+    <t>IN PROG</t>
   </si>
 </sst>
 </file>
@@ -569,8 +572,8 @@
   <dimension ref="A1:P199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J66" sqref="J66"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O147" sqref="O147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,6 +670,9 @@
       <c r="I2">
         <v>4</v>
       </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
       <c r="L2" t="b">
         <v>1</v>
       </c>
@@ -703,6 +709,9 @@
       <c r="I3">
         <v>4</v>
       </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
       <c r="L3" t="b">
         <v>1</v>
       </c>
@@ -739,6 +748,9 @@
       <c r="I4">
         <v>4</v>
       </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
       <c r="L4" t="b">
         <v>1</v>
       </c>
@@ -775,6 +787,9 @@
       <c r="I5">
         <v>4</v>
       </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
       <c r="L5" t="b">
         <v>1</v>
       </c>
@@ -811,6 +826,9 @@
       <c r="I6">
         <v>4</v>
       </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
       <c r="L6" t="b">
         <v>1</v>
       </c>
@@ -847,6 +865,9 @@
       <c r="I7">
         <v>4</v>
       </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
       <c r="L7" t="b">
         <v>1</v>
       </c>
@@ -883,6 +904,9 @@
       <c r="I8">
         <v>4</v>
       </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
       <c r="L8" t="b">
         <v>1</v>
       </c>
@@ -919,6 +943,9 @@
       <c r="I9">
         <v>4</v>
       </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
       <c r="L9" t="b">
         <v>1</v>
       </c>
@@ -955,6 +982,9 @@
       <c r="I10">
         <v>4</v>
       </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
       <c r="L10" t="b">
         <v>1</v>
       </c>
@@ -991,6 +1021,9 @@
       <c r="I11">
         <v>4</v>
       </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
       <c r="L11" t="b">
         <v>1</v>
       </c>
@@ -1027,6 +1060,9 @@
       <c r="I12">
         <v>4</v>
       </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
       <c r="L12" t="b">
         <v>1</v>
       </c>
@@ -1063,6 +1099,9 @@
       <c r="I13">
         <v>4</v>
       </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
       <c r="L13" t="b">
         <v>1</v>
       </c>
@@ -1099,6 +1138,9 @@
       <c r="I14">
         <v>4</v>
       </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
       <c r="L14" t="b">
         <v>1</v>
       </c>
@@ -1135,6 +1177,9 @@
       <c r="I15">
         <v>4</v>
       </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
       <c r="L15" t="b">
         <v>1</v>
       </c>
@@ -1171,6 +1216,9 @@
       <c r="I16">
         <v>4</v>
       </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
       <c r="L16" t="b">
         <v>1</v>
       </c>
@@ -1207,6 +1255,9 @@
       <c r="I17">
         <v>4</v>
       </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
       <c r="L17" t="b">
         <v>1</v>
       </c>
@@ -1243,6 +1294,9 @@
       <c r="I18">
         <v>4</v>
       </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
       <c r="L18" t="b">
         <v>1</v>
       </c>
@@ -1279,6 +1333,9 @@
       <c r="I19">
         <v>4</v>
       </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
       <c r="L19" t="b">
         <v>1</v>
       </c>
@@ -1639,6 +1696,9 @@
       <c r="I29">
         <v>4</v>
       </c>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
       <c r="L29" t="b">
         <v>1</v>
       </c>
@@ -1675,6 +1735,9 @@
       <c r="I30">
         <v>4</v>
       </c>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
       <c r="L30" t="b">
         <v>1</v>
       </c>
@@ -1711,6 +1774,9 @@
       <c r="I31">
         <v>4</v>
       </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
       <c r="L31" t="b">
         <v>1</v>
       </c>
@@ -1747,6 +1813,9 @@
       <c r="I32">
         <v>4</v>
       </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
       <c r="L32" t="b">
         <v>1</v>
       </c>
@@ -1783,6 +1852,9 @@
       <c r="I33">
         <v>4</v>
       </c>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
       <c r="L33" t="b">
         <v>1</v>
       </c>
@@ -1819,6 +1891,9 @@
       <c r="I34">
         <v>4</v>
       </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
       <c r="L34" t="b">
         <v>1</v>
       </c>
@@ -1855,6 +1930,9 @@
       <c r="I35">
         <v>4</v>
       </c>
+      <c r="J35" t="s">
+        <v>57</v>
+      </c>
       <c r="L35" t="b">
         <v>1</v>
       </c>
@@ -1891,6 +1969,9 @@
       <c r="I36">
         <v>4</v>
       </c>
+      <c r="J36" t="s">
+        <v>57</v>
+      </c>
       <c r="L36" t="b">
         <v>1</v>
       </c>
@@ -1927,6 +2008,9 @@
       <c r="I37">
         <v>4</v>
       </c>
+      <c r="J37" t="s">
+        <v>57</v>
+      </c>
       <c r="L37" t="b">
         <v>1</v>
       </c>
@@ -1963,6 +2047,9 @@
       <c r="I38">
         <v>4</v>
       </c>
+      <c r="J38" t="s">
+        <v>57</v>
+      </c>
       <c r="L38" t="b">
         <v>1</v>
       </c>
@@ -1999,6 +2086,9 @@
       <c r="I39">
         <v>4</v>
       </c>
+      <c r="J39" t="s">
+        <v>57</v>
+      </c>
       <c r="L39" t="b">
         <v>1</v>
       </c>
@@ -2035,6 +2125,9 @@
       <c r="I40">
         <v>4</v>
       </c>
+      <c r="J40" t="s">
+        <v>57</v>
+      </c>
       <c r="L40" t="b">
         <v>1</v>
       </c>
@@ -2071,6 +2164,9 @@
       <c r="I41">
         <v>4</v>
       </c>
+      <c r="J41" t="s">
+        <v>57</v>
+      </c>
       <c r="L41" t="b">
         <v>1</v>
       </c>
@@ -2107,6 +2203,9 @@
       <c r="I42">
         <v>4</v>
       </c>
+      <c r="J42" t="s">
+        <v>57</v>
+      </c>
       <c r="L42" t="b">
         <v>1</v>
       </c>
@@ -2143,6 +2242,9 @@
       <c r="I43">
         <v>4</v>
       </c>
+      <c r="J43" t="s">
+        <v>57</v>
+      </c>
       <c r="L43" t="b">
         <v>1</v>
       </c>
@@ -2179,6 +2281,9 @@
       <c r="I44">
         <v>4</v>
       </c>
+      <c r="J44" t="s">
+        <v>57</v>
+      </c>
       <c r="L44" t="b">
         <v>1</v>
       </c>
@@ -2215,6 +2320,9 @@
       <c r="I45">
         <v>4</v>
       </c>
+      <c r="J45" t="s">
+        <v>57</v>
+      </c>
       <c r="L45" t="b">
         <v>1</v>
       </c>
@@ -2251,6 +2359,9 @@
       <c r="I46">
         <v>4</v>
       </c>
+      <c r="J46" t="s">
+        <v>57</v>
+      </c>
       <c r="L46" t="b">
         <v>1</v>
       </c>
@@ -2287,6 +2398,9 @@
       <c r="I47">
         <v>4</v>
       </c>
+      <c r="J47" t="s">
+        <v>57</v>
+      </c>
       <c r="L47" t="b">
         <v>1</v>
       </c>
@@ -2323,6 +2437,9 @@
       <c r="I48">
         <v>4</v>
       </c>
+      <c r="J48" t="s">
+        <v>57</v>
+      </c>
       <c r="L48" t="b">
         <v>1</v>
       </c>
@@ -2359,6 +2476,9 @@
       <c r="I49">
         <v>4</v>
       </c>
+      <c r="J49" t="s">
+        <v>57</v>
+      </c>
       <c r="L49" t="b">
         <v>1</v>
       </c>
@@ -2395,6 +2515,9 @@
       <c r="I50">
         <v>4</v>
       </c>
+      <c r="J50" t="s">
+        <v>57</v>
+      </c>
       <c r="L50" t="b">
         <v>1</v>
       </c>
@@ -2431,6 +2554,9 @@
       <c r="I51">
         <v>4</v>
       </c>
+      <c r="J51" t="s">
+        <v>57</v>
+      </c>
       <c r="L51" t="b">
         <v>1</v>
       </c>
@@ -2467,6 +2593,9 @@
       <c r="I52">
         <v>4</v>
       </c>
+      <c r="J52" t="s">
+        <v>57</v>
+      </c>
       <c r="L52" t="b">
         <v>1</v>
       </c>
@@ -2503,6 +2632,9 @@
       <c r="I53">
         <v>4</v>
       </c>
+      <c r="J53" t="s">
+        <v>57</v>
+      </c>
       <c r="L53" t="b">
         <v>1</v>
       </c>
@@ -2539,6 +2671,9 @@
       <c r="I54">
         <v>4</v>
       </c>
+      <c r="J54" t="s">
+        <v>57</v>
+      </c>
       <c r="L54" t="b">
         <v>1</v>
       </c>
@@ -2575,6 +2710,9 @@
       <c r="I55">
         <v>4</v>
       </c>
+      <c r="J55" t="s">
+        <v>57</v>
+      </c>
       <c r="L55" t="b">
         <v>1</v>
       </c>
@@ -2611,6 +2749,9 @@
       <c r="I56">
         <v>4</v>
       </c>
+      <c r="J56" t="s">
+        <v>57</v>
+      </c>
       <c r="L56" t="b">
         <v>1</v>
       </c>
@@ -2647,6 +2788,9 @@
       <c r="I57">
         <v>4</v>
       </c>
+      <c r="J57" t="s">
+        <v>57</v>
+      </c>
       <c r="L57" t="b">
         <v>1</v>
       </c>
@@ -2683,6 +2827,9 @@
       <c r="I58">
         <v>4</v>
       </c>
+      <c r="J58" t="s">
+        <v>57</v>
+      </c>
       <c r="L58" t="b">
         <v>1</v>
       </c>
@@ -2719,6 +2866,9 @@
       <c r="I59">
         <v>4</v>
       </c>
+      <c r="J59" t="s">
+        <v>57</v>
+      </c>
       <c r="L59" t="b">
         <v>1</v>
       </c>
@@ -2755,6 +2905,9 @@
       <c r="I60">
         <v>4</v>
       </c>
+      <c r="J60" t="s">
+        <v>57</v>
+      </c>
       <c r="L60" t="b">
         <v>1</v>
       </c>
@@ -2791,6 +2944,9 @@
       <c r="I61">
         <v>4</v>
       </c>
+      <c r="J61" t="s">
+        <v>57</v>
+      </c>
       <c r="L61" t="b">
         <v>1</v>
       </c>
@@ -2827,6 +2983,9 @@
       <c r="I62">
         <v>4</v>
       </c>
+      <c r="J62" t="s">
+        <v>57</v>
+      </c>
       <c r="L62" t="b">
         <v>1</v>
       </c>
@@ -2863,6 +3022,9 @@
       <c r="I63">
         <v>4</v>
       </c>
+      <c r="J63" t="s">
+        <v>57</v>
+      </c>
       <c r="L63" t="b">
         <v>1</v>
       </c>
@@ -2899,6 +3061,9 @@
       <c r="I64">
         <v>4</v>
       </c>
+      <c r="J64" t="s">
+        <v>57</v>
+      </c>
       <c r="L64" t="b">
         <v>1</v>
       </c>
@@ -7740,8 +7905,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R199" xr:uid="{95B1FB53-0665-4142-9738-C87A42CA69B7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R199">
+  <autoFilter ref="A1:P199" xr:uid="{95B1FB53-0665-4142-9738-C87A42CA69B7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P199">
       <sortCondition ref="B1:B199"/>
     </sortState>
   </autoFilter>

--- a/tally.xlsx
+++ b/tally.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johngodlee/google_drive/phd/thesis/tls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5732138D-B242-5A4A-87B9-390182FC59EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7281E17-D189-C94A-BB03-58D0171DCF8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{E65B02AA-98F5-FA43-B70D-F94208D9632A}"/>
+    <workbookView xWindow="16700" yWindow="0" windowWidth="21700" windowHeight="21600" xr2:uid="{E65B02AA-98F5-FA43-B70D-F94208D9632A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="57">
   <si>
     <t>plot</t>
   </si>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t>FAILED</t>
-  </si>
-  <si>
-    <t>IN PROG</t>
   </si>
 </sst>
 </file>
@@ -572,8 +569,8 @@
   <dimension ref="A1:P199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O147" sqref="O147"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J82" sqref="J82:J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1372,6 +1369,9 @@
       <c r="I20">
         <v>4</v>
       </c>
+      <c r="J20" t="s">
+        <v>56</v>
+      </c>
       <c r="L20" t="b">
         <v>1</v>
       </c>
@@ -1408,6 +1408,9 @@
       <c r="I21">
         <v>4</v>
       </c>
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
       <c r="L21" t="b">
         <v>1</v>
       </c>
@@ -1444,6 +1447,9 @@
       <c r="I22">
         <v>4</v>
       </c>
+      <c r="J22" t="s">
+        <v>56</v>
+      </c>
       <c r="L22" t="b">
         <v>1</v>
       </c>
@@ -1480,6 +1486,9 @@
       <c r="I23">
         <v>4</v>
       </c>
+      <c r="J23" t="s">
+        <v>56</v>
+      </c>
       <c r="L23" t="b">
         <v>1</v>
       </c>
@@ -1516,6 +1525,9 @@
       <c r="I24">
         <v>4</v>
       </c>
+      <c r="J24" t="s">
+        <v>56</v>
+      </c>
       <c r="L24" t="b">
         <v>1</v>
       </c>
@@ -1552,6 +1564,9 @@
       <c r="I25">
         <v>4</v>
       </c>
+      <c r="J25" t="s">
+        <v>56</v>
+      </c>
       <c r="L25" t="b">
         <v>1</v>
       </c>
@@ -1588,6 +1603,9 @@
       <c r="I26">
         <v>4</v>
       </c>
+      <c r="J26" t="s">
+        <v>56</v>
+      </c>
       <c r="L26" t="b">
         <v>1</v>
       </c>
@@ -1624,6 +1642,9 @@
       <c r="I27">
         <v>4</v>
       </c>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
       <c r="L27" t="b">
         <v>1</v>
       </c>
@@ -1660,6 +1681,9 @@
       <c r="I28">
         <v>4</v>
       </c>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
       <c r="L28" t="b">
         <v>1</v>
       </c>
@@ -1696,8 +1720,8 @@
       <c r="I29">
         <v>4</v>
       </c>
-      <c r="J29" t="s">
-        <v>57</v>
+      <c r="J29" t="b">
+        <v>1</v>
       </c>
       <c r="L29" t="b">
         <v>1</v>
@@ -1735,8 +1759,8 @@
       <c r="I30">
         <v>4</v>
       </c>
-      <c r="J30" t="s">
-        <v>57</v>
+      <c r="J30" t="b">
+        <v>1</v>
       </c>
       <c r="L30" t="b">
         <v>1</v>
@@ -1774,8 +1798,8 @@
       <c r="I31">
         <v>4</v>
       </c>
-      <c r="J31" t="s">
-        <v>57</v>
+      <c r="J31" t="b">
+        <v>1</v>
       </c>
       <c r="L31" t="b">
         <v>1</v>
@@ -1813,8 +1837,8 @@
       <c r="I32">
         <v>4</v>
       </c>
-      <c r="J32" t="s">
-        <v>57</v>
+      <c r="J32" t="b">
+        <v>1</v>
       </c>
       <c r="L32" t="b">
         <v>1</v>
@@ -1852,8 +1876,8 @@
       <c r="I33">
         <v>4</v>
       </c>
-      <c r="J33" t="s">
-        <v>57</v>
+      <c r="J33" t="b">
+        <v>1</v>
       </c>
       <c r="L33" t="b">
         <v>1</v>
@@ -1891,8 +1915,8 @@
       <c r="I34">
         <v>4</v>
       </c>
-      <c r="J34" t="s">
-        <v>57</v>
+      <c r="J34" t="b">
+        <v>1</v>
       </c>
       <c r="L34" t="b">
         <v>1</v>
@@ -1930,8 +1954,8 @@
       <c r="I35">
         <v>4</v>
       </c>
-      <c r="J35" t="s">
-        <v>57</v>
+      <c r="J35" t="b">
+        <v>1</v>
       </c>
       <c r="L35" t="b">
         <v>1</v>
@@ -1969,8 +1993,8 @@
       <c r="I36">
         <v>4</v>
       </c>
-      <c r="J36" t="s">
-        <v>57</v>
+      <c r="J36" t="b">
+        <v>1</v>
       </c>
       <c r="L36" t="b">
         <v>1</v>
@@ -2008,8 +2032,8 @@
       <c r="I37">
         <v>4</v>
       </c>
-      <c r="J37" t="s">
-        <v>57</v>
+      <c r="J37" t="b">
+        <v>1</v>
       </c>
       <c r="L37" t="b">
         <v>1</v>
@@ -2047,8 +2071,8 @@
       <c r="I38">
         <v>4</v>
       </c>
-      <c r="J38" t="s">
-        <v>57</v>
+      <c r="J38" t="b">
+        <v>1</v>
       </c>
       <c r="L38" t="b">
         <v>1</v>
@@ -2086,8 +2110,8 @@
       <c r="I39">
         <v>4</v>
       </c>
-      <c r="J39" t="s">
-        <v>57</v>
+      <c r="J39" t="b">
+        <v>1</v>
       </c>
       <c r="L39" t="b">
         <v>1</v>
@@ -2125,8 +2149,8 @@
       <c r="I40">
         <v>4</v>
       </c>
-      <c r="J40" t="s">
-        <v>57</v>
+      <c r="J40" t="b">
+        <v>1</v>
       </c>
       <c r="L40" t="b">
         <v>1</v>
@@ -2164,8 +2188,8 @@
       <c r="I41">
         <v>4</v>
       </c>
-      <c r="J41" t="s">
-        <v>57</v>
+      <c r="J41" t="b">
+        <v>1</v>
       </c>
       <c r="L41" t="b">
         <v>1</v>
@@ -2203,8 +2227,8 @@
       <c r="I42">
         <v>4</v>
       </c>
-      <c r="J42" t="s">
-        <v>57</v>
+      <c r="J42" t="b">
+        <v>1</v>
       </c>
       <c r="L42" t="b">
         <v>1</v>
@@ -2242,8 +2266,8 @@
       <c r="I43">
         <v>4</v>
       </c>
-      <c r="J43" t="s">
-        <v>57</v>
+      <c r="J43" t="b">
+        <v>1</v>
       </c>
       <c r="L43" t="b">
         <v>1</v>
@@ -2281,8 +2305,8 @@
       <c r="I44">
         <v>4</v>
       </c>
-      <c r="J44" t="s">
-        <v>57</v>
+      <c r="J44" t="b">
+        <v>1</v>
       </c>
       <c r="L44" t="b">
         <v>1</v>
@@ -2320,8 +2344,8 @@
       <c r="I45">
         <v>4</v>
       </c>
-      <c r="J45" t="s">
-        <v>57</v>
+      <c r="J45" t="b">
+        <v>1</v>
       </c>
       <c r="L45" t="b">
         <v>1</v>
@@ -2359,8 +2383,8 @@
       <c r="I46">
         <v>4</v>
       </c>
-      <c r="J46" t="s">
-        <v>57</v>
+      <c r="J46" t="b">
+        <v>1</v>
       </c>
       <c r="L46" t="b">
         <v>1</v>
@@ -2398,8 +2422,8 @@
       <c r="I47">
         <v>4</v>
       </c>
-      <c r="J47" t="s">
-        <v>57</v>
+      <c r="J47" t="b">
+        <v>1</v>
       </c>
       <c r="L47" t="b">
         <v>1</v>
@@ -2437,8 +2461,8 @@
       <c r="I48">
         <v>4</v>
       </c>
-      <c r="J48" t="s">
-        <v>57</v>
+      <c r="J48" t="b">
+        <v>1</v>
       </c>
       <c r="L48" t="b">
         <v>1</v>
@@ -2476,8 +2500,8 @@
       <c r="I49">
         <v>4</v>
       </c>
-      <c r="J49" t="s">
-        <v>57</v>
+      <c r="J49" t="b">
+        <v>1</v>
       </c>
       <c r="L49" t="b">
         <v>1</v>
@@ -2515,8 +2539,8 @@
       <c r="I50">
         <v>4</v>
       </c>
-      <c r="J50" t="s">
-        <v>57</v>
+      <c r="J50" t="b">
+        <v>1</v>
       </c>
       <c r="L50" t="b">
         <v>1</v>
@@ -2554,8 +2578,8 @@
       <c r="I51">
         <v>4</v>
       </c>
-      <c r="J51" t="s">
-        <v>57</v>
+      <c r="J51" t="b">
+        <v>1</v>
       </c>
       <c r="L51" t="b">
         <v>1</v>
@@ -2593,8 +2617,8 @@
       <c r="I52">
         <v>4</v>
       </c>
-      <c r="J52" t="s">
-        <v>57</v>
+      <c r="J52" t="b">
+        <v>1</v>
       </c>
       <c r="L52" t="b">
         <v>1</v>
@@ -2632,8 +2656,8 @@
       <c r="I53">
         <v>4</v>
       </c>
-      <c r="J53" t="s">
-        <v>57</v>
+      <c r="J53" t="b">
+        <v>1</v>
       </c>
       <c r="L53" t="b">
         <v>1</v>
@@ -2671,8 +2695,8 @@
       <c r="I54">
         <v>4</v>
       </c>
-      <c r="J54" t="s">
-        <v>57</v>
+      <c r="J54" t="b">
+        <v>1</v>
       </c>
       <c r="L54" t="b">
         <v>1</v>
@@ -2710,8 +2734,8 @@
       <c r="I55">
         <v>4</v>
       </c>
-      <c r="J55" t="s">
-        <v>57</v>
+      <c r="J55" t="b">
+        <v>1</v>
       </c>
       <c r="L55" t="b">
         <v>1</v>
@@ -2749,8 +2773,8 @@
       <c r="I56">
         <v>4</v>
       </c>
-      <c r="J56" t="s">
-        <v>57</v>
+      <c r="J56" t="b">
+        <v>1</v>
       </c>
       <c r="L56" t="b">
         <v>1</v>
@@ -2788,8 +2812,8 @@
       <c r="I57">
         <v>4</v>
       </c>
-      <c r="J57" t="s">
-        <v>57</v>
+      <c r="J57" t="b">
+        <v>1</v>
       </c>
       <c r="L57" t="b">
         <v>1</v>
@@ -2827,8 +2851,8 @@
       <c r="I58">
         <v>4</v>
       </c>
-      <c r="J58" t="s">
-        <v>57</v>
+      <c r="J58" t="b">
+        <v>1</v>
       </c>
       <c r="L58" t="b">
         <v>1</v>
@@ -2866,8 +2890,8 @@
       <c r="I59">
         <v>4</v>
       </c>
-      <c r="J59" t="s">
-        <v>57</v>
+      <c r="J59" t="b">
+        <v>1</v>
       </c>
       <c r="L59" t="b">
         <v>1</v>
@@ -2905,8 +2929,8 @@
       <c r="I60">
         <v>4</v>
       </c>
-      <c r="J60" t="s">
-        <v>57</v>
+      <c r="J60" t="b">
+        <v>1</v>
       </c>
       <c r="L60" t="b">
         <v>1</v>
@@ -2944,8 +2968,8 @@
       <c r="I61">
         <v>4</v>
       </c>
-      <c r="J61" t="s">
-        <v>57</v>
+      <c r="J61" t="b">
+        <v>1</v>
       </c>
       <c r="L61" t="b">
         <v>1</v>
@@ -2983,8 +3007,8 @@
       <c r="I62">
         <v>4</v>
       </c>
-      <c r="J62" t="s">
-        <v>57</v>
+      <c r="J62" t="b">
+        <v>1</v>
       </c>
       <c r="L62" t="b">
         <v>1</v>
@@ -3022,8 +3046,8 @@
       <c r="I63">
         <v>4</v>
       </c>
-      <c r="J63" t="s">
-        <v>57</v>
+      <c r="J63" t="b">
+        <v>1</v>
       </c>
       <c r="L63" t="b">
         <v>1</v>
@@ -3061,8 +3085,8 @@
       <c r="I64">
         <v>4</v>
       </c>
-      <c r="J64" t="s">
-        <v>57</v>
+      <c r="J64" t="b">
+        <v>1</v>
       </c>
       <c r="L64" t="b">
         <v>1</v>
@@ -3099,6 +3123,9 @@
       <c r="I65">
         <v>4</v>
       </c>
+      <c r="J65" t="b">
+        <v>1</v>
+      </c>
       <c r="L65" t="b">
         <v>1</v>
       </c>
@@ -3134,6 +3161,9 @@
       <c r="I66">
         <v>4</v>
       </c>
+      <c r="J66" t="b">
+        <v>1</v>
+      </c>
       <c r="L66" t="b">
         <v>1</v>
       </c>
@@ -3169,6 +3199,9 @@
       <c r="I67">
         <v>4</v>
       </c>
+      <c r="J67" t="b">
+        <v>1</v>
+      </c>
       <c r="L67" t="b">
         <v>1</v>
       </c>
@@ -3204,6 +3237,9 @@
       <c r="I68">
         <v>4</v>
       </c>
+      <c r="J68" t="b">
+        <v>1</v>
+      </c>
       <c r="L68" t="b">
         <v>1</v>
       </c>
@@ -3239,6 +3275,9 @@
       <c r="I69">
         <v>4</v>
       </c>
+      <c r="J69" t="b">
+        <v>1</v>
+      </c>
       <c r="L69" t="b">
         <v>1</v>
       </c>
@@ -3274,6 +3313,9 @@
       <c r="I70">
         <v>4</v>
       </c>
+      <c r="J70" t="b">
+        <v>1</v>
+      </c>
       <c r="L70" t="b">
         <v>1</v>
       </c>
@@ -3309,6 +3351,9 @@
       <c r="I71">
         <v>4</v>
       </c>
+      <c r="J71" t="b">
+        <v>1</v>
+      </c>
       <c r="L71" t="b">
         <v>1</v>
       </c>
@@ -3344,6 +3389,9 @@
       <c r="I72">
         <v>4</v>
       </c>
+      <c r="J72" t="b">
+        <v>1</v>
+      </c>
       <c r="L72" t="b">
         <v>1</v>
       </c>
@@ -3379,6 +3427,9 @@
       <c r="I73">
         <v>4</v>
       </c>
+      <c r="J73" t="b">
+        <v>1</v>
+      </c>
       <c r="L73" t="b">
         <v>1</v>
       </c>
@@ -3415,6 +3466,9 @@
       <c r="I74">
         <v>4</v>
       </c>
+      <c r="J74" t="b">
+        <v>1</v>
+      </c>
       <c r="L74" t="b">
         <v>1</v>
       </c>
@@ -3451,6 +3505,9 @@
       <c r="I75">
         <v>4</v>
       </c>
+      <c r="J75" t="b">
+        <v>1</v>
+      </c>
       <c r="L75" t="b">
         <v>1</v>
       </c>
@@ -3487,6 +3544,9 @@
       <c r="I76">
         <v>4</v>
       </c>
+      <c r="J76" t="b">
+        <v>1</v>
+      </c>
       <c r="L76" t="b">
         <v>1</v>
       </c>
@@ -3523,6 +3583,9 @@
       <c r="I77">
         <v>4</v>
       </c>
+      <c r="J77" t="b">
+        <v>1</v>
+      </c>
       <c r="L77" t="b">
         <v>1</v>
       </c>
@@ -3559,6 +3622,9 @@
       <c r="I78">
         <v>4</v>
       </c>
+      <c r="J78" t="b">
+        <v>1</v>
+      </c>
       <c r="L78" t="b">
         <v>1</v>
       </c>
@@ -3595,6 +3661,9 @@
       <c r="I79">
         <v>4</v>
       </c>
+      <c r="J79" t="b">
+        <v>1</v>
+      </c>
       <c r="L79" t="b">
         <v>1</v>
       </c>
@@ -3631,6 +3700,9 @@
       <c r="I80">
         <v>4</v>
       </c>
+      <c r="J80" t="b">
+        <v>1</v>
+      </c>
       <c r="L80" t="b">
         <v>1</v>
       </c>
@@ -3667,6 +3739,9 @@
       <c r="I81">
         <v>4</v>
       </c>
+      <c r="J81" t="b">
+        <v>1</v>
+      </c>
       <c r="L81" t="b">
         <v>1</v>
       </c>
@@ -3703,6 +3778,9 @@
       <c r="I82">
         <v>4</v>
       </c>
+      <c r="J82" t="b">
+        <v>1</v>
+      </c>
       <c r="L82" t="b">
         <v>1</v>
       </c>
@@ -3739,6 +3817,9 @@
       <c r="I83">
         <v>4</v>
       </c>
+      <c r="J83" t="b">
+        <v>1</v>
+      </c>
       <c r="L83" t="b">
         <v>1</v>
       </c>
@@ -3775,6 +3856,9 @@
       <c r="I84">
         <v>4</v>
       </c>
+      <c r="J84" t="b">
+        <v>1</v>
+      </c>
       <c r="L84" t="b">
         <v>1</v>
       </c>
@@ -3811,6 +3895,9 @@
       <c r="I85">
         <v>4</v>
       </c>
+      <c r="J85" t="b">
+        <v>1</v>
+      </c>
       <c r="L85" t="b">
         <v>1</v>
       </c>
@@ -3847,6 +3934,9 @@
       <c r="I86">
         <v>4</v>
       </c>
+      <c r="J86" t="b">
+        <v>1</v>
+      </c>
       <c r="L86" t="b">
         <v>1</v>
       </c>
@@ -3883,6 +3973,9 @@
       <c r="I87">
         <v>4</v>
       </c>
+      <c r="J87" t="b">
+        <v>1</v>
+      </c>
       <c r="L87" t="b">
         <v>1</v>
       </c>
@@ -3919,6 +4012,9 @@
       <c r="I88">
         <v>4</v>
       </c>
+      <c r="J88" t="b">
+        <v>1</v>
+      </c>
       <c r="L88" t="b">
         <v>1</v>
       </c>
@@ -3955,6 +4051,9 @@
       <c r="I89">
         <v>4</v>
       </c>
+      <c r="J89" t="b">
+        <v>1</v>
+      </c>
       <c r="L89" t="b">
         <v>1</v>
       </c>
@@ -3991,6 +4090,9 @@
       <c r="I90">
         <v>4</v>
       </c>
+      <c r="J90" t="b">
+        <v>1</v>
+      </c>
       <c r="L90" t="b">
         <v>1</v>
       </c>
@@ -4027,6 +4129,9 @@
       <c r="I91">
         <v>4</v>
       </c>
+      <c r="J91" t="b">
+        <v>1</v>
+      </c>
       <c r="L91" t="b">
         <v>1</v>
       </c>
@@ -4062,6 +4167,9 @@
       <c r="I92">
         <v>4</v>
       </c>
+      <c r="J92" t="b">
+        <v>1</v>
+      </c>
       <c r="L92" t="b">
         <v>1</v>
       </c>
@@ -4097,6 +4205,9 @@
       <c r="I93">
         <v>4</v>
       </c>
+      <c r="J93" t="b">
+        <v>1</v>
+      </c>
       <c r="L93" t="b">
         <v>1</v>
       </c>
@@ -4132,6 +4243,9 @@
       <c r="I94">
         <v>4</v>
       </c>
+      <c r="J94" t="b">
+        <v>1</v>
+      </c>
       <c r="L94" t="b">
         <v>1</v>
       </c>
@@ -4167,6 +4281,9 @@
       <c r="I95">
         <v>4</v>
       </c>
+      <c r="J95" t="b">
+        <v>1</v>
+      </c>
       <c r="L95" t="b">
         <v>1</v>
       </c>
@@ -4202,6 +4319,9 @@
       <c r="I96">
         <v>4</v>
       </c>
+      <c r="J96" t="b">
+        <v>1</v>
+      </c>
       <c r="L96" t="b">
         <v>1</v>
       </c>
@@ -4237,6 +4357,9 @@
       <c r="I97">
         <v>4</v>
       </c>
+      <c r="J97" t="b">
+        <v>1</v>
+      </c>
       <c r="L97" t="b">
         <v>1</v>
       </c>
@@ -4272,6 +4395,9 @@
       <c r="I98">
         <v>4</v>
       </c>
+      <c r="J98" t="b">
+        <v>1</v>
+      </c>
       <c r="L98" t="b">
         <v>1</v>
       </c>
@@ -4307,6 +4433,9 @@
       <c r="I99">
         <v>4</v>
       </c>
+      <c r="J99" t="b">
+        <v>1</v>
+      </c>
       <c r="L99" t="b">
         <v>1</v>
       </c>
@@ -4342,6 +4471,9 @@
       <c r="I100">
         <v>4</v>
       </c>
+      <c r="J100" t="b">
+        <v>1</v>
+      </c>
       <c r="L100" t="b">
         <v>1</v>
       </c>
@@ -4417,6 +4549,9 @@
       <c r="I102">
         <v>4</v>
       </c>
+      <c r="J102" t="b">
+        <v>1</v>
+      </c>
       <c r="L102" t="b">
         <v>1</v>
       </c>
@@ -4453,6 +4588,9 @@
       <c r="I103">
         <v>4</v>
       </c>
+      <c r="J103" t="b">
+        <v>1</v>
+      </c>
       <c r="L103" t="b">
         <v>1</v>
       </c>
@@ -4489,6 +4627,9 @@
       <c r="I104">
         <v>4</v>
       </c>
+      <c r="J104" t="b">
+        <v>1</v>
+      </c>
       <c r="L104" t="b">
         <v>1</v>
       </c>
@@ -4525,6 +4666,9 @@
       <c r="I105">
         <v>4</v>
       </c>
+      <c r="J105" t="b">
+        <v>1</v>
+      </c>
       <c r="L105" t="b">
         <v>1</v>
       </c>
@@ -4561,6 +4705,9 @@
       <c r="I106">
         <v>4</v>
       </c>
+      <c r="J106" t="b">
+        <v>1</v>
+      </c>
       <c r="L106" t="b">
         <v>1</v>
       </c>
@@ -4597,6 +4744,9 @@
       <c r="I107">
         <v>4</v>
       </c>
+      <c r="J107" t="b">
+        <v>1</v>
+      </c>
       <c r="L107" t="b">
         <v>1</v>
       </c>
@@ -4633,6 +4783,9 @@
       <c r="I108">
         <v>4</v>
       </c>
+      <c r="J108" t="b">
+        <v>1</v>
+      </c>
       <c r="L108" t="b">
         <v>1</v>
       </c>
@@ -4669,6 +4822,9 @@
       <c r="I109">
         <v>4</v>
       </c>
+      <c r="J109" t="b">
+        <v>1</v>
+      </c>
       <c r="L109" t="b">
         <v>1</v>
       </c>
@@ -4704,6 +4860,9 @@
       <c r="I110">
         <v>4</v>
       </c>
+      <c r="J110" t="b">
+        <v>1</v>
+      </c>
       <c r="L110" t="b">
         <v>1</v>
       </c>
@@ -4739,6 +4898,9 @@
       <c r="I111">
         <v>4</v>
       </c>
+      <c r="J111" t="b">
+        <v>1</v>
+      </c>
       <c r="L111" t="b">
         <v>1</v>
       </c>
@@ -4774,6 +4936,9 @@
       <c r="I112">
         <v>4</v>
       </c>
+      <c r="J112" t="b">
+        <v>1</v>
+      </c>
       <c r="L112" t="b">
         <v>1</v>
       </c>
@@ -4809,6 +4974,9 @@
       <c r="I113">
         <v>4</v>
       </c>
+      <c r="J113" t="b">
+        <v>1</v>
+      </c>
       <c r="L113" t="b">
         <v>1</v>
       </c>
@@ -4844,6 +5012,9 @@
       <c r="I114">
         <v>4</v>
       </c>
+      <c r="J114" t="b">
+        <v>1</v>
+      </c>
       <c r="L114" t="b">
         <v>1</v>
       </c>
@@ -4879,6 +5050,9 @@
       <c r="I115">
         <v>4</v>
       </c>
+      <c r="J115" t="b">
+        <v>1</v>
+      </c>
       <c r="L115" t="b">
         <v>1</v>
       </c>
@@ -4914,6 +5088,9 @@
       <c r="I116">
         <v>4</v>
       </c>
+      <c r="J116" t="b">
+        <v>1</v>
+      </c>
       <c r="L116" t="b">
         <v>1</v>
       </c>
@@ -4949,6 +5126,9 @@
       <c r="I117">
         <v>4</v>
       </c>
+      <c r="J117" t="b">
+        <v>1</v>
+      </c>
       <c r="L117" t="b">
         <v>1</v>
       </c>
@@ -4984,6 +5164,9 @@
       <c r="I118">
         <v>4</v>
       </c>
+      <c r="J118" t="b">
+        <v>1</v>
+      </c>
       <c r="L118" t="b">
         <v>1</v>
       </c>
@@ -5020,8 +5203,8 @@
       <c r="I119">
         <v>4</v>
       </c>
-      <c r="J119" t="b">
-        <v>1</v>
+      <c r="J119" t="s">
+        <v>56</v>
       </c>
       <c r="L119" t="b">
         <v>1</v>
@@ -5059,8 +5242,8 @@
       <c r="I120">
         <v>4</v>
       </c>
-      <c r="J120" t="b">
-        <v>1</v>
+      <c r="J120" t="s">
+        <v>56</v>
       </c>
       <c r="L120" t="b">
         <v>1</v>
@@ -5098,6 +5281,9 @@
       <c r="I121">
         <v>4</v>
       </c>
+      <c r="J121" t="s">
+        <v>56</v>
+      </c>
       <c r="L121" t="b">
         <v>1</v>
       </c>
@@ -5134,6 +5320,9 @@
       <c r="I122">
         <v>4</v>
       </c>
+      <c r="J122" t="s">
+        <v>56</v>
+      </c>
       <c r="L122" t="b">
         <v>1</v>
       </c>
@@ -5170,6 +5359,9 @@
       <c r="I123">
         <v>4</v>
       </c>
+      <c r="J123" t="s">
+        <v>56</v>
+      </c>
       <c r="L123" t="b">
         <v>1</v>
       </c>
@@ -5206,6 +5398,9 @@
       <c r="I124">
         <v>4</v>
       </c>
+      <c r="J124" t="s">
+        <v>56</v>
+      </c>
       <c r="L124" t="b">
         <v>1</v>
       </c>
@@ -5242,6 +5437,9 @@
       <c r="I125">
         <v>4</v>
       </c>
+      <c r="J125" t="s">
+        <v>56</v>
+      </c>
       <c r="L125" t="b">
         <v>1</v>
       </c>
@@ -5278,6 +5476,9 @@
       <c r="I126">
         <v>4</v>
       </c>
+      <c r="J126" t="s">
+        <v>56</v>
+      </c>
       <c r="L126" t="b">
         <v>1</v>
       </c>
@@ -5314,6 +5515,9 @@
       <c r="I127">
         <v>4</v>
       </c>
+      <c r="J127" t="s">
+        <v>56</v>
+      </c>
       <c r="L127" t="b">
         <v>1</v>
       </c>
@@ -5350,6 +5554,9 @@
       <c r="I128">
         <v>4</v>
       </c>
+      <c r="J128" t="s">
+        <v>56</v>
+      </c>
       <c r="L128" t="b">
         <v>1</v>
       </c>
@@ -5386,6 +5593,9 @@
       <c r="I129">
         <v>4</v>
       </c>
+      <c r="J129" t="s">
+        <v>56</v>
+      </c>
       <c r="L129" t="b">
         <v>1</v>
       </c>
@@ -5422,6 +5632,9 @@
       <c r="I130">
         <v>4</v>
       </c>
+      <c r="J130" t="s">
+        <v>56</v>
+      </c>
       <c r="L130" t="b">
         <v>1</v>
       </c>
@@ -5458,6 +5671,9 @@
       <c r="I131">
         <v>4</v>
       </c>
+      <c r="J131" t="s">
+        <v>56</v>
+      </c>
       <c r="L131" t="b">
         <v>1</v>
       </c>
@@ -5494,6 +5710,9 @@
       <c r="I132">
         <v>4</v>
       </c>
+      <c r="J132" t="s">
+        <v>56</v>
+      </c>
       <c r="L132" t="b">
         <v>1</v>
       </c>
@@ -5530,6 +5749,9 @@
       <c r="I133">
         <v>4</v>
       </c>
+      <c r="J133" t="s">
+        <v>56</v>
+      </c>
       <c r="L133" t="b">
         <v>1</v>
       </c>
@@ -5566,6 +5788,9 @@
       <c r="I134">
         <v>4</v>
       </c>
+      <c r="J134" t="s">
+        <v>56</v>
+      </c>
       <c r="L134" t="b">
         <v>1</v>
       </c>
@@ -5602,6 +5827,9 @@
       <c r="I135">
         <v>4</v>
       </c>
+      <c r="J135" t="s">
+        <v>56</v>
+      </c>
       <c r="L135" t="b">
         <v>1</v>
       </c>
@@ -5638,6 +5866,9 @@
       <c r="I136">
         <v>4</v>
       </c>
+      <c r="J136" t="s">
+        <v>56</v>
+      </c>
       <c r="L136" t="b">
         <v>1</v>
       </c>
@@ -5674,6 +5905,9 @@
       <c r="I137">
         <v>4</v>
       </c>
+      <c r="J137" t="b">
+        <v>1</v>
+      </c>
       <c r="L137" t="b">
         <v>1</v>
       </c>
@@ -5710,6 +5944,9 @@
       <c r="I138">
         <v>4</v>
       </c>
+      <c r="J138" t="b">
+        <v>1</v>
+      </c>
       <c r="L138" t="b">
         <v>1</v>
       </c>
@@ -5746,6 +5983,9 @@
       <c r="I139">
         <v>4</v>
       </c>
+      <c r="J139" t="b">
+        <v>1</v>
+      </c>
       <c r="L139" t="b">
         <v>1</v>
       </c>
@@ -5782,6 +6022,9 @@
       <c r="I140">
         <v>4</v>
       </c>
+      <c r="J140" t="b">
+        <v>1</v>
+      </c>
       <c r="L140" t="b">
         <v>1</v>
       </c>
@@ -5818,6 +6061,9 @@
       <c r="I141">
         <v>4</v>
       </c>
+      <c r="J141" t="b">
+        <v>1</v>
+      </c>
       <c r="L141" t="b">
         <v>1</v>
       </c>
@@ -5854,6 +6100,9 @@
       <c r="I142">
         <v>4</v>
       </c>
+      <c r="J142" t="b">
+        <v>1</v>
+      </c>
       <c r="L142" t="b">
         <v>1</v>
       </c>
@@ -5890,6 +6139,9 @@
       <c r="I143">
         <v>4</v>
       </c>
+      <c r="J143" t="b">
+        <v>1</v>
+      </c>
       <c r="L143" t="b">
         <v>1</v>
       </c>
@@ -5926,6 +6178,9 @@
       <c r="I144">
         <v>4</v>
       </c>
+      <c r="J144" t="b">
+        <v>1</v>
+      </c>
       <c r="L144" t="b">
         <v>1</v>
       </c>
@@ -5962,6 +6217,9 @@
       <c r="I145">
         <v>4</v>
       </c>
+      <c r="J145" t="b">
+        <v>1</v>
+      </c>
       <c r="L145" t="b">
         <v>1</v>
       </c>
@@ -5997,6 +6255,9 @@
       <c r="I146">
         <v>4</v>
       </c>
+      <c r="J146" t="b">
+        <v>1</v>
+      </c>
       <c r="L146" t="b">
         <v>1</v>
       </c>
@@ -6032,6 +6293,9 @@
       <c r="I147">
         <v>4</v>
       </c>
+      <c r="J147" t="b">
+        <v>1</v>
+      </c>
       <c r="L147" t="b">
         <v>1</v>
       </c>
@@ -6067,6 +6331,9 @@
       <c r="I148">
         <v>4</v>
       </c>
+      <c r="J148" t="b">
+        <v>1</v>
+      </c>
       <c r="L148" t="b">
         <v>1</v>
       </c>
@@ -6102,6 +6369,9 @@
       <c r="I149">
         <v>4</v>
       </c>
+      <c r="J149" t="b">
+        <v>1</v>
+      </c>
       <c r="L149" t="b">
         <v>1</v>
       </c>
@@ -6137,6 +6407,9 @@
       <c r="I150">
         <v>4</v>
       </c>
+      <c r="J150" t="b">
+        <v>1</v>
+      </c>
       <c r="L150" t="b">
         <v>1</v>
       </c>
@@ -6172,6 +6445,9 @@
       <c r="I151">
         <v>4</v>
       </c>
+      <c r="J151" t="b">
+        <v>1</v>
+      </c>
       <c r="L151" t="b">
         <v>1</v>
       </c>
@@ -6207,6 +6483,9 @@
       <c r="I152">
         <v>4</v>
       </c>
+      <c r="J152" t="b">
+        <v>1</v>
+      </c>
       <c r="L152" t="b">
         <v>1</v>
       </c>
@@ -6242,6 +6521,9 @@
       <c r="I153">
         <v>4</v>
       </c>
+      <c r="J153" t="b">
+        <v>1</v>
+      </c>
       <c r="L153" t="b">
         <v>1</v>
       </c>
@@ -6277,6 +6559,9 @@
       <c r="I154">
         <v>4</v>
       </c>
+      <c r="J154" t="b">
+        <v>1</v>
+      </c>
       <c r="L154" t="b">
         <v>1</v>
       </c>
@@ -6313,6 +6598,9 @@
       <c r="I155">
         <v>4</v>
       </c>
+      <c r="J155" t="s">
+        <v>56</v>
+      </c>
       <c r="L155" t="b">
         <v>1</v>
       </c>
@@ -6349,6 +6637,9 @@
       <c r="I156">
         <v>4</v>
       </c>
+      <c r="J156" t="s">
+        <v>56</v>
+      </c>
       <c r="L156" t="b">
         <v>1</v>
       </c>
@@ -6385,6 +6676,9 @@
       <c r="I157">
         <v>4</v>
       </c>
+      <c r="J157" t="s">
+        <v>56</v>
+      </c>
       <c r="L157" t="b">
         <v>1</v>
       </c>
@@ -6421,6 +6715,9 @@
       <c r="I158">
         <v>4</v>
       </c>
+      <c r="J158" t="s">
+        <v>56</v>
+      </c>
       <c r="L158" t="b">
         <v>1</v>
       </c>
@@ -6457,6 +6754,9 @@
       <c r="I159">
         <v>4</v>
       </c>
+      <c r="J159" t="s">
+        <v>56</v>
+      </c>
       <c r="L159" t="b">
         <v>1</v>
       </c>
@@ -6493,6 +6793,9 @@
       <c r="I160">
         <v>4</v>
       </c>
+      <c r="J160" t="s">
+        <v>56</v>
+      </c>
       <c r="L160" t="b">
         <v>1</v>
       </c>
@@ -6529,6 +6832,9 @@
       <c r="I161">
         <v>4</v>
       </c>
+      <c r="J161" t="s">
+        <v>56</v>
+      </c>
       <c r="L161" t="b">
         <v>1</v>
       </c>
@@ -6565,6 +6871,9 @@
       <c r="I162">
         <v>4</v>
       </c>
+      <c r="J162" t="s">
+        <v>56</v>
+      </c>
       <c r="L162" t="b">
         <v>1</v>
       </c>
@@ -6601,6 +6910,9 @@
       <c r="I163">
         <v>4</v>
       </c>
+      <c r="J163" t="s">
+        <v>56</v>
+      </c>
       <c r="L163" t="b">
         <v>1</v>
       </c>
@@ -6637,6 +6949,9 @@
       <c r="I164">
         <v>4</v>
       </c>
+      <c r="J164" t="b">
+        <v>1</v>
+      </c>
       <c r="L164" t="b">
         <v>1</v>
       </c>
@@ -6718,6 +7033,9 @@
       <c r="I166">
         <v>4</v>
       </c>
+      <c r="J166" t="b">
+        <v>1</v>
+      </c>
       <c r="L166" t="b">
         <v>1</v>
       </c>
@@ -6754,6 +7072,9 @@
       <c r="I167">
         <v>4</v>
       </c>
+      <c r="J167" t="b">
+        <v>1</v>
+      </c>
       <c r="L167" t="b">
         <v>1</v>
       </c>
@@ -6790,6 +7111,9 @@
       <c r="I168">
         <v>4</v>
       </c>
+      <c r="J168" t="b">
+        <v>1</v>
+      </c>
       <c r="L168" t="b">
         <v>1</v>
       </c>
@@ -6826,6 +7150,9 @@
       <c r="I169">
         <v>4</v>
       </c>
+      <c r="J169" t="b">
+        <v>1</v>
+      </c>
       <c r="L169" t="b">
         <v>1</v>
       </c>
@@ -6862,6 +7189,9 @@
       <c r="I170">
         <v>4</v>
       </c>
+      <c r="J170" t="b">
+        <v>1</v>
+      </c>
       <c r="L170" t="b">
         <v>1</v>
       </c>
@@ -6898,6 +7228,9 @@
       <c r="I171">
         <v>4</v>
       </c>
+      <c r="J171" t="b">
+        <v>1</v>
+      </c>
       <c r="L171" t="b">
         <v>1</v>
       </c>
@@ -6934,6 +7267,9 @@
       <c r="I172">
         <v>4</v>
       </c>
+      <c r="J172" t="b">
+        <v>1</v>
+      </c>
       <c r="L172" t="b">
         <v>1</v>
       </c>
@@ -6969,6 +7305,9 @@
       <c r="I173">
         <v>4</v>
       </c>
+      <c r="J173" t="b">
+        <v>1</v>
+      </c>
       <c r="L173" t="b">
         <v>1</v>
       </c>
@@ -7004,6 +7343,9 @@
       <c r="I174">
         <v>4</v>
       </c>
+      <c r="J174" t="b">
+        <v>1</v>
+      </c>
       <c r="L174" t="b">
         <v>1</v>
       </c>
@@ -7039,6 +7381,9 @@
       <c r="I175">
         <v>4</v>
       </c>
+      <c r="J175" t="b">
+        <v>1</v>
+      </c>
       <c r="L175" t="b">
         <v>1</v>
       </c>
@@ -7074,6 +7419,9 @@
       <c r="I176">
         <v>4</v>
       </c>
+      <c r="J176" t="b">
+        <v>1</v>
+      </c>
       <c r="L176" t="b">
         <v>1</v>
       </c>
@@ -7109,6 +7457,9 @@
       <c r="I177">
         <v>4</v>
       </c>
+      <c r="J177" t="b">
+        <v>1</v>
+      </c>
       <c r="L177" t="b">
         <v>1</v>
       </c>
@@ -7144,6 +7495,9 @@
       <c r="I178">
         <v>4</v>
       </c>
+      <c r="J178" t="b">
+        <v>1</v>
+      </c>
       <c r="L178" t="b">
         <v>1</v>
       </c>
@@ -7179,6 +7533,9 @@
       <c r="I179">
         <v>4</v>
       </c>
+      <c r="J179" t="b">
+        <v>1</v>
+      </c>
       <c r="L179" t="b">
         <v>1</v>
       </c>
@@ -7214,6 +7571,9 @@
       <c r="I180">
         <v>4</v>
       </c>
+      <c r="J180" t="b">
+        <v>1</v>
+      </c>
       <c r="L180" t="b">
         <v>1</v>
       </c>
@@ -7249,6 +7609,9 @@
       <c r="I181">
         <v>4</v>
       </c>
+      <c r="J181" t="b">
+        <v>1</v>
+      </c>
       <c r="L181" t="b">
         <v>1</v>
       </c>
@@ -7284,6 +7647,9 @@
       <c r="I182">
         <v>4</v>
       </c>
+      <c r="J182" t="b">
+        <v>1</v>
+      </c>
       <c r="L182" t="b">
         <v>1</v>
       </c>
@@ -7319,6 +7685,9 @@
       <c r="I183">
         <v>4</v>
       </c>
+      <c r="J183" t="b">
+        <v>1</v>
+      </c>
       <c r="L183" t="b">
         <v>1</v>
       </c>
@@ -7354,6 +7723,9 @@
       <c r="I184">
         <v>4</v>
       </c>
+      <c r="J184" t="b">
+        <v>1</v>
+      </c>
       <c r="L184" t="b">
         <v>1</v>
       </c>
@@ -7389,6 +7761,9 @@
       <c r="I185">
         <v>4</v>
       </c>
+      <c r="J185" t="b">
+        <v>1</v>
+      </c>
       <c r="L185" t="b">
         <v>1</v>
       </c>
@@ -7424,6 +7799,9 @@
       <c r="I186">
         <v>4</v>
       </c>
+      <c r="J186" t="b">
+        <v>1</v>
+      </c>
       <c r="L186" t="b">
         <v>1</v>
       </c>
@@ -7509,6 +7887,9 @@
       <c r="I188">
         <v>4</v>
       </c>
+      <c r="J188" t="b">
+        <v>1</v>
+      </c>
       <c r="L188" t="b">
         <v>1</v>
       </c>
@@ -7544,6 +7925,9 @@
       <c r="I189">
         <v>4</v>
       </c>
+      <c r="J189" t="b">
+        <v>1</v>
+      </c>
       <c r="L189" t="b">
         <v>1</v>
       </c>
@@ -7579,6 +7963,9 @@
       <c r="I190">
         <v>4</v>
       </c>
+      <c r="J190" t="b">
+        <v>1</v>
+      </c>
       <c r="L190" t="b">
         <v>1</v>
       </c>
@@ -7614,6 +8001,9 @@
       <c r="I191">
         <v>4</v>
       </c>
+      <c r="J191" t="b">
+        <v>1</v>
+      </c>
       <c r="L191" t="b">
         <v>1</v>
       </c>
@@ -7649,6 +8039,9 @@
       <c r="I192">
         <v>4</v>
       </c>
+      <c r="J192" t="b">
+        <v>1</v>
+      </c>
       <c r="L192" t="b">
         <v>1</v>
       </c>
@@ -7684,6 +8077,9 @@
       <c r="I193">
         <v>4</v>
       </c>
+      <c r="J193" t="b">
+        <v>1</v>
+      </c>
       <c r="L193" t="b">
         <v>1</v>
       </c>
@@ -7719,6 +8115,9 @@
       <c r="I194">
         <v>4</v>
       </c>
+      <c r="J194" t="b">
+        <v>1</v>
+      </c>
       <c r="L194" t="b">
         <v>1</v>
       </c>
@@ -7754,6 +8153,9 @@
       <c r="I195">
         <v>4</v>
       </c>
+      <c r="J195" t="b">
+        <v>1</v>
+      </c>
       <c r="L195" t="b">
         <v>1</v>
       </c>
@@ -7789,6 +8191,9 @@
       <c r="I196">
         <v>4</v>
       </c>
+      <c r="J196" t="b">
+        <v>1</v>
+      </c>
       <c r="L196" t="b">
         <v>1</v>
       </c>
@@ -7824,6 +8229,9 @@
       <c r="I197">
         <v>4</v>
       </c>
+      <c r="J197" t="b">
+        <v>1</v>
+      </c>
       <c r="L197" t="b">
         <v>1</v>
       </c>
@@ -7859,6 +8267,9 @@
       <c r="I198">
         <v>4</v>
       </c>
+      <c r="J198" t="b">
+        <v>1</v>
+      </c>
       <c r="L198" t="b">
         <v>1</v>
       </c>
@@ -7893,6 +8304,9 @@
       </c>
       <c r="I199">
         <v>4</v>
+      </c>
+      <c r="J199" t="b">
+        <v>1</v>
       </c>
       <c r="L199" t="b">
         <v>1</v>

--- a/tally.xlsx
+++ b/tally.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johngodlee/google_drive/phd/thesis/tls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7281E17-D189-C94A-BB03-58D0171DCF8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EE43D3-A2A8-E647-B24B-3E65D7F4EFAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16700" yWindow="0" windowWidth="21700" windowHeight="21600" xr2:uid="{E65B02AA-98F5-FA43-B70D-F94208D9632A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{E65B02AA-98F5-FA43-B70D-F94208D9632A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$199</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$199</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="56">
   <si>
     <t>plot</t>
   </si>
@@ -154,12 +154,6 @@
     <t>cam_hemi_png</t>
   </si>
   <si>
-    <t>tls_hemi_process</t>
-  </si>
-  <si>
-    <t>cam_hemi_process</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -209,6 +203,9 @@
   </si>
   <si>
     <t>FAILED</t>
+  </si>
+  <si>
+    <t>hemi_process</t>
   </si>
 </sst>
 </file>
@@ -566,11 +563,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9060313A-6E24-2846-B6EB-79326E1FC092}">
-  <dimension ref="A1:P199"/>
+  <dimension ref="A1:O199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J82" sqref="J82:J91"/>
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,22 +584,21 @@
     <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
         <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -614,16 +610,16 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
         <v>42</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
       </c>
       <c r="L1" t="s">
         <v>37</v>
@@ -632,18 +628,15 @@
         <v>36</v>
       </c>
       <c r="N1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="O1" t="s">
         <v>38</v>
       </c>
-      <c r="P1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -680,9 +673,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -719,9 +712,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -758,9 +751,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -797,9 +790,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -836,9 +829,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -875,9 +868,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -914,9 +907,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -953,9 +946,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -992,9 +985,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1031,9 +1024,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1070,9 +1063,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1109,9 +1102,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1148,9 +1141,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1187,9 +1180,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1228,7 +1221,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1267,7 +1260,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1306,7 +1299,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1345,7 +1338,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -1370,13 +1363,13 @@
         <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
       </c>
-      <c r="M20" t="s">
-        <v>56</v>
+      <c r="M20" t="b">
+        <v>1</v>
       </c>
       <c r="N20" t="b">
         <v>1</v>
@@ -1384,7 +1377,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1409,13 +1402,13 @@
         <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
       </c>
-      <c r="M21" t="s">
-        <v>56</v>
+      <c r="M21" t="b">
+        <v>1</v>
       </c>
       <c r="N21" t="b">
         <v>1</v>
@@ -1423,7 +1416,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -1448,13 +1441,13 @@
         <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
       </c>
-      <c r="M22" t="s">
-        <v>56</v>
+      <c r="M22" t="b">
+        <v>1</v>
       </c>
       <c r="N22" t="b">
         <v>1</v>
@@ -1462,7 +1455,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -1487,13 +1480,13 @@
         <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
       </c>
-      <c r="M23" t="s">
-        <v>56</v>
+      <c r="M23" t="b">
+        <v>1</v>
       </c>
       <c r="N23" t="b">
         <v>1</v>
@@ -1501,7 +1494,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -1526,13 +1519,13 @@
         <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L24" t="b">
         <v>1</v>
       </c>
-      <c r="M24" t="s">
-        <v>56</v>
+      <c r="M24" t="b">
+        <v>1</v>
       </c>
       <c r="N24" t="b">
         <v>1</v>
@@ -1540,7 +1533,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -1565,13 +1558,13 @@
         <v>4</v>
       </c>
       <c r="J25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L25" t="b">
         <v>1</v>
       </c>
-      <c r="M25" t="s">
-        <v>56</v>
+      <c r="M25" t="b">
+        <v>1</v>
       </c>
       <c r="N25" t="b">
         <v>1</v>
@@ -1579,7 +1572,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -1604,13 +1597,13 @@
         <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L26" t="b">
         <v>1</v>
       </c>
-      <c r="M26" t="s">
-        <v>56</v>
+      <c r="M26" t="b">
+        <v>1</v>
       </c>
       <c r="N26" t="b">
         <v>1</v>
@@ -1618,7 +1611,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1643,13 +1636,13 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L27" t="b">
         <v>1</v>
       </c>
-      <c r="M27" t="s">
-        <v>56</v>
+      <c r="M27" t="b">
+        <v>1</v>
       </c>
       <c r="N27" t="b">
         <v>1</v>
@@ -1657,7 +1650,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1682,13 +1675,13 @@
         <v>4</v>
       </c>
       <c r="J28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L28" t="b">
         <v>1</v>
       </c>
-      <c r="M28" t="s">
-        <v>56</v>
+      <c r="M28" t="b">
+        <v>1</v>
       </c>
       <c r="N28" t="b">
         <v>1</v>
@@ -1696,7 +1689,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -1735,7 +1728,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -1774,7 +1767,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -1813,7 +1806,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -1852,7 +1845,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -1891,7 +1884,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -1930,7 +1923,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -1969,7 +1962,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -2008,7 +2001,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -2047,7 +2040,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -2086,7 +2079,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -2125,7 +2118,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -2164,7 +2157,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -2203,7 +2196,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -2242,7 +2235,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -2281,7 +2274,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -2320,7 +2313,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -2359,7 +2352,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -2398,7 +2391,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -2437,7 +2430,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B48">
         <v>6</v>
@@ -2476,7 +2469,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B49">
         <v>6</v>
@@ -2515,7 +2508,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -2554,7 +2547,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -2593,7 +2586,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -2632,7 +2625,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -2671,7 +2664,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -2710,7 +2703,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -2749,7 +2742,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B56">
         <v>7</v>
@@ -2788,7 +2781,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B57">
         <v>7</v>
@@ -2827,7 +2820,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B58">
         <v>7</v>
@@ -2866,7 +2859,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B59">
         <v>7</v>
@@ -2905,7 +2898,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B60">
         <v>7</v>
@@ -2944,7 +2937,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B61">
         <v>7</v>
@@ -2983,7 +2976,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B62">
         <v>7</v>
@@ -3022,7 +3015,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B63">
         <v>7</v>
@@ -3061,7 +3054,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B64">
         <v>7</v>
@@ -3100,7 +3093,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B65">
         <v>7</v>
@@ -3138,7 +3131,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B66">
         <v>7</v>
@@ -3176,7 +3169,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B67">
         <v>7</v>
@@ -3214,7 +3207,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B68">
         <v>7</v>
@@ -3252,7 +3245,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B69">
         <v>7</v>
@@ -3290,7 +3283,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B70">
         <v>7</v>
@@ -3328,7 +3321,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B71">
         <v>7</v>
@@ -3366,7 +3359,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B72">
         <v>7</v>
@@ -3404,7 +3397,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B73">
         <v>7</v>
@@ -3442,7 +3435,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -3481,7 +3474,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -3520,7 +3513,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B76">
         <v>8</v>
@@ -3559,7 +3552,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B77">
         <v>8</v>
@@ -3598,7 +3591,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B78">
         <v>8</v>
@@ -3637,7 +3630,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B79">
         <v>8</v>
@@ -3676,7 +3669,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B80">
         <v>8</v>
@@ -3715,7 +3708,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B81">
         <v>8</v>
@@ -3754,7 +3747,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B82">
         <v>8</v>
@@ -3793,7 +3786,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B83">
         <v>9</v>
@@ -3832,7 +3825,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B84">
         <v>9</v>
@@ -3871,7 +3864,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B85">
         <v>9</v>
@@ -3910,7 +3903,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B86">
         <v>9</v>
@@ -3949,7 +3942,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B87">
         <v>9</v>
@@ -3988,7 +3981,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B88">
         <v>9</v>
@@ -4027,7 +4020,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B89">
         <v>9</v>
@@ -4066,7 +4059,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B90">
         <v>9</v>
@@ -4105,7 +4098,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B91">
         <v>9</v>
@@ -4144,7 +4137,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B92">
         <v>9</v>
@@ -4182,7 +4175,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B93">
         <v>9</v>
@@ -4220,7 +4213,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B94">
         <v>9</v>
@@ -4258,7 +4251,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B95">
         <v>9</v>
@@ -4296,7 +4289,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B96">
         <v>9</v>
@@ -4334,7 +4327,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B97">
         <v>9</v>
@@ -4372,7 +4365,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B98">
         <v>9</v>
@@ -4410,7 +4403,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B99">
         <v>9</v>
@@ -4448,7 +4441,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B100">
         <v>9</v>
@@ -4486,7 +4479,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B101">
         <v>10</v>
@@ -4525,7 +4518,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B102">
         <v>10</v>
@@ -4564,7 +4557,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B103">
         <v>10</v>
@@ -4603,7 +4596,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B104">
         <v>10</v>
@@ -4642,7 +4635,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B105">
         <v>10</v>
@@ -4681,7 +4674,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B106">
         <v>10</v>
@@ -4720,7 +4713,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B107">
         <v>10</v>
@@ -4759,7 +4752,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B108">
         <v>10</v>
@@ -4798,7 +4791,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B109">
         <v>10</v>
@@ -4837,7 +4830,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B110">
         <v>10</v>
@@ -4875,7 +4868,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B111">
         <v>10</v>
@@ -4913,7 +4906,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B112">
         <v>10</v>
@@ -4951,7 +4944,7 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B113">
         <v>10</v>
@@ -4989,7 +4982,7 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B114">
         <v>10</v>
@@ -5027,7 +5020,7 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B115">
         <v>10</v>
@@ -5065,7 +5058,7 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B116">
         <v>10</v>
@@ -5103,7 +5096,7 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B117">
         <v>10</v>
@@ -5141,7 +5134,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B118">
         <v>10</v>
@@ -5179,7 +5172,7 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B119">
         <v>11</v>
@@ -5204,13 +5197,13 @@
         <v>4</v>
       </c>
       <c r="J119" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L119" t="b">
         <v>1</v>
       </c>
-      <c r="M119" t="s">
-        <v>56</v>
+      <c r="M119" t="b">
+        <v>1</v>
       </c>
       <c r="N119" t="b">
         <v>1</v>
@@ -5218,7 +5211,7 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B120">
         <v>11</v>
@@ -5243,13 +5236,13 @@
         <v>4</v>
       </c>
       <c r="J120" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L120" t="b">
         <v>1</v>
       </c>
-      <c r="M120" t="s">
-        <v>56</v>
+      <c r="M120" t="b">
+        <v>1</v>
       </c>
       <c r="N120" t="b">
         <v>1</v>
@@ -5257,7 +5250,7 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B121">
         <v>11</v>
@@ -5282,13 +5275,13 @@
         <v>4</v>
       </c>
       <c r="J121" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L121" t="b">
         <v>1</v>
       </c>
-      <c r="M121" t="s">
-        <v>56</v>
+      <c r="M121" t="b">
+        <v>1</v>
       </c>
       <c r="N121" t="b">
         <v>1</v>
@@ -5296,7 +5289,7 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B122">
         <v>11</v>
@@ -5321,13 +5314,13 @@
         <v>4</v>
       </c>
       <c r="J122" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L122" t="b">
         <v>1</v>
       </c>
-      <c r="M122" t="s">
-        <v>56</v>
+      <c r="M122" t="b">
+        <v>1</v>
       </c>
       <c r="N122" t="b">
         <v>1</v>
@@ -5335,7 +5328,7 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B123">
         <v>11</v>
@@ -5360,13 +5353,13 @@
         <v>4</v>
       </c>
       <c r="J123" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L123" t="b">
         <v>1</v>
       </c>
-      <c r="M123" t="s">
-        <v>56</v>
+      <c r="M123" t="b">
+        <v>1</v>
       </c>
       <c r="N123" t="b">
         <v>1</v>
@@ -5374,7 +5367,7 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B124">
         <v>11</v>
@@ -5399,13 +5392,13 @@
         <v>4</v>
       </c>
       <c r="J124" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L124" t="b">
         <v>1</v>
       </c>
-      <c r="M124" t="s">
-        <v>56</v>
+      <c r="M124" t="b">
+        <v>1</v>
       </c>
       <c r="N124" t="b">
         <v>1</v>
@@ -5413,7 +5406,7 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B125">
         <v>11</v>
@@ -5438,13 +5431,13 @@
         <v>4</v>
       </c>
       <c r="J125" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L125" t="b">
         <v>1</v>
       </c>
-      <c r="M125" t="s">
-        <v>56</v>
+      <c r="M125" t="b">
+        <v>1</v>
       </c>
       <c r="N125" t="b">
         <v>1</v>
@@ -5452,7 +5445,7 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B126">
         <v>11</v>
@@ -5477,13 +5470,13 @@
         <v>4</v>
       </c>
       <c r="J126" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L126" t="b">
         <v>1</v>
       </c>
-      <c r="M126" t="s">
-        <v>56</v>
+      <c r="M126" t="b">
+        <v>1</v>
       </c>
       <c r="N126" t="b">
         <v>1</v>
@@ -5491,7 +5484,7 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B127">
         <v>11</v>
@@ -5516,13 +5509,13 @@
         <v>4</v>
       </c>
       <c r="J127" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L127" t="b">
         <v>1</v>
       </c>
-      <c r="M127" t="s">
-        <v>56</v>
+      <c r="M127" t="b">
+        <v>1</v>
       </c>
       <c r="N127" t="b">
         <v>1</v>
@@ -5530,7 +5523,7 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B128">
         <v>12</v>
@@ -5555,13 +5548,13 @@
         <v>4</v>
       </c>
       <c r="J128" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L128" t="b">
         <v>1</v>
       </c>
-      <c r="M128" t="s">
-        <v>56</v>
+      <c r="M128" t="b">
+        <v>1</v>
       </c>
       <c r="N128" t="b">
         <v>1</v>
@@ -5569,7 +5562,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B129">
         <v>12</v>
@@ -5594,13 +5587,13 @@
         <v>4</v>
       </c>
       <c r="J129" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L129" t="b">
         <v>1</v>
       </c>
-      <c r="M129" t="s">
-        <v>56</v>
+      <c r="M129" t="b">
+        <v>1</v>
       </c>
       <c r="N129" t="b">
         <v>1</v>
@@ -5608,7 +5601,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B130">
         <v>12</v>
@@ -5633,13 +5626,13 @@
         <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L130" t="b">
         <v>1</v>
       </c>
-      <c r="M130" t="s">
-        <v>56</v>
+      <c r="M130" t="b">
+        <v>1</v>
       </c>
       <c r="N130" t="b">
         <v>1</v>
@@ -5647,7 +5640,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B131">
         <v>12</v>
@@ -5672,13 +5665,13 @@
         <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L131" t="b">
         <v>1</v>
       </c>
-      <c r="M131" t="s">
-        <v>56</v>
+      <c r="M131" t="b">
+        <v>1</v>
       </c>
       <c r="N131" t="b">
         <v>1</v>
@@ -5686,7 +5679,7 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B132">
         <v>12</v>
@@ -5711,13 +5704,13 @@
         <v>4</v>
       </c>
       <c r="J132" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L132" t="b">
         <v>1</v>
       </c>
-      <c r="M132" t="s">
-        <v>56</v>
+      <c r="M132" t="b">
+        <v>1</v>
       </c>
       <c r="N132" t="b">
         <v>1</v>
@@ -5725,7 +5718,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B133">
         <v>12</v>
@@ -5750,13 +5743,13 @@
         <v>4</v>
       </c>
       <c r="J133" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L133" t="b">
         <v>1</v>
       </c>
-      <c r="M133" t="s">
-        <v>56</v>
+      <c r="M133" t="b">
+        <v>1</v>
       </c>
       <c r="N133" t="b">
         <v>1</v>
@@ -5764,7 +5757,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B134">
         <v>12</v>
@@ -5789,13 +5782,13 @@
         <v>4</v>
       </c>
       <c r="J134" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L134" t="b">
         <v>1</v>
       </c>
-      <c r="M134" t="s">
-        <v>56</v>
+      <c r="M134" t="b">
+        <v>1</v>
       </c>
       <c r="N134" t="b">
         <v>1</v>
@@ -5803,7 +5796,7 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B135">
         <v>12</v>
@@ -5828,13 +5821,13 @@
         <v>4</v>
       </c>
       <c r="J135" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L135" t="b">
         <v>1</v>
       </c>
-      <c r="M135" t="s">
-        <v>56</v>
+      <c r="M135" t="b">
+        <v>1</v>
       </c>
       <c r="N135" t="b">
         <v>1</v>
@@ -5842,7 +5835,7 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B136">
         <v>12</v>
@@ -5867,13 +5860,13 @@
         <v>4</v>
       </c>
       <c r="J136" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L136" t="b">
         <v>1</v>
       </c>
-      <c r="M136" t="s">
-        <v>56</v>
+      <c r="M136" t="b">
+        <v>1</v>
       </c>
       <c r="N136" t="b">
         <v>1</v>
@@ -5881,7 +5874,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B137">
         <v>13</v>
@@ -5920,7 +5913,7 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B138">
         <v>13</v>
@@ -5959,7 +5952,7 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B139">
         <v>13</v>
@@ -5998,7 +5991,7 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B140">
         <v>13</v>
@@ -6037,7 +6030,7 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B141">
         <v>13</v>
@@ -6076,7 +6069,7 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B142">
         <v>13</v>
@@ -6115,7 +6108,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B143">
         <v>13</v>
@@ -6154,7 +6147,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B144">
         <v>13</v>
@@ -6193,7 +6186,7 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B145">
         <v>13</v>
@@ -6232,7 +6225,7 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B146">
         <v>13</v>
@@ -6241,7 +6234,7 @@
         <v>33</v>
       </c>
       <c r="D146" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E146" t="s">
         <v>6</v>
@@ -6270,7 +6263,7 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B147">
         <v>13</v>
@@ -6279,7 +6272,7 @@
         <v>33</v>
       </c>
       <c r="D147" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E147" t="s">
         <v>7</v>
@@ -6308,7 +6301,7 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B148">
         <v>13</v>
@@ -6317,7 +6310,7 @@
         <v>33</v>
       </c>
       <c r="D148" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E148" t="s">
         <v>8</v>
@@ -6346,7 +6339,7 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B149">
         <v>13</v>
@@ -6355,7 +6348,7 @@
         <v>33</v>
       </c>
       <c r="D149" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E149" t="s">
         <v>9</v>
@@ -6384,7 +6377,7 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B150">
         <v>13</v>
@@ -6393,7 +6386,7 @@
         <v>33</v>
       </c>
       <c r="D150" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E150" t="s">
         <v>10</v>
@@ -6422,7 +6415,7 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B151">
         <v>13</v>
@@ -6431,7 +6424,7 @@
         <v>33</v>
       </c>
       <c r="D151" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E151" t="s">
         <v>11</v>
@@ -6460,7 +6453,7 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B152">
         <v>13</v>
@@ -6469,7 +6462,7 @@
         <v>33</v>
       </c>
       <c r="D152" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E152" t="s">
         <v>12</v>
@@ -6498,7 +6491,7 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B153">
         <v>13</v>
@@ -6507,7 +6500,7 @@
         <v>33</v>
       </c>
       <c r="D153" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E153" t="s">
         <v>13</v>
@@ -6536,7 +6529,7 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B154">
         <v>13</v>
@@ -6545,7 +6538,7 @@
         <v>33</v>
       </c>
       <c r="D154" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E154" t="s">
         <v>14</v>
@@ -6574,7 +6567,7 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B155">
         <v>14</v>
@@ -6599,13 +6592,13 @@
         <v>4</v>
       </c>
       <c r="J155" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L155" t="b">
         <v>1</v>
       </c>
-      <c r="M155" t="s">
-        <v>56</v>
+      <c r="M155" t="b">
+        <v>1</v>
       </c>
       <c r="N155" t="b">
         <v>1</v>
@@ -6613,7 +6606,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B156">
         <v>14</v>
@@ -6638,13 +6631,13 @@
         <v>4</v>
       </c>
       <c r="J156" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L156" t="b">
         <v>1</v>
       </c>
-      <c r="M156" t="s">
-        <v>56</v>
+      <c r="M156" t="b">
+        <v>1</v>
       </c>
       <c r="N156" t="b">
         <v>1</v>
@@ -6652,7 +6645,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B157">
         <v>14</v>
@@ -6677,13 +6670,13 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L157" t="b">
         <v>1</v>
       </c>
-      <c r="M157" t="s">
-        <v>56</v>
+      <c r="M157" t="b">
+        <v>1</v>
       </c>
       <c r="N157" t="b">
         <v>1</v>
@@ -6691,7 +6684,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B158">
         <v>14</v>
@@ -6716,13 +6709,13 @@
         <v>4</v>
       </c>
       <c r="J158" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L158" t="b">
         <v>1</v>
       </c>
-      <c r="M158" t="s">
-        <v>56</v>
+      <c r="M158" t="b">
+        <v>1</v>
       </c>
       <c r="N158" t="b">
         <v>1</v>
@@ -6730,7 +6723,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B159">
         <v>14</v>
@@ -6755,13 +6748,13 @@
         <v>4</v>
       </c>
       <c r="J159" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L159" t="b">
         <v>1</v>
       </c>
-      <c r="M159" t="s">
-        <v>56</v>
+      <c r="M159" t="b">
+        <v>1</v>
       </c>
       <c r="N159" t="b">
         <v>1</v>
@@ -6769,7 +6762,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B160">
         <v>14</v>
@@ -6794,13 +6787,13 @@
         <v>4</v>
       </c>
       <c r="J160" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L160" t="b">
         <v>1</v>
       </c>
-      <c r="M160" t="s">
-        <v>56</v>
+      <c r="M160" t="b">
+        <v>1</v>
       </c>
       <c r="N160" t="b">
         <v>1</v>
@@ -6808,7 +6801,7 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B161">
         <v>14</v>
@@ -6833,13 +6826,13 @@
         <v>4</v>
       </c>
       <c r="J161" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L161" t="b">
         <v>1</v>
       </c>
-      <c r="M161" t="s">
-        <v>56</v>
+      <c r="M161" t="b">
+        <v>1</v>
       </c>
       <c r="N161" t="b">
         <v>1</v>
@@ -6847,7 +6840,7 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B162">
         <v>14</v>
@@ -6872,13 +6865,13 @@
         <v>4</v>
       </c>
       <c r="J162" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L162" t="b">
         <v>1</v>
       </c>
-      <c r="M162" t="s">
-        <v>56</v>
+      <c r="M162" t="b">
+        <v>1</v>
       </c>
       <c r="N162" t="b">
         <v>1</v>
@@ -6886,7 +6879,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B163">
         <v>14</v>
@@ -6911,13 +6904,13 @@
         <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L163" t="b">
         <v>1</v>
       </c>
-      <c r="M163" t="s">
-        <v>56</v>
+      <c r="M163" t="b">
+        <v>1</v>
       </c>
       <c r="N163" t="b">
         <v>1</v>
@@ -6925,7 +6918,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B164">
         <v>15</v>
@@ -6964,7 +6957,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B165">
         <v>15</v>
@@ -7009,7 +7002,7 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B166">
         <v>15</v>
@@ -7048,7 +7041,7 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B167">
         <v>15</v>
@@ -7087,7 +7080,7 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B168">
         <v>15</v>
@@ -7126,7 +7119,7 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B169">
         <v>15</v>
@@ -7165,7 +7158,7 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B170">
         <v>15</v>
@@ -7204,7 +7197,7 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B171">
         <v>15</v>
@@ -7243,7 +7236,7 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B172">
         <v>15</v>
@@ -7282,7 +7275,7 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B173">
         <v>19</v>
@@ -7291,7 +7284,7 @@
         <v>29</v>
       </c>
       <c r="D173" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E173" t="s">
         <v>6</v>
@@ -7320,7 +7313,7 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B174">
         <v>19</v>
@@ -7329,7 +7322,7 @@
         <v>29</v>
       </c>
       <c r="D174" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E174" t="s">
         <v>7</v>
@@ -7358,7 +7351,7 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B175">
         <v>19</v>
@@ -7367,7 +7360,7 @@
         <v>29</v>
       </c>
       <c r="D175" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E175" t="s">
         <v>8</v>
@@ -7396,7 +7389,7 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B176">
         <v>19</v>
@@ -7405,7 +7398,7 @@
         <v>29</v>
       </c>
       <c r="D176" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E176" t="s">
         <v>9</v>
@@ -7432,9 +7425,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B177">
         <v>19</v>
@@ -7443,7 +7436,7 @@
         <v>29</v>
       </c>
       <c r="D177" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E177" t="s">
         <v>10</v>
@@ -7470,9 +7463,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B178">
         <v>19</v>
@@ -7481,7 +7474,7 @@
         <v>29</v>
       </c>
       <c r="D178" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E178" t="s">
         <v>11</v>
@@ -7508,9 +7501,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B179">
         <v>19</v>
@@ -7519,7 +7512,7 @@
         <v>29</v>
       </c>
       <c r="D179" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E179" t="s">
         <v>12</v>
@@ -7546,9 +7539,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B180">
         <v>19</v>
@@ -7557,7 +7550,7 @@
         <v>29</v>
       </c>
       <c r="D180" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E180" t="s">
         <v>13</v>
@@ -7584,9 +7577,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B181">
         <v>19</v>
@@ -7595,7 +7588,7 @@
         <v>29</v>
       </c>
       <c r="D181" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E181" t="s">
         <v>14</v>
@@ -7622,9 +7615,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B182">
         <v>21</v>
@@ -7633,7 +7626,7 @@
         <v>31</v>
       </c>
       <c r="D182" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E182" t="s">
         <v>6</v>
@@ -7660,9 +7653,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B183">
         <v>21</v>
@@ -7671,7 +7664,7 @@
         <v>31</v>
       </c>
       <c r="D183" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E183" t="s">
         <v>7</v>
@@ -7698,9 +7691,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B184">
         <v>21</v>
@@ -7709,7 +7702,7 @@
         <v>31</v>
       </c>
       <c r="D184" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E184" t="s">
         <v>8</v>
@@ -7736,9 +7729,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B185">
         <v>21</v>
@@ -7747,7 +7740,7 @@
         <v>31</v>
       </c>
       <c r="D185" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E185" t="s">
         <v>9</v>
@@ -7774,9 +7767,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B186">
         <v>21</v>
@@ -7785,7 +7778,7 @@
         <v>31</v>
       </c>
       <c r="D186" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E186" t="s">
         <v>10</v>
@@ -7812,9 +7805,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B187">
         <v>21</v>
@@ -7823,7 +7816,7 @@
         <v>31</v>
       </c>
       <c r="D187" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E187" t="s">
         <v>11</v>
@@ -7855,16 +7848,13 @@
       <c r="N187" t="b">
         <v>0</v>
       </c>
-      <c r="O187" t="b">
-        <v>0</v>
-      </c>
-      <c r="P187" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O187" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B188">
         <v>21</v>
@@ -7873,7 +7863,7 @@
         <v>31</v>
       </c>
       <c r="D188" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E188" t="s">
         <v>12</v>
@@ -7900,9 +7890,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B189">
         <v>21</v>
@@ -7911,7 +7901,7 @@
         <v>31</v>
       </c>
       <c r="D189" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E189" t="s">
         <v>13</v>
@@ -7938,9 +7928,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B190">
         <v>21</v>
@@ -7949,7 +7939,7 @@
         <v>31</v>
       </c>
       <c r="D190" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E190" t="s">
         <v>14</v>
@@ -7976,9 +7966,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B191">
         <v>25</v>
@@ -7987,7 +7977,7 @@
         <v>35</v>
       </c>
       <c r="D191" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E191" t="s">
         <v>6</v>
@@ -8014,9 +8004,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B192">
         <v>25</v>
@@ -8025,7 +8015,7 @@
         <v>35</v>
       </c>
       <c r="D192" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E192" t="s">
         <v>7</v>
@@ -8054,7 +8044,7 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B193">
         <v>25</v>
@@ -8063,7 +8053,7 @@
         <v>35</v>
       </c>
       <c r="D193" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E193" t="s">
         <v>8</v>
@@ -8092,7 +8082,7 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B194">
         <v>25</v>
@@ -8101,7 +8091,7 @@
         <v>35</v>
       </c>
       <c r="D194" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E194" t="s">
         <v>9</v>
@@ -8130,7 +8120,7 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B195">
         <v>25</v>
@@ -8139,7 +8129,7 @@
         <v>35</v>
       </c>
       <c r="D195" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E195" t="s">
         <v>10</v>
@@ -8168,7 +8158,7 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B196">
         <v>25</v>
@@ -8177,7 +8167,7 @@
         <v>35</v>
       </c>
       <c r="D196" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E196" t="s">
         <v>11</v>
@@ -8206,7 +8196,7 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B197">
         <v>25</v>
@@ -8215,7 +8205,7 @@
         <v>35</v>
       </c>
       <c r="D197" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E197" t="s">
         <v>12</v>
@@ -8244,7 +8234,7 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B198">
         <v>25</v>
@@ -8253,7 +8243,7 @@
         <v>35</v>
       </c>
       <c r="D198" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E198" t="s">
         <v>13</v>
@@ -8282,7 +8272,7 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B199">
         <v>25</v>
@@ -8291,7 +8281,7 @@
         <v>35</v>
       </c>
       <c r="D199" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E199" t="s">
         <v>14</v>
@@ -8319,8 +8309,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P199" xr:uid="{95B1FB53-0665-4142-9738-C87A42CA69B7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P199">
+  <autoFilter ref="A1:O199" xr:uid="{95B1FB53-0665-4142-9738-C87A42CA69B7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O199">
       <sortCondition ref="B1:B199"/>
     </sortState>
   </autoFilter>

--- a/tally.xlsx
+++ b/tally.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johngodlee/google_drive/phd/thesis/tls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EE43D3-A2A8-E647-B24B-3E65D7F4EFAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8DA455-9523-F543-A275-6AD2D1DB16CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{E65B02AA-98F5-FA43-B70D-F94208D9632A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="subplot" sheetId="1" r:id="rId1"/>
+    <sheet name="plot" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$199</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">subplot!$A$1:$L$199</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="52">
   <si>
     <t>plot</t>
   </si>
@@ -157,16 +157,10 @@
     <t>notes</t>
   </si>
   <si>
-    <t>dpm</t>
-  </si>
-  <si>
     <t>tls_grass_csv</t>
   </si>
   <si>
     <t>tls_height_profile_rds</t>
-  </si>
-  <si>
-    <t>tls_canopy_height_csv</t>
   </si>
   <si>
     <t>country_iso3</t>
@@ -200,12 +194,6 @@
   </si>
   <si>
     <t>W9</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>hemi_process</t>
   </si>
 </sst>
 </file>
@@ -563,42 +551,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9060313A-6E24-2846-B6EB-79326E1FC092}">
-  <dimension ref="A1:O199"/>
+  <dimension ref="A1:L199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H177" sqref="H177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -610,33 +597,24 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -657,25 +635,22 @@
       <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>4</v>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
       </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -696,25 +671,19 @@
       <c r="G3" t="b">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>4</v>
+      <c r="I3" t="b">
+        <v>1</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -735,25 +704,19 @@
       <c r="G4" t="b">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>4</v>
+      <c r="I4" t="b">
+        <v>1</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
       </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -774,25 +737,19 @@
       <c r="G5" t="b">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>4</v>
+      <c r="I5" t="b">
+        <v>1</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
       </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -813,25 +770,19 @@
       <c r="G6" t="b">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>4</v>
+      <c r="I6" t="b">
+        <v>1</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
       </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -852,25 +803,19 @@
       <c r="G7" t="b">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>4</v>
+      <c r="I7" t="b">
+        <v>1</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
       </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -891,25 +836,19 @@
       <c r="G8" t="b">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>4</v>
+      <c r="I8" t="b">
+        <v>1</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
       </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -930,25 +869,22 @@
       <c r="G9" t="b">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>4</v>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
       </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -969,25 +905,22 @@
       <c r="G10" t="b">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>4</v>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
       </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1008,25 +941,22 @@
       <c r="G11" t="b">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>4</v>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
       </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" t="b">
-        <v>1</v>
-      </c>
-      <c r="N11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1047,25 +977,22 @@
       <c r="G12" t="b">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>4</v>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
       </c>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" t="b">
-        <v>1</v>
-      </c>
-      <c r="N12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1086,25 +1013,22 @@
       <c r="G13" t="b">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>4</v>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
       </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" t="b">
-        <v>1</v>
-      </c>
-      <c r="N13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1125,25 +1049,22 @@
       <c r="G14" t="b">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>4</v>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
       </c>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" t="b">
-        <v>1</v>
-      </c>
-      <c r="N14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1164,25 +1085,22 @@
       <c r="G15" t="b">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>4</v>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
       </c>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" t="b">
-        <v>1</v>
-      </c>
-      <c r="N15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1203,25 +1121,22 @@
       <c r="G16" t="b">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>4</v>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
       </c>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" t="b">
-        <v>1</v>
-      </c>
-      <c r="N16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1242,25 +1157,22 @@
       <c r="G17" t="b">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>4</v>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
       </c>
-      <c r="L17" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1281,25 +1193,22 @@
       <c r="G18" t="b">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>4</v>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
       </c>
-      <c r="L18" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" t="b">
-        <v>1</v>
-      </c>
-      <c r="N18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1320,25 +1229,22 @@
       <c r="G19" t="b">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>4</v>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
       </c>
-      <c r="L19" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" t="b">
-        <v>1</v>
-      </c>
-      <c r="N19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -1359,25 +1265,22 @@
       <c r="G20" t="b">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="J20" t="s">
-        <v>54</v>
-      </c>
-      <c r="L20" t="b">
-        <v>1</v>
-      </c>
-      <c r="M20" t="b">
-        <v>1</v>
-      </c>
-      <c r="N20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1398,25 +1301,22 @@
       <c r="G21" t="b">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>4</v>
-      </c>
-      <c r="J21" t="s">
-        <v>54</v>
-      </c>
-      <c r="L21" t="b">
-        <v>1</v>
-      </c>
-      <c r="M21" t="b">
-        <v>1</v>
-      </c>
-      <c r="N21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -1437,25 +1337,22 @@
       <c r="G22" t="b">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>4</v>
-      </c>
-      <c r="J22" t="s">
-        <v>54</v>
-      </c>
-      <c r="L22" t="b">
-        <v>1</v>
-      </c>
-      <c r="M22" t="b">
-        <v>1</v>
-      </c>
-      <c r="N22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -1476,25 +1373,22 @@
       <c r="G23" t="b">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>4</v>
-      </c>
-      <c r="J23" t="s">
-        <v>54</v>
-      </c>
-      <c r="L23" t="b">
-        <v>1</v>
-      </c>
-      <c r="M23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -1515,25 +1409,22 @@
       <c r="G24" t="b">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>4</v>
-      </c>
-      <c r="J24" t="s">
-        <v>54</v>
-      </c>
-      <c r="L24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M24" t="b">
-        <v>1</v>
-      </c>
-      <c r="N24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -1554,25 +1445,22 @@
       <c r="G25" t="b">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>4</v>
-      </c>
-      <c r="J25" t="s">
-        <v>54</v>
-      </c>
-      <c r="L25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M25" t="b">
-        <v>1</v>
-      </c>
-      <c r="N25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -1593,25 +1481,22 @@
       <c r="G26" t="b">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>4</v>
-      </c>
-      <c r="J26" t="s">
-        <v>54</v>
-      </c>
-      <c r="L26" t="b">
-        <v>1</v>
-      </c>
-      <c r="M26" t="b">
-        <v>1</v>
-      </c>
-      <c r="N26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1632,25 +1517,22 @@
       <c r="G27" t="b">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>4</v>
-      </c>
-      <c r="J27" t="s">
-        <v>54</v>
-      </c>
-      <c r="L27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27" t="b">
-        <v>1</v>
-      </c>
-      <c r="N27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1671,25 +1553,22 @@
       <c r="G28" t="b">
         <v>1</v>
       </c>
-      <c r="I28">
-        <v>4</v>
-      </c>
-      <c r="J28" t="s">
-        <v>54</v>
-      </c>
-      <c r="L28" t="b">
-        <v>1</v>
-      </c>
-      <c r="M28" t="b">
-        <v>1</v>
-      </c>
-      <c r="N28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -1710,25 +1589,22 @@
       <c r="G29" t="b">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>4</v>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
       </c>
-      <c r="L29" t="b">
-        <v>1</v>
-      </c>
-      <c r="M29" t="b">
-        <v>1</v>
-      </c>
-      <c r="N29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -1749,25 +1625,22 @@
       <c r="G30" t="b">
         <v>1</v>
       </c>
-      <c r="I30">
-        <v>4</v>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
       </c>
-      <c r="L30" t="b">
-        <v>1</v>
-      </c>
-      <c r="M30" t="b">
-        <v>1</v>
-      </c>
-      <c r="N30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -1788,25 +1661,22 @@
       <c r="G31" t="b">
         <v>1</v>
       </c>
-      <c r="I31">
-        <v>4</v>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
       </c>
       <c r="J31" t="b">
         <v>1</v>
       </c>
-      <c r="L31" t="b">
-        <v>1</v>
-      </c>
-      <c r="M31" t="b">
-        <v>1</v>
-      </c>
-      <c r="N31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -1827,25 +1697,22 @@
       <c r="G32" t="b">
         <v>1</v>
       </c>
-      <c r="I32">
-        <v>4</v>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
       </c>
       <c r="J32" t="b">
         <v>1</v>
       </c>
-      <c r="L32" t="b">
-        <v>1</v>
-      </c>
-      <c r="M32" t="b">
-        <v>1</v>
-      </c>
-      <c r="N32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -1866,25 +1733,22 @@
       <c r="G33" t="b">
         <v>1</v>
       </c>
-      <c r="I33">
-        <v>4</v>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
       </c>
       <c r="J33" t="b">
         <v>1</v>
       </c>
-      <c r="L33" t="b">
-        <v>1</v>
-      </c>
-      <c r="M33" t="b">
-        <v>1</v>
-      </c>
-      <c r="N33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -1905,25 +1769,22 @@
       <c r="G34" t="b">
         <v>1</v>
       </c>
-      <c r="I34">
-        <v>4</v>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
       </c>
       <c r="J34" t="b">
         <v>1</v>
       </c>
-      <c r="L34" t="b">
-        <v>1</v>
-      </c>
-      <c r="M34" t="b">
-        <v>1</v>
-      </c>
-      <c r="N34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -1944,25 +1805,22 @@
       <c r="G35" t="b">
         <v>1</v>
       </c>
-      <c r="I35">
-        <v>4</v>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
       </c>
       <c r="J35" t="b">
         <v>1</v>
       </c>
-      <c r="L35" t="b">
-        <v>1</v>
-      </c>
-      <c r="M35" t="b">
-        <v>1</v>
-      </c>
-      <c r="N35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -1983,25 +1841,22 @@
       <c r="G36" t="b">
         <v>1</v>
       </c>
-      <c r="I36">
-        <v>4</v>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
       </c>
       <c r="J36" t="b">
         <v>1</v>
       </c>
-      <c r="L36" t="b">
-        <v>1</v>
-      </c>
-      <c r="M36" t="b">
-        <v>1</v>
-      </c>
-      <c r="N36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -2022,25 +1877,22 @@
       <c r="G37" t="b">
         <v>1</v>
       </c>
-      <c r="I37">
-        <v>4</v>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
       </c>
       <c r="J37" t="b">
         <v>1</v>
       </c>
-      <c r="L37" t="b">
-        <v>1</v>
-      </c>
-      <c r="M37" t="b">
-        <v>1</v>
-      </c>
-      <c r="N37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -2061,25 +1913,22 @@
       <c r="G38" t="b">
         <v>1</v>
       </c>
-      <c r="I38">
-        <v>4</v>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
       </c>
       <c r="J38" t="b">
         <v>1</v>
       </c>
-      <c r="L38" t="b">
-        <v>1</v>
-      </c>
-      <c r="M38" t="b">
-        <v>1</v>
-      </c>
-      <c r="N38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -2100,25 +1949,22 @@
       <c r="G39" t="b">
         <v>1</v>
       </c>
-      <c r="I39">
-        <v>4</v>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
       </c>
       <c r="J39" t="b">
         <v>1</v>
       </c>
-      <c r="L39" t="b">
-        <v>1</v>
-      </c>
-      <c r="M39" t="b">
-        <v>1</v>
-      </c>
-      <c r="N39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -2139,25 +1985,22 @@
       <c r="G40" t="b">
         <v>1</v>
       </c>
-      <c r="I40">
-        <v>4</v>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
       </c>
       <c r="J40" t="b">
         <v>1</v>
       </c>
-      <c r="L40" t="b">
-        <v>1</v>
-      </c>
-      <c r="M40" t="b">
-        <v>1</v>
-      </c>
-      <c r="N40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -2178,25 +2021,22 @@
       <c r="G41" t="b">
         <v>1</v>
       </c>
-      <c r="I41">
-        <v>4</v>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
       </c>
       <c r="J41" t="b">
         <v>1</v>
       </c>
-      <c r="L41" t="b">
-        <v>1</v>
-      </c>
-      <c r="M41" t="b">
-        <v>1</v>
-      </c>
-      <c r="N41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -2217,25 +2057,22 @@
       <c r="G42" t="b">
         <v>1</v>
       </c>
-      <c r="I42">
-        <v>4</v>
+      <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
       </c>
       <c r="J42" t="b">
         <v>1</v>
       </c>
-      <c r="L42" t="b">
-        <v>1</v>
-      </c>
-      <c r="M42" t="b">
-        <v>1</v>
-      </c>
-      <c r="N42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -2256,25 +2093,22 @@
       <c r="G43" t="b">
         <v>1</v>
       </c>
-      <c r="I43">
-        <v>4</v>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
       </c>
       <c r="J43" t="b">
         <v>1</v>
       </c>
-      <c r="L43" t="b">
-        <v>1</v>
-      </c>
-      <c r="M43" t="b">
-        <v>1</v>
-      </c>
-      <c r="N43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -2295,25 +2129,22 @@
       <c r="G44" t="b">
         <v>1</v>
       </c>
-      <c r="I44">
-        <v>4</v>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
       </c>
       <c r="J44" t="b">
         <v>1</v>
       </c>
-      <c r="L44" t="b">
-        <v>1</v>
-      </c>
-      <c r="M44" t="b">
-        <v>1</v>
-      </c>
-      <c r="N44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -2334,25 +2165,22 @@
       <c r="G45" t="b">
         <v>1</v>
       </c>
-      <c r="I45">
-        <v>4</v>
+      <c r="H45">
+        <v>4</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
       </c>
       <c r="J45" t="b">
         <v>1</v>
       </c>
-      <c r="L45" t="b">
-        <v>1</v>
-      </c>
-      <c r="M45" t="b">
-        <v>1</v>
-      </c>
-      <c r="N45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -2373,25 +2201,22 @@
       <c r="G46" t="b">
         <v>1</v>
       </c>
-      <c r="I46">
-        <v>4</v>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
       </c>
       <c r="J46" t="b">
         <v>1</v>
       </c>
-      <c r="L46" t="b">
-        <v>1</v>
-      </c>
-      <c r="M46" t="b">
-        <v>1</v>
-      </c>
-      <c r="N46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -2412,25 +2237,22 @@
       <c r="G47" t="b">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>4</v>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
       </c>
       <c r="J47" t="b">
         <v>1</v>
       </c>
-      <c r="L47" t="b">
-        <v>1</v>
-      </c>
-      <c r="M47" t="b">
-        <v>1</v>
-      </c>
-      <c r="N47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B48">
         <v>6</v>
@@ -2451,25 +2273,22 @@
       <c r="G48" t="b">
         <v>1</v>
       </c>
-      <c r="I48">
-        <v>4</v>
+      <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
       </c>
       <c r="J48" t="b">
         <v>1</v>
       </c>
-      <c r="L48" t="b">
-        <v>1</v>
-      </c>
-      <c r="M48" t="b">
-        <v>1</v>
-      </c>
-      <c r="N48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B49">
         <v>6</v>
@@ -2490,25 +2309,22 @@
       <c r="G49" t="b">
         <v>1</v>
       </c>
-      <c r="I49">
-        <v>4</v>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
       </c>
       <c r="J49" t="b">
         <v>1</v>
       </c>
-      <c r="L49" t="b">
-        <v>1</v>
-      </c>
-      <c r="M49" t="b">
-        <v>1</v>
-      </c>
-      <c r="N49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -2529,25 +2345,22 @@
       <c r="G50" t="b">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>4</v>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
       </c>
       <c r="J50" t="b">
         <v>1</v>
       </c>
-      <c r="L50" t="b">
-        <v>1</v>
-      </c>
-      <c r="M50" t="b">
-        <v>1</v>
-      </c>
-      <c r="N50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -2568,25 +2381,22 @@
       <c r="G51" t="b">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>4</v>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
       </c>
       <c r="J51" t="b">
         <v>1</v>
       </c>
-      <c r="L51" t="b">
-        <v>1</v>
-      </c>
-      <c r="M51" t="b">
-        <v>1</v>
-      </c>
-      <c r="N51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -2607,25 +2417,22 @@
       <c r="G52" t="b">
         <v>1</v>
       </c>
-      <c r="I52">
-        <v>4</v>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
       </c>
       <c r="J52" t="b">
         <v>1</v>
       </c>
-      <c r="L52" t="b">
-        <v>1</v>
-      </c>
-      <c r="M52" t="b">
-        <v>1</v>
-      </c>
-      <c r="N52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -2646,25 +2453,22 @@
       <c r="G53" t="b">
         <v>1</v>
       </c>
-      <c r="I53">
-        <v>4</v>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
       </c>
       <c r="J53" t="b">
         <v>1</v>
       </c>
-      <c r="L53" t="b">
-        <v>1</v>
-      </c>
-      <c r="M53" t="b">
-        <v>1</v>
-      </c>
-      <c r="N53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -2685,25 +2489,22 @@
       <c r="G54" t="b">
         <v>1</v>
       </c>
-      <c r="I54">
-        <v>4</v>
+      <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
       </c>
       <c r="J54" t="b">
         <v>1</v>
       </c>
-      <c r="L54" t="b">
-        <v>1</v>
-      </c>
-      <c r="M54" t="b">
-        <v>1</v>
-      </c>
-      <c r="N54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -2724,25 +2525,22 @@
       <c r="G55" t="b">
         <v>1</v>
       </c>
-      <c r="I55">
-        <v>4</v>
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
       </c>
       <c r="J55" t="b">
         <v>1</v>
       </c>
-      <c r="L55" t="b">
-        <v>1</v>
-      </c>
-      <c r="M55" t="b">
-        <v>1</v>
-      </c>
-      <c r="N55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B56">
         <v>7</v>
@@ -2763,25 +2561,22 @@
       <c r="G56" t="b">
         <v>1</v>
       </c>
-      <c r="I56">
-        <v>4</v>
+      <c r="H56">
+        <v>4</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
       </c>
       <c r="J56" t="b">
         <v>1</v>
       </c>
-      <c r="L56" t="b">
-        <v>1</v>
-      </c>
-      <c r="M56" t="b">
-        <v>1</v>
-      </c>
-      <c r="N56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B57">
         <v>7</v>
@@ -2802,25 +2597,22 @@
       <c r="G57" t="b">
         <v>1</v>
       </c>
-      <c r="I57">
-        <v>4</v>
+      <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
       </c>
       <c r="J57" t="b">
         <v>1</v>
       </c>
-      <c r="L57" t="b">
-        <v>1</v>
-      </c>
-      <c r="M57" t="b">
-        <v>1</v>
-      </c>
-      <c r="N57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B58">
         <v>7</v>
@@ -2841,25 +2633,22 @@
       <c r="G58" t="b">
         <v>1</v>
       </c>
-      <c r="I58">
-        <v>4</v>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
       </c>
       <c r="J58" t="b">
         <v>1</v>
       </c>
-      <c r="L58" t="b">
-        <v>1</v>
-      </c>
-      <c r="M58" t="b">
-        <v>1</v>
-      </c>
-      <c r="N58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B59">
         <v>7</v>
@@ -2880,25 +2669,22 @@
       <c r="G59" t="b">
         <v>1</v>
       </c>
-      <c r="I59">
-        <v>4</v>
+      <c r="H59">
+        <v>4</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
       </c>
       <c r="J59" t="b">
         <v>1</v>
       </c>
-      <c r="L59" t="b">
-        <v>1</v>
-      </c>
-      <c r="M59" t="b">
-        <v>1</v>
-      </c>
-      <c r="N59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B60">
         <v>7</v>
@@ -2919,25 +2705,22 @@
       <c r="G60" t="b">
         <v>1</v>
       </c>
-      <c r="I60">
-        <v>4</v>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
       </c>
       <c r="J60" t="b">
         <v>1</v>
       </c>
-      <c r="L60" t="b">
-        <v>1</v>
-      </c>
-      <c r="M60" t="b">
-        <v>1</v>
-      </c>
-      <c r="N60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B61">
         <v>7</v>
@@ -2958,25 +2741,22 @@
       <c r="G61" t="b">
         <v>1</v>
       </c>
-      <c r="I61">
-        <v>4</v>
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
       </c>
       <c r="J61" t="b">
         <v>1</v>
       </c>
-      <c r="L61" t="b">
-        <v>1</v>
-      </c>
-      <c r="M61" t="b">
-        <v>1</v>
-      </c>
-      <c r="N61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B62">
         <v>7</v>
@@ -2997,25 +2777,22 @@
       <c r="G62" t="b">
         <v>1</v>
       </c>
-      <c r="I62">
-        <v>4</v>
+      <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
       </c>
       <c r="J62" t="b">
         <v>1</v>
       </c>
-      <c r="L62" t="b">
-        <v>1</v>
-      </c>
-      <c r="M62" t="b">
-        <v>1</v>
-      </c>
-      <c r="N62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B63">
         <v>7</v>
@@ -3036,25 +2813,22 @@
       <c r="G63" t="b">
         <v>1</v>
       </c>
-      <c r="I63">
-        <v>4</v>
+      <c r="H63">
+        <v>4</v>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
       </c>
       <c r="J63" t="b">
         <v>1</v>
       </c>
-      <c r="L63" t="b">
-        <v>1</v>
-      </c>
-      <c r="M63" t="b">
-        <v>1</v>
-      </c>
-      <c r="N63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B64">
         <v>7</v>
@@ -3075,25 +2849,22 @@
       <c r="G64" t="b">
         <v>1</v>
       </c>
-      <c r="I64">
-        <v>4</v>
+      <c r="H64">
+        <v>4</v>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
       </c>
       <c r="J64" t="b">
         <v>1</v>
       </c>
-      <c r="L64" t="b">
-        <v>1</v>
-      </c>
-      <c r="M64" t="b">
-        <v>1</v>
-      </c>
-      <c r="N64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B65">
         <v>7</v>
@@ -3113,25 +2884,22 @@
       <c r="G65" t="b">
         <v>1</v>
       </c>
-      <c r="I65">
-        <v>4</v>
+      <c r="H65">
+        <v>4</v>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
       </c>
       <c r="J65" t="b">
         <v>1</v>
       </c>
-      <c r="L65" t="b">
-        <v>1</v>
-      </c>
-      <c r="M65" t="b">
-        <v>1</v>
-      </c>
-      <c r="N65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B66">
         <v>7</v>
@@ -3151,25 +2919,22 @@
       <c r="G66" t="b">
         <v>1</v>
       </c>
-      <c r="I66">
-        <v>4</v>
+      <c r="H66">
+        <v>4</v>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
       </c>
       <c r="J66" t="b">
         <v>1</v>
       </c>
-      <c r="L66" t="b">
-        <v>1</v>
-      </c>
-      <c r="M66" t="b">
-        <v>1</v>
-      </c>
-      <c r="N66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B67">
         <v>7</v>
@@ -3189,25 +2954,22 @@
       <c r="G67" t="b">
         <v>1</v>
       </c>
-      <c r="I67">
-        <v>4</v>
+      <c r="H67">
+        <v>4</v>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
       </c>
       <c r="J67" t="b">
         <v>1</v>
       </c>
-      <c r="L67" t="b">
-        <v>1</v>
-      </c>
-      <c r="M67" t="b">
-        <v>1</v>
-      </c>
-      <c r="N67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B68">
         <v>7</v>
@@ -3227,25 +2989,22 @@
       <c r="G68" t="b">
         <v>1</v>
       </c>
-      <c r="I68">
-        <v>4</v>
+      <c r="H68">
+        <v>4</v>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
       </c>
       <c r="J68" t="b">
         <v>1</v>
       </c>
-      <c r="L68" t="b">
-        <v>1</v>
-      </c>
-      <c r="M68" t="b">
-        <v>1</v>
-      </c>
-      <c r="N68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B69">
         <v>7</v>
@@ -3265,25 +3024,22 @@
       <c r="G69" t="b">
         <v>1</v>
       </c>
-      <c r="I69">
-        <v>4</v>
+      <c r="H69">
+        <v>4</v>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
       </c>
       <c r="J69" t="b">
         <v>1</v>
       </c>
-      <c r="L69" t="b">
-        <v>1</v>
-      </c>
-      <c r="M69" t="b">
-        <v>1</v>
-      </c>
-      <c r="N69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B70">
         <v>7</v>
@@ -3303,25 +3059,22 @@
       <c r="G70" t="b">
         <v>1</v>
       </c>
-      <c r="I70">
-        <v>4</v>
+      <c r="H70">
+        <v>4</v>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
       </c>
       <c r="J70" t="b">
         <v>1</v>
       </c>
-      <c r="L70" t="b">
-        <v>1</v>
-      </c>
-      <c r="M70" t="b">
-        <v>1</v>
-      </c>
-      <c r="N70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B71">
         <v>7</v>
@@ -3341,25 +3094,22 @@
       <c r="G71" t="b">
         <v>1</v>
       </c>
-      <c r="I71">
-        <v>4</v>
+      <c r="H71">
+        <v>4</v>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
       </c>
       <c r="J71" t="b">
         <v>1</v>
       </c>
-      <c r="L71" t="b">
-        <v>1</v>
-      </c>
-      <c r="M71" t="b">
-        <v>1</v>
-      </c>
-      <c r="N71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B72">
         <v>7</v>
@@ -3379,25 +3129,22 @@
       <c r="G72" t="b">
         <v>1</v>
       </c>
-      <c r="I72">
-        <v>4</v>
+      <c r="H72">
+        <v>4</v>
+      </c>
+      <c r="I72" t="b">
+        <v>1</v>
       </c>
       <c r="J72" t="b">
         <v>1</v>
       </c>
-      <c r="L72" t="b">
-        <v>1</v>
-      </c>
-      <c r="M72" t="b">
-        <v>1</v>
-      </c>
-      <c r="N72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B73">
         <v>7</v>
@@ -3417,25 +3164,22 @@
       <c r="G73" t="b">
         <v>1</v>
       </c>
-      <c r="I73">
-        <v>4</v>
+      <c r="H73">
+        <v>4</v>
+      </c>
+      <c r="I73" t="b">
+        <v>1</v>
       </c>
       <c r="J73" t="b">
         <v>1</v>
       </c>
-      <c r="L73" t="b">
-        <v>1</v>
-      </c>
-      <c r="M73" t="b">
-        <v>1</v>
-      </c>
-      <c r="N73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -3456,25 +3200,22 @@
       <c r="G74" t="b">
         <v>1</v>
       </c>
-      <c r="I74">
-        <v>4</v>
+      <c r="H74">
+        <v>4</v>
+      </c>
+      <c r="I74" t="b">
+        <v>1</v>
       </c>
       <c r="J74" t="b">
         <v>1</v>
       </c>
-      <c r="L74" t="b">
-        <v>1</v>
-      </c>
-      <c r="M74" t="b">
-        <v>1</v>
-      </c>
-      <c r="N74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -3495,25 +3236,22 @@
       <c r="G75" t="b">
         <v>1</v>
       </c>
-      <c r="I75">
-        <v>4</v>
+      <c r="H75">
+        <v>4</v>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
       </c>
       <c r="J75" t="b">
         <v>1</v>
       </c>
-      <c r="L75" t="b">
-        <v>1</v>
-      </c>
-      <c r="M75" t="b">
-        <v>1</v>
-      </c>
-      <c r="N75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B76">
         <v>8</v>
@@ -3534,25 +3272,22 @@
       <c r="G76" t="b">
         <v>1</v>
       </c>
-      <c r="I76">
-        <v>4</v>
+      <c r="H76">
+        <v>4</v>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
       </c>
       <c r="J76" t="b">
         <v>1</v>
       </c>
-      <c r="L76" t="b">
-        <v>1</v>
-      </c>
-      <c r="M76" t="b">
-        <v>1</v>
-      </c>
-      <c r="N76" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B77">
         <v>8</v>
@@ -3573,25 +3308,22 @@
       <c r="G77" t="b">
         <v>1</v>
       </c>
-      <c r="I77">
-        <v>4</v>
+      <c r="H77">
+        <v>4</v>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
       </c>
       <c r="J77" t="b">
         <v>1</v>
       </c>
-      <c r="L77" t="b">
-        <v>1</v>
-      </c>
-      <c r="M77" t="b">
-        <v>1</v>
-      </c>
-      <c r="N77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B78">
         <v>8</v>
@@ -3612,25 +3344,22 @@
       <c r="G78" t="b">
         <v>1</v>
       </c>
-      <c r="I78">
-        <v>4</v>
+      <c r="H78">
+        <v>4</v>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
       </c>
       <c r="J78" t="b">
         <v>1</v>
       </c>
-      <c r="L78" t="b">
-        <v>1</v>
-      </c>
-      <c r="M78" t="b">
-        <v>1</v>
-      </c>
-      <c r="N78" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B79">
         <v>8</v>
@@ -3651,25 +3380,22 @@
       <c r="G79" t="b">
         <v>1</v>
       </c>
-      <c r="I79">
-        <v>4</v>
+      <c r="H79">
+        <v>4</v>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
       </c>
       <c r="J79" t="b">
         <v>1</v>
       </c>
-      <c r="L79" t="b">
-        <v>1</v>
-      </c>
-      <c r="M79" t="b">
-        <v>1</v>
-      </c>
-      <c r="N79" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B80">
         <v>8</v>
@@ -3690,25 +3416,22 @@
       <c r="G80" t="b">
         <v>1</v>
       </c>
-      <c r="I80">
-        <v>4</v>
+      <c r="H80">
+        <v>4</v>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
       </c>
       <c r="J80" t="b">
         <v>1</v>
       </c>
-      <c r="L80" t="b">
-        <v>1</v>
-      </c>
-      <c r="M80" t="b">
-        <v>1</v>
-      </c>
-      <c r="N80" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B81">
         <v>8</v>
@@ -3729,25 +3452,22 @@
       <c r="G81" t="b">
         <v>1</v>
       </c>
-      <c r="I81">
-        <v>4</v>
+      <c r="H81">
+        <v>4</v>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
       </c>
       <c r="J81" t="b">
         <v>1</v>
       </c>
-      <c r="L81" t="b">
-        <v>1</v>
-      </c>
-      <c r="M81" t="b">
-        <v>1</v>
-      </c>
-      <c r="N81" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B82">
         <v>8</v>
@@ -3768,25 +3488,22 @@
       <c r="G82" t="b">
         <v>1</v>
       </c>
-      <c r="I82">
-        <v>4</v>
+      <c r="H82">
+        <v>4</v>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
       </c>
       <c r="J82" t="b">
         <v>1</v>
       </c>
-      <c r="L82" t="b">
-        <v>1</v>
-      </c>
-      <c r="M82" t="b">
-        <v>1</v>
-      </c>
-      <c r="N82" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B83">
         <v>9</v>
@@ -3807,25 +3524,22 @@
       <c r="G83" t="b">
         <v>1</v>
       </c>
-      <c r="I83">
-        <v>4</v>
+      <c r="H83">
+        <v>4</v>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
       </c>
       <c r="J83" t="b">
         <v>1</v>
       </c>
-      <c r="L83" t="b">
-        <v>1</v>
-      </c>
-      <c r="M83" t="b">
-        <v>1</v>
-      </c>
-      <c r="N83" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B84">
         <v>9</v>
@@ -3846,25 +3560,22 @@
       <c r="G84" t="b">
         <v>1</v>
       </c>
-      <c r="I84">
-        <v>4</v>
+      <c r="H84">
+        <v>4</v>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
       </c>
       <c r="J84" t="b">
         <v>1</v>
       </c>
-      <c r="L84" t="b">
-        <v>1</v>
-      </c>
-      <c r="M84" t="b">
-        <v>1</v>
-      </c>
-      <c r="N84" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B85">
         <v>9</v>
@@ -3885,25 +3596,22 @@
       <c r="G85" t="b">
         <v>1</v>
       </c>
-      <c r="I85">
-        <v>4</v>
+      <c r="H85">
+        <v>4</v>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
       </c>
       <c r="J85" t="b">
         <v>1</v>
       </c>
-      <c r="L85" t="b">
-        <v>1</v>
-      </c>
-      <c r="M85" t="b">
-        <v>1</v>
-      </c>
-      <c r="N85" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B86">
         <v>9</v>
@@ -3924,25 +3632,22 @@
       <c r="G86" t="b">
         <v>1</v>
       </c>
-      <c r="I86">
-        <v>4</v>
+      <c r="H86">
+        <v>4</v>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
       </c>
       <c r="J86" t="b">
         <v>1</v>
       </c>
-      <c r="L86" t="b">
-        <v>1</v>
-      </c>
-      <c r="M86" t="b">
-        <v>1</v>
-      </c>
-      <c r="N86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B87">
         <v>9</v>
@@ -3963,25 +3668,22 @@
       <c r="G87" t="b">
         <v>1</v>
       </c>
-      <c r="I87">
-        <v>4</v>
+      <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="I87" t="b">
+        <v>1</v>
       </c>
       <c r="J87" t="b">
         <v>1</v>
       </c>
-      <c r="L87" t="b">
-        <v>1</v>
-      </c>
-      <c r="M87" t="b">
-        <v>1</v>
-      </c>
-      <c r="N87" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B88">
         <v>9</v>
@@ -4002,25 +3704,22 @@
       <c r="G88" t="b">
         <v>1</v>
       </c>
-      <c r="I88">
-        <v>4</v>
+      <c r="H88">
+        <v>4</v>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
       </c>
       <c r="J88" t="b">
         <v>1</v>
       </c>
-      <c r="L88" t="b">
-        <v>1</v>
-      </c>
-      <c r="M88" t="b">
-        <v>1</v>
-      </c>
-      <c r="N88" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B89">
         <v>9</v>
@@ -4041,25 +3740,22 @@
       <c r="G89" t="b">
         <v>1</v>
       </c>
-      <c r="I89">
-        <v>4</v>
+      <c r="H89">
+        <v>4</v>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
       </c>
       <c r="J89" t="b">
         <v>1</v>
       </c>
-      <c r="L89" t="b">
-        <v>1</v>
-      </c>
-      <c r="M89" t="b">
-        <v>1</v>
-      </c>
-      <c r="N89" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B90">
         <v>9</v>
@@ -4080,25 +3776,22 @@
       <c r="G90" t="b">
         <v>1</v>
       </c>
-      <c r="I90">
-        <v>4</v>
+      <c r="H90">
+        <v>4</v>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
       </c>
       <c r="J90" t="b">
         <v>1</v>
       </c>
-      <c r="L90" t="b">
-        <v>1</v>
-      </c>
-      <c r="M90" t="b">
-        <v>1</v>
-      </c>
-      <c r="N90" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B91">
         <v>9</v>
@@ -4119,25 +3812,22 @@
       <c r="G91" t="b">
         <v>1</v>
       </c>
-      <c r="I91">
-        <v>4</v>
+      <c r="H91">
+        <v>4</v>
+      </c>
+      <c r="I91" t="b">
+        <v>1</v>
       </c>
       <c r="J91" t="b">
         <v>1</v>
       </c>
-      <c r="L91" t="b">
-        <v>1</v>
-      </c>
-      <c r="M91" t="b">
-        <v>1</v>
-      </c>
-      <c r="N91" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B92">
         <v>9</v>
@@ -4157,25 +3847,22 @@
       <c r="G92" t="b">
         <v>1</v>
       </c>
-      <c r="I92">
-        <v>4</v>
+      <c r="H92">
+        <v>4</v>
+      </c>
+      <c r="I92" t="b">
+        <v>1</v>
       </c>
       <c r="J92" t="b">
         <v>1</v>
       </c>
-      <c r="L92" t="b">
-        <v>1</v>
-      </c>
-      <c r="M92" t="b">
-        <v>1</v>
-      </c>
-      <c r="N92" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B93">
         <v>9</v>
@@ -4195,25 +3882,22 @@
       <c r="G93" t="b">
         <v>1</v>
       </c>
-      <c r="I93">
-        <v>4</v>
+      <c r="H93">
+        <v>4</v>
+      </c>
+      <c r="I93" t="b">
+        <v>1</v>
       </c>
       <c r="J93" t="b">
         <v>1</v>
       </c>
-      <c r="L93" t="b">
-        <v>1</v>
-      </c>
-      <c r="M93" t="b">
-        <v>1</v>
-      </c>
-      <c r="N93" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B94">
         <v>9</v>
@@ -4233,25 +3917,22 @@
       <c r="G94" t="b">
         <v>1</v>
       </c>
-      <c r="I94">
-        <v>4</v>
+      <c r="H94">
+        <v>4</v>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
       </c>
       <c r="J94" t="b">
         <v>1</v>
       </c>
-      <c r="L94" t="b">
-        <v>1</v>
-      </c>
-      <c r="M94" t="b">
-        <v>1</v>
-      </c>
-      <c r="N94" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B95">
         <v>9</v>
@@ -4271,25 +3952,22 @@
       <c r="G95" t="b">
         <v>1</v>
       </c>
-      <c r="I95">
-        <v>4</v>
+      <c r="H95">
+        <v>4</v>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
       </c>
       <c r="J95" t="b">
         <v>1</v>
       </c>
-      <c r="L95" t="b">
-        <v>1</v>
-      </c>
-      <c r="M95" t="b">
-        <v>1</v>
-      </c>
-      <c r="N95" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B96">
         <v>9</v>
@@ -4309,25 +3987,22 @@
       <c r="G96" t="b">
         <v>1</v>
       </c>
-      <c r="I96">
-        <v>4</v>
+      <c r="H96">
+        <v>4</v>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
       </c>
       <c r="J96" t="b">
         <v>1</v>
       </c>
-      <c r="L96" t="b">
-        <v>1</v>
-      </c>
-      <c r="M96" t="b">
-        <v>1</v>
-      </c>
-      <c r="N96" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B97">
         <v>9</v>
@@ -4347,25 +4022,22 @@
       <c r="G97" t="b">
         <v>1</v>
       </c>
-      <c r="I97">
-        <v>4</v>
+      <c r="H97">
+        <v>4</v>
+      </c>
+      <c r="I97" t="b">
+        <v>1</v>
       </c>
       <c r="J97" t="b">
         <v>1</v>
       </c>
-      <c r="L97" t="b">
-        <v>1</v>
-      </c>
-      <c r="M97" t="b">
-        <v>1</v>
-      </c>
-      <c r="N97" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B98">
         <v>9</v>
@@ -4385,25 +4057,22 @@
       <c r="G98" t="b">
         <v>1</v>
       </c>
-      <c r="I98">
-        <v>4</v>
+      <c r="H98">
+        <v>4</v>
+      </c>
+      <c r="I98" t="b">
+        <v>1</v>
       </c>
       <c r="J98" t="b">
         <v>1</v>
       </c>
-      <c r="L98" t="b">
-        <v>1</v>
-      </c>
-      <c r="M98" t="b">
-        <v>1</v>
-      </c>
-      <c r="N98" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B99">
         <v>9</v>
@@ -4423,25 +4092,22 @@
       <c r="G99" t="b">
         <v>1</v>
       </c>
-      <c r="I99">
-        <v>4</v>
+      <c r="H99">
+        <v>4</v>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
       </c>
       <c r="J99" t="b">
         <v>1</v>
       </c>
-      <c r="L99" t="b">
-        <v>1</v>
-      </c>
-      <c r="M99" t="b">
-        <v>1</v>
-      </c>
-      <c r="N99" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B100">
         <v>9</v>
@@ -4461,25 +4127,22 @@
       <c r="G100" t="b">
         <v>1</v>
       </c>
-      <c r="I100">
-        <v>4</v>
+      <c r="H100">
+        <v>4</v>
+      </c>
+      <c r="I100" t="b">
+        <v>1</v>
       </c>
       <c r="J100" t="b">
         <v>1</v>
       </c>
-      <c r="L100" t="b">
-        <v>1</v>
-      </c>
-      <c r="M100" t="b">
-        <v>1</v>
-      </c>
-      <c r="N100" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B101">
         <v>10</v>
@@ -4500,25 +4163,22 @@
       <c r="G101" t="b">
         <v>1</v>
       </c>
-      <c r="I101">
-        <v>4</v>
+      <c r="H101">
+        <v>4</v>
+      </c>
+      <c r="I101" t="b">
+        <v>1</v>
       </c>
       <c r="J101" t="b">
         <v>1</v>
       </c>
-      <c r="L101" t="b">
-        <v>1</v>
-      </c>
-      <c r="M101" t="b">
-        <v>1</v>
-      </c>
-      <c r="N101" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B102">
         <v>10</v>
@@ -4539,25 +4199,22 @@
       <c r="G102" t="b">
         <v>1</v>
       </c>
-      <c r="I102">
-        <v>4</v>
+      <c r="H102">
+        <v>4</v>
+      </c>
+      <c r="I102" t="b">
+        <v>1</v>
       </c>
       <c r="J102" t="b">
         <v>1</v>
       </c>
-      <c r="L102" t="b">
-        <v>1</v>
-      </c>
-      <c r="M102" t="b">
-        <v>1</v>
-      </c>
-      <c r="N102" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B103">
         <v>10</v>
@@ -4578,25 +4235,22 @@
       <c r="G103" t="b">
         <v>1</v>
       </c>
-      <c r="I103">
-        <v>4</v>
+      <c r="H103">
+        <v>4</v>
+      </c>
+      <c r="I103" t="b">
+        <v>1</v>
       </c>
       <c r="J103" t="b">
         <v>1</v>
       </c>
-      <c r="L103" t="b">
-        <v>1</v>
-      </c>
-      <c r="M103" t="b">
-        <v>1</v>
-      </c>
-      <c r="N103" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B104">
         <v>10</v>
@@ -4617,25 +4271,22 @@
       <c r="G104" t="b">
         <v>1</v>
       </c>
-      <c r="I104">
-        <v>4</v>
+      <c r="H104">
+        <v>4</v>
+      </c>
+      <c r="I104" t="b">
+        <v>1</v>
       </c>
       <c r="J104" t="b">
         <v>1</v>
       </c>
-      <c r="L104" t="b">
-        <v>1</v>
-      </c>
-      <c r="M104" t="b">
-        <v>1</v>
-      </c>
-      <c r="N104" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B105">
         <v>10</v>
@@ -4656,25 +4307,22 @@
       <c r="G105" t="b">
         <v>1</v>
       </c>
-      <c r="I105">
-        <v>4</v>
+      <c r="H105">
+        <v>4</v>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
       </c>
       <c r="J105" t="b">
         <v>1</v>
       </c>
-      <c r="L105" t="b">
-        <v>1</v>
-      </c>
-      <c r="M105" t="b">
-        <v>1</v>
-      </c>
-      <c r="N105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B106">
         <v>10</v>
@@ -4695,25 +4343,22 @@
       <c r="G106" t="b">
         <v>1</v>
       </c>
-      <c r="I106">
-        <v>4</v>
+      <c r="H106">
+        <v>4</v>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
       </c>
       <c r="J106" t="b">
         <v>1</v>
       </c>
-      <c r="L106" t="b">
-        <v>1</v>
-      </c>
-      <c r="M106" t="b">
-        <v>1</v>
-      </c>
-      <c r="N106" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B107">
         <v>10</v>
@@ -4734,25 +4379,22 @@
       <c r="G107" t="b">
         <v>1</v>
       </c>
-      <c r="I107">
-        <v>4</v>
+      <c r="H107">
+        <v>4</v>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
       </c>
       <c r="J107" t="b">
         <v>1</v>
       </c>
-      <c r="L107" t="b">
-        <v>1</v>
-      </c>
-      <c r="M107" t="b">
-        <v>1</v>
-      </c>
-      <c r="N107" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B108">
         <v>10</v>
@@ -4773,25 +4415,22 @@
       <c r="G108" t="b">
         <v>1</v>
       </c>
-      <c r="I108">
-        <v>4</v>
+      <c r="H108">
+        <v>4</v>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
       </c>
       <c r="J108" t="b">
         <v>1</v>
       </c>
-      <c r="L108" t="b">
-        <v>1</v>
-      </c>
-      <c r="M108" t="b">
-        <v>1</v>
-      </c>
-      <c r="N108" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B109">
         <v>10</v>
@@ -4812,25 +4451,22 @@
       <c r="G109" t="b">
         <v>1</v>
       </c>
-      <c r="I109">
-        <v>4</v>
+      <c r="H109">
+        <v>4</v>
+      </c>
+      <c r="I109" t="b">
+        <v>1</v>
       </c>
       <c r="J109" t="b">
         <v>1</v>
       </c>
-      <c r="L109" t="b">
-        <v>1</v>
-      </c>
-      <c r="M109" t="b">
-        <v>1</v>
-      </c>
-      <c r="N109" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B110">
         <v>10</v>
@@ -4850,25 +4486,22 @@
       <c r="G110" t="b">
         <v>1</v>
       </c>
-      <c r="I110">
-        <v>4</v>
+      <c r="H110">
+        <v>4</v>
+      </c>
+      <c r="I110" t="b">
+        <v>1</v>
       </c>
       <c r="J110" t="b">
         <v>1</v>
       </c>
-      <c r="L110" t="b">
-        <v>1</v>
-      </c>
-      <c r="M110" t="b">
-        <v>1</v>
-      </c>
-      <c r="N110" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B111">
         <v>10</v>
@@ -4888,25 +4521,22 @@
       <c r="G111" t="b">
         <v>1</v>
       </c>
-      <c r="I111">
-        <v>4</v>
+      <c r="H111">
+        <v>4</v>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
       </c>
       <c r="J111" t="b">
         <v>1</v>
       </c>
-      <c r="L111" t="b">
-        <v>1</v>
-      </c>
-      <c r="M111" t="b">
-        <v>1</v>
-      </c>
-      <c r="N111" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B112">
         <v>10</v>
@@ -4926,25 +4556,22 @@
       <c r="G112" t="b">
         <v>1</v>
       </c>
-      <c r="I112">
-        <v>4</v>
+      <c r="H112">
+        <v>4</v>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
       </c>
       <c r="J112" t="b">
         <v>1</v>
       </c>
-      <c r="L112" t="b">
-        <v>1</v>
-      </c>
-      <c r="M112" t="b">
-        <v>1</v>
-      </c>
-      <c r="N112" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B113">
         <v>10</v>
@@ -4964,25 +4591,22 @@
       <c r="G113" t="b">
         <v>1</v>
       </c>
-      <c r="I113">
-        <v>4</v>
+      <c r="H113">
+        <v>4</v>
+      </c>
+      <c r="I113" t="b">
+        <v>1</v>
       </c>
       <c r="J113" t="b">
         <v>1</v>
       </c>
-      <c r="L113" t="b">
-        <v>1</v>
-      </c>
-      <c r="M113" t="b">
-        <v>1</v>
-      </c>
-      <c r="N113" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B114">
         <v>10</v>
@@ -5002,25 +4626,22 @@
       <c r="G114" t="b">
         <v>1</v>
       </c>
-      <c r="I114">
-        <v>4</v>
+      <c r="H114">
+        <v>4</v>
+      </c>
+      <c r="I114" t="b">
+        <v>1</v>
       </c>
       <c r="J114" t="b">
         <v>1</v>
       </c>
-      <c r="L114" t="b">
-        <v>1</v>
-      </c>
-      <c r="M114" t="b">
-        <v>1</v>
-      </c>
-      <c r="N114" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B115">
         <v>10</v>
@@ -5040,25 +4661,22 @@
       <c r="G115" t="b">
         <v>1</v>
       </c>
-      <c r="I115">
-        <v>4</v>
+      <c r="H115">
+        <v>4</v>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
       </c>
       <c r="J115" t="b">
         <v>1</v>
       </c>
-      <c r="L115" t="b">
-        <v>1</v>
-      </c>
-      <c r="M115" t="b">
-        <v>1</v>
-      </c>
-      <c r="N115" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B116">
         <v>10</v>
@@ -5078,25 +4696,22 @@
       <c r="G116" t="b">
         <v>1</v>
       </c>
-      <c r="I116">
-        <v>4</v>
+      <c r="H116">
+        <v>4</v>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
       </c>
       <c r="J116" t="b">
         <v>1</v>
       </c>
-      <c r="L116" t="b">
-        <v>1</v>
-      </c>
-      <c r="M116" t="b">
-        <v>1</v>
-      </c>
-      <c r="N116" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B117">
         <v>10</v>
@@ -5116,25 +4731,22 @@
       <c r="G117" t="b">
         <v>1</v>
       </c>
-      <c r="I117">
-        <v>4</v>
+      <c r="H117">
+        <v>4</v>
+      </c>
+      <c r="I117" t="b">
+        <v>1</v>
       </c>
       <c r="J117" t="b">
         <v>1</v>
       </c>
-      <c r="L117" t="b">
-        <v>1</v>
-      </c>
-      <c r="M117" t="b">
-        <v>1</v>
-      </c>
-      <c r="N117" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B118">
         <v>10</v>
@@ -5154,25 +4766,22 @@
       <c r="G118" t="b">
         <v>1</v>
       </c>
-      <c r="I118">
-        <v>4</v>
+      <c r="H118">
+        <v>4</v>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
       </c>
       <c r="J118" t="b">
         <v>1</v>
       </c>
-      <c r="L118" t="b">
-        <v>1</v>
-      </c>
-      <c r="M118" t="b">
-        <v>1</v>
-      </c>
-      <c r="N118" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B119">
         <v>11</v>
@@ -5193,25 +4802,22 @@
       <c r="G119" t="b">
         <v>1</v>
       </c>
-      <c r="I119">
-        <v>4</v>
-      </c>
-      <c r="J119" t="s">
-        <v>54</v>
-      </c>
-      <c r="L119" t="b">
-        <v>1</v>
-      </c>
-      <c r="M119" t="b">
-        <v>1</v>
-      </c>
-      <c r="N119" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H119">
+        <v>4</v>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="b">
+        <v>1</v>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B120">
         <v>11</v>
@@ -5232,25 +4838,22 @@
       <c r="G120" t="b">
         <v>1</v>
       </c>
-      <c r="I120">
-        <v>4</v>
-      </c>
-      <c r="J120" t="s">
-        <v>54</v>
-      </c>
-      <c r="L120" t="b">
-        <v>1</v>
-      </c>
-      <c r="M120" t="b">
-        <v>1</v>
-      </c>
-      <c r="N120" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H120">
+        <v>4</v>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="b">
+        <v>1</v>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B121">
         <v>11</v>
@@ -5271,25 +4874,22 @@
       <c r="G121" t="b">
         <v>1</v>
       </c>
-      <c r="I121">
-        <v>4</v>
-      </c>
-      <c r="J121" t="s">
-        <v>54</v>
-      </c>
-      <c r="L121" t="b">
-        <v>1</v>
-      </c>
-      <c r="M121" t="b">
-        <v>1</v>
-      </c>
-      <c r="N121" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H121">
+        <v>4</v>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="b">
+        <v>1</v>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B122">
         <v>11</v>
@@ -5310,25 +4910,22 @@
       <c r="G122" t="b">
         <v>1</v>
       </c>
-      <c r="I122">
-        <v>4</v>
-      </c>
-      <c r="J122" t="s">
-        <v>54</v>
-      </c>
-      <c r="L122" t="b">
-        <v>1</v>
-      </c>
-      <c r="M122" t="b">
-        <v>1</v>
-      </c>
-      <c r="N122" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H122">
+        <v>4</v>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="b">
+        <v>1</v>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B123">
         <v>11</v>
@@ -5349,25 +4946,22 @@
       <c r="G123" t="b">
         <v>1</v>
       </c>
-      <c r="I123">
-        <v>4</v>
-      </c>
-      <c r="J123" t="s">
-        <v>54</v>
-      </c>
-      <c r="L123" t="b">
-        <v>1</v>
-      </c>
-      <c r="M123" t="b">
-        <v>1</v>
-      </c>
-      <c r="N123" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H123">
+        <v>4</v>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="b">
+        <v>1</v>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B124">
         <v>11</v>
@@ -5388,25 +4982,22 @@
       <c r="G124" t="b">
         <v>1</v>
       </c>
-      <c r="I124">
-        <v>4</v>
-      </c>
-      <c r="J124" t="s">
-        <v>54</v>
-      </c>
-      <c r="L124" t="b">
-        <v>1</v>
-      </c>
-      <c r="M124" t="b">
-        <v>1</v>
-      </c>
-      <c r="N124" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H124">
+        <v>4</v>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="b">
+        <v>1</v>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B125">
         <v>11</v>
@@ -5427,25 +5018,22 @@
       <c r="G125" t="b">
         <v>1</v>
       </c>
-      <c r="I125">
-        <v>4</v>
-      </c>
-      <c r="J125" t="s">
-        <v>54</v>
-      </c>
-      <c r="L125" t="b">
-        <v>1</v>
-      </c>
-      <c r="M125" t="b">
-        <v>1</v>
-      </c>
-      <c r="N125" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H125">
+        <v>4</v>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="b">
+        <v>1</v>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B126">
         <v>11</v>
@@ -5466,25 +5054,22 @@
       <c r="G126" t="b">
         <v>1</v>
       </c>
-      <c r="I126">
-        <v>4</v>
-      </c>
-      <c r="J126" t="s">
-        <v>54</v>
-      </c>
-      <c r="L126" t="b">
-        <v>1</v>
-      </c>
-      <c r="M126" t="b">
-        <v>1</v>
-      </c>
-      <c r="N126" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H126">
+        <v>4</v>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="b">
+        <v>1</v>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B127">
         <v>11</v>
@@ -5505,25 +5090,22 @@
       <c r="G127" t="b">
         <v>1</v>
       </c>
-      <c r="I127">
-        <v>4</v>
-      </c>
-      <c r="J127" t="s">
-        <v>54</v>
-      </c>
-      <c r="L127" t="b">
-        <v>1</v>
-      </c>
-      <c r="M127" t="b">
-        <v>1</v>
-      </c>
-      <c r="N127" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H127">
+        <v>4</v>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="b">
+        <v>1</v>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B128">
         <v>12</v>
@@ -5544,25 +5126,22 @@
       <c r="G128" t="b">
         <v>1</v>
       </c>
-      <c r="I128">
-        <v>4</v>
-      </c>
-      <c r="J128" t="s">
-        <v>54</v>
-      </c>
-      <c r="L128" t="b">
-        <v>1</v>
-      </c>
-      <c r="M128" t="b">
-        <v>1</v>
-      </c>
-      <c r="N128" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H128">
+        <v>4</v>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="b">
+        <v>1</v>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B129">
         <v>12</v>
@@ -5583,25 +5162,22 @@
       <c r="G129" t="b">
         <v>1</v>
       </c>
-      <c r="I129">
-        <v>4</v>
-      </c>
-      <c r="J129" t="s">
-        <v>54</v>
-      </c>
-      <c r="L129" t="b">
-        <v>1</v>
-      </c>
-      <c r="M129" t="b">
-        <v>1</v>
-      </c>
-      <c r="N129" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H129">
+        <v>4</v>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="b">
+        <v>1</v>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B130">
         <v>12</v>
@@ -5622,25 +5198,22 @@
       <c r="G130" t="b">
         <v>1</v>
       </c>
-      <c r="I130">
-        <v>4</v>
-      </c>
-      <c r="J130" t="s">
-        <v>54</v>
-      </c>
-      <c r="L130" t="b">
-        <v>1</v>
-      </c>
-      <c r="M130" t="b">
-        <v>1</v>
-      </c>
-      <c r="N130" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H130">
+        <v>4</v>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="b">
+        <v>1</v>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B131">
         <v>12</v>
@@ -5661,25 +5234,22 @@
       <c r="G131" t="b">
         <v>1</v>
       </c>
-      <c r="I131">
-        <v>4</v>
-      </c>
-      <c r="J131" t="s">
-        <v>54</v>
-      </c>
-      <c r="L131" t="b">
-        <v>1</v>
-      </c>
-      <c r="M131" t="b">
-        <v>1</v>
-      </c>
-      <c r="N131" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H131">
+        <v>4</v>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="b">
+        <v>1</v>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B132">
         <v>12</v>
@@ -5700,25 +5270,22 @@
       <c r="G132" t="b">
         <v>1</v>
       </c>
-      <c r="I132">
-        <v>4</v>
-      </c>
-      <c r="J132" t="s">
-        <v>54</v>
-      </c>
-      <c r="L132" t="b">
-        <v>1</v>
-      </c>
-      <c r="M132" t="b">
-        <v>1</v>
-      </c>
-      <c r="N132" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H132">
+        <v>4</v>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="b">
+        <v>1</v>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B133">
         <v>12</v>
@@ -5739,25 +5306,22 @@
       <c r="G133" t="b">
         <v>1</v>
       </c>
-      <c r="I133">
-        <v>4</v>
-      </c>
-      <c r="J133" t="s">
-        <v>54</v>
-      </c>
-      <c r="L133" t="b">
-        <v>1</v>
-      </c>
-      <c r="M133" t="b">
-        <v>1</v>
-      </c>
-      <c r="N133" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H133">
+        <v>4</v>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="b">
+        <v>1</v>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B134">
         <v>12</v>
@@ -5778,25 +5342,22 @@
       <c r="G134" t="b">
         <v>1</v>
       </c>
-      <c r="I134">
-        <v>4</v>
-      </c>
-      <c r="J134" t="s">
-        <v>54</v>
-      </c>
-      <c r="L134" t="b">
-        <v>1</v>
-      </c>
-      <c r="M134" t="b">
-        <v>1</v>
-      </c>
-      <c r="N134" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H134">
+        <v>4</v>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="b">
+        <v>1</v>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B135">
         <v>12</v>
@@ -5817,25 +5378,22 @@
       <c r="G135" t="b">
         <v>1</v>
       </c>
-      <c r="I135">
-        <v>4</v>
-      </c>
-      <c r="J135" t="s">
-        <v>54</v>
-      </c>
-      <c r="L135" t="b">
-        <v>1</v>
-      </c>
-      <c r="M135" t="b">
-        <v>1</v>
-      </c>
-      <c r="N135" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H135">
+        <v>4</v>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="b">
+        <v>1</v>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B136">
         <v>12</v>
@@ -5856,25 +5414,22 @@
       <c r="G136" t="b">
         <v>1</v>
       </c>
-      <c r="I136">
-        <v>4</v>
-      </c>
-      <c r="J136" t="s">
-        <v>54</v>
-      </c>
-      <c r="L136" t="b">
-        <v>1</v>
-      </c>
-      <c r="M136" t="b">
-        <v>1</v>
-      </c>
-      <c r="N136" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H136">
+        <v>4</v>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="b">
+        <v>1</v>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B137">
         <v>13</v>
@@ -5895,25 +5450,22 @@
       <c r="G137" t="b">
         <v>1</v>
       </c>
-      <c r="I137">
-        <v>4</v>
+      <c r="H137">
+        <v>4</v>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
       </c>
       <c r="J137" t="b">
         <v>1</v>
       </c>
-      <c r="L137" t="b">
-        <v>1</v>
-      </c>
-      <c r="M137" t="b">
-        <v>1</v>
-      </c>
-      <c r="N137" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B138">
         <v>13</v>
@@ -5934,25 +5486,22 @@
       <c r="G138" t="b">
         <v>1</v>
       </c>
-      <c r="I138">
-        <v>4</v>
+      <c r="H138">
+        <v>4</v>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
       </c>
       <c r="J138" t="b">
         <v>1</v>
       </c>
-      <c r="L138" t="b">
-        <v>1</v>
-      </c>
-      <c r="M138" t="b">
-        <v>1</v>
-      </c>
-      <c r="N138" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B139">
         <v>13</v>
@@ -5973,25 +5522,22 @@
       <c r="G139" t="b">
         <v>1</v>
       </c>
-      <c r="I139">
-        <v>4</v>
+      <c r="H139">
+        <v>4</v>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
       </c>
       <c r="J139" t="b">
         <v>1</v>
       </c>
-      <c r="L139" t="b">
-        <v>1</v>
-      </c>
-      <c r="M139" t="b">
-        <v>1</v>
-      </c>
-      <c r="N139" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B140">
         <v>13</v>
@@ -6012,25 +5558,22 @@
       <c r="G140" t="b">
         <v>1</v>
       </c>
-      <c r="I140">
-        <v>4</v>
+      <c r="H140">
+        <v>4</v>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
       </c>
       <c r="J140" t="b">
         <v>1</v>
       </c>
-      <c r="L140" t="b">
-        <v>1</v>
-      </c>
-      <c r="M140" t="b">
-        <v>1</v>
-      </c>
-      <c r="N140" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B141">
         <v>13</v>
@@ -6051,25 +5594,22 @@
       <c r="G141" t="b">
         <v>1</v>
       </c>
-      <c r="I141">
-        <v>4</v>
+      <c r="H141">
+        <v>4</v>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
       </c>
       <c r="J141" t="b">
         <v>1</v>
       </c>
-      <c r="L141" t="b">
-        <v>1</v>
-      </c>
-      <c r="M141" t="b">
-        <v>1</v>
-      </c>
-      <c r="N141" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B142">
         <v>13</v>
@@ -6090,25 +5630,22 @@
       <c r="G142" t="b">
         <v>1</v>
       </c>
-      <c r="I142">
-        <v>4</v>
+      <c r="H142">
+        <v>4</v>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
       </c>
       <c r="J142" t="b">
         <v>1</v>
       </c>
-      <c r="L142" t="b">
-        <v>1</v>
-      </c>
-      <c r="M142" t="b">
-        <v>1</v>
-      </c>
-      <c r="N142" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B143">
         <v>13</v>
@@ -6129,25 +5666,22 @@
       <c r="G143" t="b">
         <v>1</v>
       </c>
-      <c r="I143">
-        <v>4</v>
+      <c r="H143">
+        <v>4</v>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
       </c>
       <c r="J143" t="b">
         <v>1</v>
       </c>
-      <c r="L143" t="b">
-        <v>1</v>
-      </c>
-      <c r="M143" t="b">
-        <v>1</v>
-      </c>
-      <c r="N143" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B144">
         <v>13</v>
@@ -6168,25 +5702,22 @@
       <c r="G144" t="b">
         <v>1</v>
       </c>
-      <c r="I144">
-        <v>4</v>
+      <c r="H144">
+        <v>4</v>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
       </c>
       <c r="J144" t="b">
         <v>1</v>
       </c>
-      <c r="L144" t="b">
-        <v>1</v>
-      </c>
-      <c r="M144" t="b">
-        <v>1</v>
-      </c>
-      <c r="N144" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B145">
         <v>13</v>
@@ -6207,25 +5738,22 @@
       <c r="G145" t="b">
         <v>1</v>
       </c>
-      <c r="I145">
-        <v>4</v>
+      <c r="H145">
+        <v>4</v>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
       </c>
       <c r="J145" t="b">
         <v>1</v>
       </c>
-      <c r="L145" t="b">
-        <v>1</v>
-      </c>
-      <c r="M145" t="b">
-        <v>1</v>
-      </c>
-      <c r="N145" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B146">
         <v>13</v>
@@ -6234,7 +5762,7 @@
         <v>33</v>
       </c>
       <c r="D146" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E146" t="s">
         <v>6</v>
@@ -6245,25 +5773,22 @@
       <c r="G146" t="b">
         <v>1</v>
       </c>
-      <c r="I146">
-        <v>4</v>
+      <c r="H146">
+        <v>4</v>
+      </c>
+      <c r="I146" t="b">
+        <v>1</v>
       </c>
       <c r="J146" t="b">
         <v>1</v>
       </c>
-      <c r="L146" t="b">
-        <v>1</v>
-      </c>
-      <c r="M146" t="b">
-        <v>1</v>
-      </c>
-      <c r="N146" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B147">
         <v>13</v>
@@ -6272,7 +5797,7 @@
         <v>33</v>
       </c>
       <c r="D147" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E147" t="s">
         <v>7</v>
@@ -6283,25 +5808,22 @@
       <c r="G147" t="b">
         <v>1</v>
       </c>
-      <c r="I147">
-        <v>4</v>
+      <c r="H147">
+        <v>4</v>
+      </c>
+      <c r="I147" t="b">
+        <v>1</v>
       </c>
       <c r="J147" t="b">
         <v>1</v>
       </c>
-      <c r="L147" t="b">
-        <v>1</v>
-      </c>
-      <c r="M147" t="b">
-        <v>1</v>
-      </c>
-      <c r="N147" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B148">
         <v>13</v>
@@ -6310,7 +5832,7 @@
         <v>33</v>
       </c>
       <c r="D148" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E148" t="s">
         <v>8</v>
@@ -6321,25 +5843,22 @@
       <c r="G148" t="b">
         <v>1</v>
       </c>
-      <c r="I148">
-        <v>4</v>
+      <c r="H148">
+        <v>4</v>
+      </c>
+      <c r="I148" t="b">
+        <v>1</v>
       </c>
       <c r="J148" t="b">
         <v>1</v>
       </c>
-      <c r="L148" t="b">
-        <v>1</v>
-      </c>
-      <c r="M148" t="b">
-        <v>1</v>
-      </c>
-      <c r="N148" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B149">
         <v>13</v>
@@ -6348,7 +5867,7 @@
         <v>33</v>
       </c>
       <c r="D149" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E149" t="s">
         <v>9</v>
@@ -6359,25 +5878,22 @@
       <c r="G149" t="b">
         <v>1</v>
       </c>
-      <c r="I149">
-        <v>4</v>
+      <c r="H149">
+        <v>4</v>
+      </c>
+      <c r="I149" t="b">
+        <v>1</v>
       </c>
       <c r="J149" t="b">
         <v>1</v>
       </c>
-      <c r="L149" t="b">
-        <v>1</v>
-      </c>
-      <c r="M149" t="b">
-        <v>1</v>
-      </c>
-      <c r="N149" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B150">
         <v>13</v>
@@ -6386,7 +5902,7 @@
         <v>33</v>
       </c>
       <c r="D150" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E150" t="s">
         <v>10</v>
@@ -6397,25 +5913,22 @@
       <c r="G150" t="b">
         <v>1</v>
       </c>
-      <c r="I150">
-        <v>4</v>
+      <c r="H150">
+        <v>4</v>
+      </c>
+      <c r="I150" t="b">
+        <v>1</v>
       </c>
       <c r="J150" t="b">
         <v>1</v>
       </c>
-      <c r="L150" t="b">
-        <v>1</v>
-      </c>
-      <c r="M150" t="b">
-        <v>1</v>
-      </c>
-      <c r="N150" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B151">
         <v>13</v>
@@ -6424,7 +5937,7 @@
         <v>33</v>
       </c>
       <c r="D151" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E151" t="s">
         <v>11</v>
@@ -6435,25 +5948,22 @@
       <c r="G151" t="b">
         <v>1</v>
       </c>
-      <c r="I151">
-        <v>4</v>
+      <c r="H151">
+        <v>4</v>
+      </c>
+      <c r="I151" t="b">
+        <v>1</v>
       </c>
       <c r="J151" t="b">
         <v>1</v>
       </c>
-      <c r="L151" t="b">
-        <v>1</v>
-      </c>
-      <c r="M151" t="b">
-        <v>1</v>
-      </c>
-      <c r="N151" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B152">
         <v>13</v>
@@ -6462,7 +5972,7 @@
         <v>33</v>
       </c>
       <c r="D152" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E152" t="s">
         <v>12</v>
@@ -6473,25 +5983,22 @@
       <c r="G152" t="b">
         <v>1</v>
       </c>
-      <c r="I152">
-        <v>4</v>
+      <c r="H152">
+        <v>4</v>
+      </c>
+      <c r="I152" t="b">
+        <v>1</v>
       </c>
       <c r="J152" t="b">
         <v>1</v>
       </c>
-      <c r="L152" t="b">
-        <v>1</v>
-      </c>
-      <c r="M152" t="b">
-        <v>1</v>
-      </c>
-      <c r="N152" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B153">
         <v>13</v>
@@ -6500,7 +6007,7 @@
         <v>33</v>
       </c>
       <c r="D153" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E153" t="s">
         <v>13</v>
@@ -6511,25 +6018,22 @@
       <c r="G153" t="b">
         <v>1</v>
       </c>
-      <c r="I153">
-        <v>4</v>
+      <c r="H153">
+        <v>4</v>
+      </c>
+      <c r="I153" t="b">
+        <v>1</v>
       </c>
       <c r="J153" t="b">
         <v>1</v>
       </c>
-      <c r="L153" t="b">
-        <v>1</v>
-      </c>
-      <c r="M153" t="b">
-        <v>1</v>
-      </c>
-      <c r="N153" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B154">
         <v>13</v>
@@ -6538,7 +6042,7 @@
         <v>33</v>
       </c>
       <c r="D154" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E154" t="s">
         <v>14</v>
@@ -6549,25 +6053,22 @@
       <c r="G154" t="b">
         <v>1</v>
       </c>
-      <c r="I154">
-        <v>4</v>
+      <c r="H154">
+        <v>4</v>
+      </c>
+      <c r="I154" t="b">
+        <v>1</v>
       </c>
       <c r="J154" t="b">
         <v>1</v>
       </c>
-      <c r="L154" t="b">
-        <v>1</v>
-      </c>
-      <c r="M154" t="b">
-        <v>1</v>
-      </c>
-      <c r="N154" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B155">
         <v>14</v>
@@ -6588,25 +6089,22 @@
       <c r="G155" t="b">
         <v>1</v>
       </c>
-      <c r="I155">
-        <v>4</v>
-      </c>
-      <c r="J155" t="s">
-        <v>54</v>
-      </c>
-      <c r="L155" t="b">
-        <v>1</v>
-      </c>
-      <c r="M155" t="b">
-        <v>1</v>
-      </c>
-      <c r="N155" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H155">
+        <v>4</v>
+      </c>
+      <c r="I155" t="b">
+        <v>1</v>
+      </c>
+      <c r="J155" t="b">
+        <v>1</v>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B156">
         <v>14</v>
@@ -6627,25 +6125,22 @@
       <c r="G156" t="b">
         <v>1</v>
       </c>
-      <c r="I156">
-        <v>4</v>
-      </c>
-      <c r="J156" t="s">
-        <v>54</v>
-      </c>
-      <c r="L156" t="b">
-        <v>1</v>
-      </c>
-      <c r="M156" t="b">
-        <v>1</v>
-      </c>
-      <c r="N156" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H156">
+        <v>4</v>
+      </c>
+      <c r="I156" t="b">
+        <v>1</v>
+      </c>
+      <c r="J156" t="b">
+        <v>1</v>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B157">
         <v>14</v>
@@ -6666,25 +6161,22 @@
       <c r="G157" t="b">
         <v>1</v>
       </c>
-      <c r="I157">
-        <v>4</v>
-      </c>
-      <c r="J157" t="s">
-        <v>54</v>
-      </c>
-      <c r="L157" t="b">
-        <v>1</v>
-      </c>
-      <c r="M157" t="b">
-        <v>1</v>
-      </c>
-      <c r="N157" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H157">
+        <v>4</v>
+      </c>
+      <c r="I157" t="b">
+        <v>1</v>
+      </c>
+      <c r="J157" t="b">
+        <v>1</v>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B158">
         <v>14</v>
@@ -6705,25 +6197,22 @@
       <c r="G158" t="b">
         <v>1</v>
       </c>
-      <c r="I158">
-        <v>4</v>
-      </c>
-      <c r="J158" t="s">
-        <v>54</v>
-      </c>
-      <c r="L158" t="b">
-        <v>1</v>
-      </c>
-      <c r="M158" t="b">
-        <v>1</v>
-      </c>
-      <c r="N158" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H158">
+        <v>4</v>
+      </c>
+      <c r="I158" t="b">
+        <v>1</v>
+      </c>
+      <c r="J158" t="b">
+        <v>1</v>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B159">
         <v>14</v>
@@ -6744,25 +6233,22 @@
       <c r="G159" t="b">
         <v>1</v>
       </c>
-      <c r="I159">
-        <v>4</v>
-      </c>
-      <c r="J159" t="s">
-        <v>54</v>
-      </c>
-      <c r="L159" t="b">
-        <v>1</v>
-      </c>
-      <c r="M159" t="b">
-        <v>1</v>
-      </c>
-      <c r="N159" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H159">
+        <v>4</v>
+      </c>
+      <c r="I159" t="b">
+        <v>1</v>
+      </c>
+      <c r="J159" t="b">
+        <v>1</v>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B160">
         <v>14</v>
@@ -6783,25 +6269,22 @@
       <c r="G160" t="b">
         <v>1</v>
       </c>
-      <c r="I160">
-        <v>4</v>
-      </c>
-      <c r="J160" t="s">
-        <v>54</v>
-      </c>
-      <c r="L160" t="b">
-        <v>1</v>
-      </c>
-      <c r="M160" t="b">
-        <v>1</v>
-      </c>
-      <c r="N160" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H160">
+        <v>4</v>
+      </c>
+      <c r="I160" t="b">
+        <v>1</v>
+      </c>
+      <c r="J160" t="b">
+        <v>1</v>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B161">
         <v>14</v>
@@ -6822,25 +6305,22 @@
       <c r="G161" t="b">
         <v>1</v>
       </c>
-      <c r="I161">
-        <v>4</v>
-      </c>
-      <c r="J161" t="s">
-        <v>54</v>
-      </c>
-      <c r="L161" t="b">
-        <v>1</v>
-      </c>
-      <c r="M161" t="b">
-        <v>1</v>
-      </c>
-      <c r="N161" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H161">
+        <v>4</v>
+      </c>
+      <c r="I161" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161" t="b">
+        <v>1</v>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B162">
         <v>14</v>
@@ -6861,25 +6341,22 @@
       <c r="G162" t="b">
         <v>1</v>
       </c>
-      <c r="I162">
-        <v>4</v>
-      </c>
-      <c r="J162" t="s">
-        <v>54</v>
-      </c>
-      <c r="L162" t="b">
-        <v>1</v>
-      </c>
-      <c r="M162" t="b">
-        <v>1</v>
-      </c>
-      <c r="N162" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H162">
+        <v>4</v>
+      </c>
+      <c r="I162" t="b">
+        <v>1</v>
+      </c>
+      <c r="J162" t="b">
+        <v>1</v>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B163">
         <v>14</v>
@@ -6900,25 +6377,22 @@
       <c r="G163" t="b">
         <v>1</v>
       </c>
-      <c r="I163">
-        <v>4</v>
-      </c>
-      <c r="J163" t="s">
-        <v>54</v>
-      </c>
-      <c r="L163" t="b">
-        <v>1</v>
-      </c>
-      <c r="M163" t="b">
-        <v>1</v>
-      </c>
-      <c r="N163" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H163">
+        <v>4</v>
+      </c>
+      <c r="I163" t="b">
+        <v>1</v>
+      </c>
+      <c r="J163" t="b">
+        <v>1</v>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B164">
         <v>15</v>
@@ -6939,25 +6413,22 @@
       <c r="G164" t="b">
         <v>1</v>
       </c>
-      <c r="I164">
-        <v>4</v>
+      <c r="H164">
+        <v>4</v>
+      </c>
+      <c r="I164" t="b">
+        <v>1</v>
       </c>
       <c r="J164" t="b">
         <v>1</v>
       </c>
-      <c r="L164" t="b">
-        <v>1</v>
-      </c>
-      <c r="M164" t="b">
-        <v>1</v>
-      </c>
-      <c r="N164" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B165">
         <v>15</v>
@@ -6981,8 +6452,8 @@
       <c r="H165">
         <v>4</v>
       </c>
-      <c r="I165">
-        <v>4</v>
+      <c r="I165" t="b">
+        <v>1</v>
       </c>
       <c r="J165" t="b">
         <v>1</v>
@@ -6990,19 +6461,10 @@
       <c r="K165" t="b">
         <v>1</v>
       </c>
-      <c r="L165" t="b">
-        <v>1</v>
-      </c>
-      <c r="M165" t="b">
-        <v>1</v>
-      </c>
-      <c r="N165" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B166">
         <v>15</v>
@@ -7023,25 +6485,22 @@
       <c r="G166" t="b">
         <v>1</v>
       </c>
-      <c r="I166">
-        <v>4</v>
+      <c r="H166">
+        <v>4</v>
+      </c>
+      <c r="I166" t="b">
+        <v>1</v>
       </c>
       <c r="J166" t="b">
         <v>1</v>
       </c>
-      <c r="L166" t="b">
-        <v>1</v>
-      </c>
-      <c r="M166" t="b">
-        <v>1</v>
-      </c>
-      <c r="N166" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B167">
         <v>15</v>
@@ -7062,25 +6521,22 @@
       <c r="G167" t="b">
         <v>1</v>
       </c>
-      <c r="I167">
-        <v>4</v>
+      <c r="H167">
+        <v>4</v>
+      </c>
+      <c r="I167" t="b">
+        <v>1</v>
       </c>
       <c r="J167" t="b">
         <v>1</v>
       </c>
-      <c r="L167" t="b">
-        <v>1</v>
-      </c>
-      <c r="M167" t="b">
-        <v>1</v>
-      </c>
-      <c r="N167" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K167" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B168">
         <v>15</v>
@@ -7101,25 +6557,22 @@
       <c r="G168" t="b">
         <v>1</v>
       </c>
-      <c r="I168">
-        <v>4</v>
+      <c r="H168">
+        <v>4</v>
+      </c>
+      <c r="I168" t="b">
+        <v>1</v>
       </c>
       <c r="J168" t="b">
         <v>1</v>
       </c>
-      <c r="L168" t="b">
-        <v>1</v>
-      </c>
-      <c r="M168" t="b">
-        <v>1</v>
-      </c>
-      <c r="N168" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B169">
         <v>15</v>
@@ -7140,25 +6593,22 @@
       <c r="G169" t="b">
         <v>1</v>
       </c>
-      <c r="I169">
-        <v>4</v>
+      <c r="H169">
+        <v>4</v>
+      </c>
+      <c r="I169" t="b">
+        <v>1</v>
       </c>
       <c r="J169" t="b">
         <v>1</v>
       </c>
-      <c r="L169" t="b">
-        <v>1</v>
-      </c>
-      <c r="M169" t="b">
-        <v>1</v>
-      </c>
-      <c r="N169" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B170">
         <v>15</v>
@@ -7179,25 +6629,22 @@
       <c r="G170" t="b">
         <v>1</v>
       </c>
-      <c r="I170">
-        <v>4</v>
+      <c r="H170">
+        <v>4</v>
+      </c>
+      <c r="I170" t="b">
+        <v>1</v>
       </c>
       <c r="J170" t="b">
         <v>1</v>
       </c>
-      <c r="L170" t="b">
-        <v>1</v>
-      </c>
-      <c r="M170" t="b">
-        <v>1</v>
-      </c>
-      <c r="N170" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B171">
         <v>15</v>
@@ -7218,25 +6665,22 @@
       <c r="G171" t="b">
         <v>1</v>
       </c>
-      <c r="I171">
-        <v>4</v>
+      <c r="H171">
+        <v>4</v>
+      </c>
+      <c r="I171" t="b">
+        <v>1</v>
       </c>
       <c r="J171" t="b">
         <v>1</v>
       </c>
-      <c r="L171" t="b">
-        <v>1</v>
-      </c>
-      <c r="M171" t="b">
-        <v>1</v>
-      </c>
-      <c r="N171" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B172">
         <v>15</v>
@@ -7257,25 +6701,22 @@
       <c r="G172" t="b">
         <v>1</v>
       </c>
-      <c r="I172">
-        <v>4</v>
+      <c r="H172">
+        <v>4</v>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
       </c>
       <c r="J172" t="b">
         <v>1</v>
       </c>
-      <c r="L172" t="b">
-        <v>1</v>
-      </c>
-      <c r="M172" t="b">
-        <v>1</v>
-      </c>
-      <c r="N172" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B173">
         <v>19</v>
@@ -7284,7 +6725,7 @@
         <v>29</v>
       </c>
       <c r="D173" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E173" t="s">
         <v>6</v>
@@ -7295,25 +6736,22 @@
       <c r="G173" t="b">
         <v>1</v>
       </c>
-      <c r="I173">
-        <v>4</v>
+      <c r="H173">
+        <v>4</v>
+      </c>
+      <c r="I173" t="b">
+        <v>1</v>
       </c>
       <c r="J173" t="b">
         <v>1</v>
       </c>
-      <c r="L173" t="b">
-        <v>1</v>
-      </c>
-      <c r="M173" t="b">
-        <v>1</v>
-      </c>
-      <c r="N173" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B174">
         <v>19</v>
@@ -7322,7 +6760,7 @@
         <v>29</v>
       </c>
       <c r="D174" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E174" t="s">
         <v>7</v>
@@ -7333,25 +6771,22 @@
       <c r="G174" t="b">
         <v>1</v>
       </c>
-      <c r="I174">
-        <v>4</v>
+      <c r="H174">
+        <v>4</v>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
       </c>
       <c r="J174" t="b">
         <v>1</v>
       </c>
-      <c r="L174" t="b">
-        <v>1</v>
-      </c>
-      <c r="M174" t="b">
-        <v>1</v>
-      </c>
-      <c r="N174" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B175">
         <v>19</v>
@@ -7360,7 +6795,7 @@
         <v>29</v>
       </c>
       <c r="D175" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E175" t="s">
         <v>8</v>
@@ -7371,25 +6806,22 @@
       <c r="G175" t="b">
         <v>1</v>
       </c>
-      <c r="I175">
-        <v>4</v>
+      <c r="H175">
+        <v>4</v>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
       </c>
       <c r="J175" t="b">
         <v>1</v>
       </c>
-      <c r="L175" t="b">
-        <v>1</v>
-      </c>
-      <c r="M175" t="b">
-        <v>1</v>
-      </c>
-      <c r="N175" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B176">
         <v>19</v>
@@ -7398,7 +6830,7 @@
         <v>29</v>
       </c>
       <c r="D176" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E176" t="s">
         <v>9</v>
@@ -7409,25 +6841,22 @@
       <c r="G176" t="b">
         <v>1</v>
       </c>
-      <c r="I176">
-        <v>4</v>
+      <c r="H176">
+        <v>4</v>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
       </c>
       <c r="J176" t="b">
         <v>1</v>
       </c>
-      <c r="L176" t="b">
-        <v>1</v>
-      </c>
-      <c r="M176" t="b">
-        <v>1</v>
-      </c>
-      <c r="N176" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B177">
         <v>19</v>
@@ -7436,7 +6865,7 @@
         <v>29</v>
       </c>
       <c r="D177" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E177" t="s">
         <v>10</v>
@@ -7447,25 +6876,22 @@
       <c r="G177" t="b">
         <v>1</v>
       </c>
-      <c r="I177">
-        <v>4</v>
+      <c r="H177">
+        <v>4</v>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
       </c>
       <c r="J177" t="b">
         <v>1</v>
       </c>
-      <c r="L177" t="b">
-        <v>1</v>
-      </c>
-      <c r="M177" t="b">
-        <v>1</v>
-      </c>
-      <c r="N177" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B178">
         <v>19</v>
@@ -7474,7 +6900,7 @@
         <v>29</v>
       </c>
       <c r="D178" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E178" t="s">
         <v>11</v>
@@ -7485,25 +6911,22 @@
       <c r="G178" t="b">
         <v>1</v>
       </c>
-      <c r="I178">
-        <v>4</v>
+      <c r="H178">
+        <v>4</v>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
       </c>
       <c r="J178" t="b">
         <v>1</v>
       </c>
-      <c r="L178" t="b">
-        <v>1</v>
-      </c>
-      <c r="M178" t="b">
-        <v>1</v>
-      </c>
-      <c r="N178" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B179">
         <v>19</v>
@@ -7512,7 +6935,7 @@
         <v>29</v>
       </c>
       <c r="D179" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E179" t="s">
         <v>12</v>
@@ -7523,25 +6946,22 @@
       <c r="G179" t="b">
         <v>1</v>
       </c>
-      <c r="I179">
-        <v>4</v>
+      <c r="H179">
+        <v>4</v>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
       </c>
       <c r="J179" t="b">
         <v>1</v>
       </c>
-      <c r="L179" t="b">
-        <v>1</v>
-      </c>
-      <c r="M179" t="b">
-        <v>1</v>
-      </c>
-      <c r="N179" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B180">
         <v>19</v>
@@ -7550,7 +6970,7 @@
         <v>29</v>
       </c>
       <c r="D180" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E180" t="s">
         <v>13</v>
@@ -7561,25 +6981,22 @@
       <c r="G180" t="b">
         <v>1</v>
       </c>
-      <c r="I180">
-        <v>4</v>
+      <c r="H180">
+        <v>4</v>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
       </c>
       <c r="J180" t="b">
         <v>1</v>
       </c>
-      <c r="L180" t="b">
-        <v>1</v>
-      </c>
-      <c r="M180" t="b">
-        <v>1</v>
-      </c>
-      <c r="N180" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B181">
         <v>19</v>
@@ -7588,7 +7005,7 @@
         <v>29</v>
       </c>
       <c r="D181" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E181" t="s">
         <v>14</v>
@@ -7599,25 +7016,22 @@
       <c r="G181" t="b">
         <v>1</v>
       </c>
-      <c r="I181">
-        <v>4</v>
+      <c r="H181">
+        <v>4</v>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
       </c>
       <c r="J181" t="b">
         <v>1</v>
       </c>
-      <c r="L181" t="b">
-        <v>1</v>
-      </c>
-      <c r="M181" t="b">
-        <v>1</v>
-      </c>
-      <c r="N181" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B182">
         <v>21</v>
@@ -7626,7 +7040,7 @@
         <v>31</v>
       </c>
       <c r="D182" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E182" t="s">
         <v>6</v>
@@ -7637,25 +7051,22 @@
       <c r="G182" t="b">
         <v>1</v>
       </c>
-      <c r="I182">
-        <v>4</v>
+      <c r="H182">
+        <v>4</v>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
       </c>
       <c r="J182" t="b">
         <v>1</v>
       </c>
-      <c r="L182" t="b">
-        <v>1</v>
-      </c>
-      <c r="M182" t="b">
-        <v>1</v>
-      </c>
-      <c r="N182" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B183">
         <v>21</v>
@@ -7664,7 +7075,7 @@
         <v>31</v>
       </c>
       <c r="D183" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E183" t="s">
         <v>7</v>
@@ -7675,25 +7086,22 @@
       <c r="G183" t="b">
         <v>1</v>
       </c>
-      <c r="I183">
-        <v>4</v>
+      <c r="H183">
+        <v>4</v>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
       </c>
       <c r="J183" t="b">
         <v>1</v>
       </c>
-      <c r="L183" t="b">
-        <v>1</v>
-      </c>
-      <c r="M183" t="b">
-        <v>1</v>
-      </c>
-      <c r="N183" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B184">
         <v>21</v>
@@ -7702,7 +7110,7 @@
         <v>31</v>
       </c>
       <c r="D184" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E184" t="s">
         <v>8</v>
@@ -7713,25 +7121,22 @@
       <c r="G184" t="b">
         <v>1</v>
       </c>
-      <c r="I184">
-        <v>4</v>
+      <c r="H184">
+        <v>4</v>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
       </c>
       <c r="J184" t="b">
         <v>1</v>
       </c>
-      <c r="L184" t="b">
-        <v>1</v>
-      </c>
-      <c r="M184" t="b">
-        <v>1</v>
-      </c>
-      <c r="N184" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B185">
         <v>21</v>
@@ -7740,7 +7145,7 @@
         <v>31</v>
       </c>
       <c r="D185" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E185" t="s">
         <v>9</v>
@@ -7751,25 +7156,22 @@
       <c r="G185" t="b">
         <v>1</v>
       </c>
-      <c r="I185">
-        <v>4</v>
+      <c r="H185">
+        <v>4</v>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
       </c>
       <c r="J185" t="b">
         <v>1</v>
       </c>
-      <c r="L185" t="b">
-        <v>1</v>
-      </c>
-      <c r="M185" t="b">
-        <v>1</v>
-      </c>
-      <c r="N185" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B186">
         <v>21</v>
@@ -7778,7 +7180,7 @@
         <v>31</v>
       </c>
       <c r="D186" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E186" t="s">
         <v>10</v>
@@ -7789,25 +7191,22 @@
       <c r="G186" t="b">
         <v>1</v>
       </c>
-      <c r="I186">
-        <v>4</v>
+      <c r="H186">
+        <v>4</v>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
       </c>
       <c r="J186" t="b">
         <v>1</v>
       </c>
-      <c r="L186" t="b">
-        <v>1</v>
-      </c>
-      <c r="M186" t="b">
-        <v>1</v>
-      </c>
-      <c r="N186" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B187">
         <v>21</v>
@@ -7816,7 +7215,7 @@
         <v>31</v>
       </c>
       <c r="D187" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E187" t="s">
         <v>11</v>
@@ -7830,7 +7229,7 @@
       <c r="H187">
         <v>0</v>
       </c>
-      <c r="I187">
+      <c r="I187" t="b">
         <v>0</v>
       </c>
       <c r="J187" t="b">
@@ -7839,22 +7238,13 @@
       <c r="K187" t="b">
         <v>0</v>
       </c>
-      <c r="L187" t="b">
-        <v>0</v>
-      </c>
-      <c r="M187" t="b">
-        <v>0</v>
-      </c>
-      <c r="N187" t="b">
-        <v>0</v>
-      </c>
-      <c r="O187" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L187" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B188">
         <v>21</v>
@@ -7863,7 +7253,7 @@
         <v>31</v>
       </c>
       <c r="D188" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E188" t="s">
         <v>12</v>
@@ -7874,25 +7264,22 @@
       <c r="G188" t="b">
         <v>1</v>
       </c>
-      <c r="I188">
-        <v>4</v>
+      <c r="H188">
+        <v>4</v>
+      </c>
+      <c r="I188" t="b">
+        <v>1</v>
       </c>
       <c r="J188" t="b">
         <v>1</v>
       </c>
-      <c r="L188" t="b">
-        <v>1</v>
-      </c>
-      <c r="M188" t="b">
-        <v>1</v>
-      </c>
-      <c r="N188" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B189">
         <v>21</v>
@@ -7901,7 +7288,7 @@
         <v>31</v>
       </c>
       <c r="D189" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E189" t="s">
         <v>13</v>
@@ -7912,25 +7299,22 @@
       <c r="G189" t="b">
         <v>1</v>
       </c>
-      <c r="I189">
-        <v>4</v>
+      <c r="H189">
+        <v>4</v>
+      </c>
+      <c r="I189" t="b">
+        <v>1</v>
       </c>
       <c r="J189" t="b">
         <v>1</v>
       </c>
-      <c r="L189" t="b">
-        <v>1</v>
-      </c>
-      <c r="M189" t="b">
-        <v>1</v>
-      </c>
-      <c r="N189" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K189" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B190">
         <v>21</v>
@@ -7939,7 +7323,7 @@
         <v>31</v>
       </c>
       <c r="D190" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E190" t="s">
         <v>14</v>
@@ -7950,25 +7334,22 @@
       <c r="G190" t="b">
         <v>1</v>
       </c>
-      <c r="I190">
-        <v>4</v>
+      <c r="H190">
+        <v>4</v>
+      </c>
+      <c r="I190" t="b">
+        <v>1</v>
       </c>
       <c r="J190" t="b">
         <v>1</v>
       </c>
-      <c r="L190" t="b">
-        <v>1</v>
-      </c>
-      <c r="M190" t="b">
-        <v>1</v>
-      </c>
-      <c r="N190" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K190" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B191">
         <v>25</v>
@@ -7977,7 +7358,7 @@
         <v>35</v>
       </c>
       <c r="D191" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E191" t="s">
         <v>6</v>
@@ -7988,25 +7369,22 @@
       <c r="G191" t="b">
         <v>1</v>
       </c>
-      <c r="I191">
-        <v>4</v>
+      <c r="H191">
+        <v>4</v>
+      </c>
+      <c r="I191" t="b">
+        <v>1</v>
       </c>
       <c r="J191" t="b">
         <v>1</v>
       </c>
-      <c r="L191" t="b">
-        <v>1</v>
-      </c>
-      <c r="M191" t="b">
-        <v>1</v>
-      </c>
-      <c r="N191" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K191" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B192">
         <v>25</v>
@@ -8015,7 +7393,7 @@
         <v>35</v>
       </c>
       <c r="D192" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E192" t="s">
         <v>7</v>
@@ -8026,25 +7404,22 @@
       <c r="G192" t="b">
         <v>1</v>
       </c>
-      <c r="I192">
-        <v>4</v>
+      <c r="H192">
+        <v>4</v>
+      </c>
+      <c r="I192" t="b">
+        <v>1</v>
       </c>
       <c r="J192" t="b">
         <v>1</v>
       </c>
-      <c r="L192" t="b">
-        <v>1</v>
-      </c>
-      <c r="M192" t="b">
-        <v>1</v>
-      </c>
-      <c r="N192" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K192" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B193">
         <v>25</v>
@@ -8053,7 +7428,7 @@
         <v>35</v>
       </c>
       <c r="D193" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E193" t="s">
         <v>8</v>
@@ -8064,25 +7439,22 @@
       <c r="G193" t="b">
         <v>1</v>
       </c>
-      <c r="I193">
-        <v>4</v>
+      <c r="H193">
+        <v>4</v>
+      </c>
+      <c r="I193" t="b">
+        <v>1</v>
       </c>
       <c r="J193" t="b">
         <v>1</v>
       </c>
-      <c r="L193" t="b">
-        <v>1</v>
-      </c>
-      <c r="M193" t="b">
-        <v>1</v>
-      </c>
-      <c r="N193" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K193" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B194">
         <v>25</v>
@@ -8091,7 +7463,7 @@
         <v>35</v>
       </c>
       <c r="D194" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E194" t="s">
         <v>9</v>
@@ -8102,25 +7474,22 @@
       <c r="G194" t="b">
         <v>1</v>
       </c>
-      <c r="I194">
-        <v>4</v>
+      <c r="H194">
+        <v>4</v>
+      </c>
+      <c r="I194" t="b">
+        <v>1</v>
       </c>
       <c r="J194" t="b">
         <v>1</v>
       </c>
-      <c r="L194" t="b">
-        <v>1</v>
-      </c>
-      <c r="M194" t="b">
-        <v>1</v>
-      </c>
-      <c r="N194" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K194" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B195">
         <v>25</v>
@@ -8129,7 +7498,7 @@
         <v>35</v>
       </c>
       <c r="D195" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E195" t="s">
         <v>10</v>
@@ -8140,25 +7509,22 @@
       <c r="G195" t="b">
         <v>1</v>
       </c>
-      <c r="I195">
-        <v>4</v>
+      <c r="H195">
+        <v>4</v>
+      </c>
+      <c r="I195" t="b">
+        <v>1</v>
       </c>
       <c r="J195" t="b">
         <v>1</v>
       </c>
-      <c r="L195" t="b">
-        <v>1</v>
-      </c>
-      <c r="M195" t="b">
-        <v>1</v>
-      </c>
-      <c r="N195" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K195" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B196">
         <v>25</v>
@@ -8167,7 +7533,7 @@
         <v>35</v>
       </c>
       <c r="D196" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E196" t="s">
         <v>11</v>
@@ -8178,25 +7544,22 @@
       <c r="G196" t="b">
         <v>1</v>
       </c>
-      <c r="I196">
-        <v>4</v>
+      <c r="H196">
+        <v>4</v>
+      </c>
+      <c r="I196" t="b">
+        <v>1</v>
       </c>
       <c r="J196" t="b">
         <v>1</v>
       </c>
-      <c r="L196" t="b">
-        <v>1</v>
-      </c>
-      <c r="M196" t="b">
-        <v>1</v>
-      </c>
-      <c r="N196" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K196" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B197">
         <v>25</v>
@@ -8205,7 +7568,7 @@
         <v>35</v>
       </c>
       <c r="D197" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E197" t="s">
         <v>12</v>
@@ -8216,25 +7579,22 @@
       <c r="G197" t="b">
         <v>1</v>
       </c>
-      <c r="I197">
-        <v>4</v>
+      <c r="H197">
+        <v>4</v>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
       </c>
       <c r="J197" t="b">
         <v>1</v>
       </c>
-      <c r="L197" t="b">
-        <v>1</v>
-      </c>
-      <c r="M197" t="b">
-        <v>1</v>
-      </c>
-      <c r="N197" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B198">
         <v>25</v>
@@ -8243,7 +7603,7 @@
         <v>35</v>
       </c>
       <c r="D198" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E198" t="s">
         <v>13</v>
@@ -8254,25 +7614,22 @@
       <c r="G198" t="b">
         <v>1</v>
       </c>
-      <c r="I198">
-        <v>4</v>
+      <c r="H198">
+        <v>4</v>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
       </c>
       <c r="J198" t="b">
         <v>1</v>
       </c>
-      <c r="L198" t="b">
-        <v>1</v>
-      </c>
-      <c r="M198" t="b">
-        <v>1</v>
-      </c>
-      <c r="N198" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B199">
         <v>25</v>
@@ -8281,7 +7638,7 @@
         <v>35</v>
       </c>
       <c r="D199" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E199" t="s">
         <v>14</v>
@@ -8292,25 +7649,22 @@
       <c r="G199" t="b">
         <v>1</v>
       </c>
-      <c r="I199">
-        <v>4</v>
+      <c r="H199">
+        <v>4</v>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
       </c>
       <c r="J199" t="b">
         <v>1</v>
       </c>
-      <c r="L199" t="b">
-        <v>1</v>
-      </c>
-      <c r="M199" t="b">
-        <v>1</v>
-      </c>
-      <c r="N199" t="b">
+      <c r="K199" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O199" xr:uid="{95B1FB53-0665-4142-9738-C87A42CA69B7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O199">
+  <autoFilter ref="A1:L199" xr:uid="{95B1FB53-0665-4142-9738-C87A42CA69B7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L199">
       <sortCondition ref="B1:B199"/>
     </sortState>
   </autoFilter>

--- a/tally.xlsx
+++ b/tally.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johngodlee/google_drive/phd/thesis/tls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8DA455-9523-F543-A275-6AD2D1DB16CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7831F1-6518-F94D-89FF-592D6EBBB558}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{E65B02AA-98F5-FA43-B70D-F94208D9632A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{E65B02AA-98F5-FA43-B70D-F94208D9632A}"/>
   </bookViews>
   <sheets>
     <sheet name="subplot" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="52">
-  <si>
-    <t>plot</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="67">
   <si>
     <t>subplot</t>
   </si>
@@ -194,6 +191,54 @@
   </si>
   <si>
     <t>W9</t>
+  </si>
+  <si>
+    <t>No dGPS in this plot, cannot align subplots</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
   </si>
 </sst>
 </file>
@@ -553,9 +598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9060313A-6E24-2846-B6EB-79326E1FC092}">
   <dimension ref="A1:L199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H177" sqref="H177"/>
+      <selection pane="bottomLeft" activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,58 +621,58 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
       <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
         <v>37</v>
-      </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="str">
         <f>_xlfn.CONCAT("P",B2)</f>
         <v>P1</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -635,8 +680,8 @@
       <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" t="b">
-        <v>1</v>
+      <c r="H2">
+        <v>4</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -650,26 +695,29 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D64" si="0">_xlfn.CONCAT("P",B3)</f>
         <v>P1</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -683,26 +731,29 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>P1</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -716,26 +767,29 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>P1</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -749,26 +803,29 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>P1</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -782,26 +839,29 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>P1</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -815,26 +875,29 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>P1</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -848,20 +911,20 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>P1</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -884,20 +947,20 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>P1</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -920,20 +983,20 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>P2</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -956,20 +1019,20 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>P2</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -992,20 +1055,20 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>P2</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -1028,20 +1091,20 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>P2</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -1064,20 +1127,20 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>P2</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -1100,20 +1163,20 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v>P2</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -1136,20 +1199,20 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v>P2</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1172,20 +1235,20 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v>P2</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -1208,20 +1271,20 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v>P2</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -1244,20 +1307,20 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
         <v>P3</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -1280,20 +1343,20 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
         <v>P3</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -1316,20 +1379,20 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v>P3</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -1352,20 +1415,20 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
         <v>P3</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -1388,20 +1451,20 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
         <v>P3</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
@@ -1424,20 +1487,20 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
         <v>P3</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -1460,20 +1523,20 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
         <v>P3</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -1496,20 +1559,20 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
         <v>P3</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
@@ -1532,20 +1595,20 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
         <v>P3</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
@@ -1568,20 +1631,20 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
         <v>P4</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
@@ -1604,20 +1667,20 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
         <v>P4</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
@@ -1640,20 +1703,20 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
         <v>P4</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
@@ -1676,20 +1739,20 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
         <v>P4</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
@@ -1712,20 +1775,20 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
         <v>P4</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
@@ -1748,20 +1811,20 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
         <v>P4</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
@@ -1784,20 +1847,20 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
         <v>P4</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
@@ -1820,20 +1883,20 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
         <v>P4</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
@@ -1856,20 +1919,20 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
         <v>P4</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
@@ -1892,20 +1955,20 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
         <v>P5</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38" t="b">
         <v>1</v>
@@ -1928,20 +1991,20 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
         <v>P5</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
@@ -1964,20 +2027,20 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
         <v>P5</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
@@ -2000,20 +2063,20 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
         <v>P5</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
@@ -2036,20 +2099,20 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
         <v>P5</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" t="b">
         <v>1</v>
@@ -2072,20 +2135,20 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
         <v>P5</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
@@ -2108,20 +2171,20 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
         <v>P5</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F44" t="b">
         <v>1</v>
@@ -2144,20 +2207,20 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
         <v>P5</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
@@ -2180,20 +2243,20 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
         <v>P5</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F46" t="b">
         <v>1</v>
@@ -2216,20 +2279,20 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
         <v>P6</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
@@ -2252,20 +2315,20 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
         <v>P6</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
@@ -2288,20 +2351,20 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49">
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
         <v>P6</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
@@ -2324,20 +2387,20 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
         <v>P6</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
@@ -2360,20 +2423,20 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
         <v>P6</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
@@ -2396,20 +2459,20 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
         <v>P6</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
@@ -2432,20 +2495,20 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B53">
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
         <v>P6</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F53" t="b">
         <v>1</v>
@@ -2468,20 +2531,20 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54">
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
         <v>P6</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F54" t="b">
         <v>1</v>
@@ -2504,20 +2567,20 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55">
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
         <v>P6</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
@@ -2540,20 +2603,20 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B56">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
         <v>P7</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
@@ -2576,20 +2639,20 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B57">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
         <v>P7</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" t="b">
         <v>1</v>
@@ -2612,20 +2675,20 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B58">
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
         <v>P7</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" t="b">
         <v>1</v>
@@ -2648,20 +2711,20 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B59">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
         <v>P7</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" t="b">
         <v>1</v>
@@ -2684,20 +2747,20 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B60">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
         <v>P7</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F60" t="b">
         <v>1</v>
@@ -2720,20 +2783,20 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B61">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
         <v>P7</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
@@ -2756,20 +2819,20 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B62">
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
         <v>P7</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F62" t="b">
         <v>1</v>
@@ -2792,20 +2855,20 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B63">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
         <v>P7</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
@@ -2828,20 +2891,20 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B64">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
         <v>P7</v>
       </c>
       <c r="E64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
@@ -2864,19 +2927,19 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B65">
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
@@ -2899,19 +2962,19 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B66">
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F66" t="b">
         <v>1</v>
@@ -2934,19 +2997,19 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B67">
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
@@ -2969,19 +3032,19 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B68">
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="s">
         <v>8</v>
-      </c>
-      <c r="E68" t="s">
-        <v>9</v>
       </c>
       <c r="F68" t="b">
         <v>1</v>
@@ -3004,19 +3067,19 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B69">
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" t="b">
         <v>1</v>
@@ -3039,19 +3102,19 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B70">
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F70" t="b">
         <v>1</v>
@@ -3074,19 +3137,19 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71">
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F71" t="b">
         <v>1</v>
@@ -3109,19 +3172,19 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B72">
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F72" t="b">
         <v>1</v>
@@ -3144,19 +3207,19 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B73">
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F73" t="b">
         <v>1</v>
@@ -3179,20 +3242,20 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B74">
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" ref="D74:D109" si="1">_xlfn.CONCAT("P",B74)</f>
         <v>P8</v>
       </c>
       <c r="E74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F74" t="b">
         <v>1</v>
@@ -3215,20 +3278,20 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B75">
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="1"/>
         <v>P8</v>
       </c>
       <c r="E75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F75" t="b">
         <v>1</v>
@@ -3251,20 +3314,20 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B76">
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="1"/>
         <v>P8</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F76" t="b">
         <v>1</v>
@@ -3287,20 +3350,20 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B77">
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="1"/>
         <v>P8</v>
       </c>
       <c r="E77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F77" t="b">
         <v>1</v>
@@ -3323,20 +3386,20 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B78">
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="1"/>
         <v>P8</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78" t="b">
         <v>1</v>
@@ -3359,20 +3422,20 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B79">
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="1"/>
         <v>P8</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F79" t="b">
         <v>1</v>
@@ -3395,20 +3458,20 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B80">
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="1"/>
         <v>P8</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F80" t="b">
         <v>1</v>
@@ -3431,20 +3494,20 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B81">
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="1"/>
         <v>P8</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F81" t="b">
         <v>1</v>
@@ -3467,20 +3530,20 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B82">
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="1"/>
         <v>P8</v>
       </c>
       <c r="E82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F82" t="b">
         <v>1</v>
@@ -3503,20 +3566,20 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B83">
         <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="1"/>
         <v>P9</v>
       </c>
       <c r="E83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F83" t="b">
         <v>1</v>
@@ -3539,20 +3602,20 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B84">
         <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="1"/>
         <v>P9</v>
       </c>
       <c r="E84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F84" t="b">
         <v>1</v>
@@ -3575,20 +3638,20 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B85">
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="1"/>
         <v>P9</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F85" t="b">
         <v>1</v>
@@ -3611,20 +3674,20 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B86">
         <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="1"/>
         <v>P9</v>
       </c>
       <c r="E86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F86" t="b">
         <v>1</v>
@@ -3647,20 +3710,20 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B87">
         <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="1"/>
         <v>P9</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F87" t="b">
         <v>1</v>
@@ -3683,20 +3746,20 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B88">
         <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="1"/>
         <v>P9</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F88" t="b">
         <v>1</v>
@@ -3719,20 +3782,20 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B89">
         <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="1"/>
         <v>P9</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F89" t="b">
         <v>1</v>
@@ -3755,20 +3818,20 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B90">
         <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="1"/>
         <v>P9</v>
       </c>
       <c r="E90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F90" t="b">
         <v>1</v>
@@ -3791,20 +3854,20 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B91">
         <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="1"/>
         <v>P9</v>
       </c>
       <c r="E91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F91" t="b">
         <v>1</v>
@@ -3827,19 +3890,19 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B92">
         <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F92" t="b">
         <v>1</v>
@@ -3862,19 +3925,19 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B93">
         <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F93" t="b">
         <v>1</v>
@@ -3897,19 +3960,19 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B94">
         <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F94" t="b">
         <v>1</v>
@@ -3932,19 +3995,19 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B95">
         <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F95" t="b">
         <v>1</v>
@@ -3967,19 +4030,19 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B96">
         <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F96" t="b">
         <v>1</v>
@@ -4002,19 +4065,19 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B97">
         <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D97" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" t="s">
         <v>10</v>
-      </c>
-      <c r="E97" t="s">
-        <v>11</v>
       </c>
       <c r="F97" t="b">
         <v>1</v>
@@ -4037,19 +4100,19 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B98">
         <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F98" t="b">
         <v>1</v>
@@ -4072,19 +4135,19 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B99">
         <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F99" t="b">
         <v>1</v>
@@ -4107,19 +4170,19 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B100">
         <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F100" t="b">
         <v>1</v>
@@ -4142,20 +4205,20 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B101">
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="1"/>
         <v>P10</v>
       </c>
       <c r="E101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F101" t="b">
         <v>1</v>
@@ -4178,20 +4241,20 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B102">
         <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="1"/>
         <v>P10</v>
       </c>
       <c r="E102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F102" t="b">
         <v>1</v>
@@ -4214,20 +4277,20 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B103">
         <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="1"/>
         <v>P10</v>
       </c>
       <c r="E103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F103" t="b">
         <v>1</v>
@@ -4250,20 +4313,20 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B104">
         <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="1"/>
         <v>P10</v>
       </c>
       <c r="E104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F104" t="b">
         <v>1</v>
@@ -4286,20 +4349,20 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B105">
         <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="1"/>
         <v>P10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F105" t="b">
         <v>1</v>
@@ -4322,20 +4385,20 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B106">
         <v>10</v>
       </c>
       <c r="C106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="1"/>
         <v>P10</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F106" t="b">
         <v>1</v>
@@ -4358,20 +4421,20 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B107">
         <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="1"/>
         <v>P10</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F107" t="b">
         <v>1</v>
@@ -4394,20 +4457,20 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B108">
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="1"/>
         <v>P10</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F108" t="b">
         <v>1</v>
@@ -4430,20 +4493,20 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B109">
         <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="1"/>
         <v>P10</v>
       </c>
       <c r="E109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F109" t="b">
         <v>1</v>
@@ -4466,19 +4529,19 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B110">
         <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F110" t="b">
         <v>1</v>
@@ -4501,19 +4564,19 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B111">
         <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F111" t="b">
         <v>1</v>
@@ -4536,19 +4599,19 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B112">
         <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F112" t="b">
         <v>1</v>
@@ -4571,19 +4634,19 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B113">
         <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F113" t="b">
         <v>1</v>
@@ -4606,19 +4669,19 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B114">
         <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F114" t="b">
         <v>1</v>
@@ -4641,19 +4704,19 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B115">
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F115" t="b">
         <v>1</v>
@@ -4676,19 +4739,19 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B116">
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F116" t="b">
         <v>1</v>
@@ -4711,19 +4774,19 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B117">
         <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D117" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" t="s">
         <v>12</v>
-      </c>
-      <c r="E117" t="s">
-        <v>13</v>
       </c>
       <c r="F117" t="b">
         <v>1</v>
@@ -4746,19 +4809,19 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B118">
         <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F118" t="b">
         <v>1</v>
@@ -4781,20 +4844,20 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B119">
         <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" ref="D119:D145" si="2">_xlfn.CONCAT("P",B119)</f>
         <v>P11</v>
       </c>
       <c r="E119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F119" t="b">
         <v>1</v>
@@ -4817,20 +4880,20 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B120">
         <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="2"/>
         <v>P11</v>
       </c>
       <c r="E120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F120" t="b">
         <v>1</v>
@@ -4853,20 +4916,20 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B121">
         <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="2"/>
         <v>P11</v>
       </c>
       <c r="E121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F121" t="b">
         <v>1</v>
@@ -4889,20 +4952,20 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B122">
         <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="2"/>
         <v>P11</v>
       </c>
       <c r="E122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F122" t="b">
         <v>1</v>
@@ -4925,20 +4988,20 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B123">
         <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="2"/>
         <v>P11</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F123" t="b">
         <v>1</v>
@@ -4961,20 +5024,20 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B124">
         <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="2"/>
         <v>P11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F124" t="b">
         <v>1</v>
@@ -4997,20 +5060,20 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B125">
         <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="2"/>
         <v>P11</v>
       </c>
       <c r="E125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F125" t="b">
         <v>1</v>
@@ -5033,20 +5096,20 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B126">
         <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="2"/>
         <v>P11</v>
       </c>
       <c r="E126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F126" t="b">
         <v>1</v>
@@ -5069,20 +5132,20 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B127">
         <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="2"/>
         <v>P11</v>
       </c>
       <c r="E127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F127" t="b">
         <v>1</v>
@@ -5105,20 +5168,20 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B128">
         <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="2"/>
         <v>P12</v>
       </c>
       <c r="E128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F128" t="b">
         <v>1</v>
@@ -5141,20 +5204,20 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B129">
         <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="2"/>
         <v>P12</v>
       </c>
       <c r="E129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F129" t="b">
         <v>1</v>
@@ -5177,20 +5240,20 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B130">
         <v>12</v>
       </c>
       <c r="C130" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="2"/>
         <v>P12</v>
       </c>
       <c r="E130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F130" t="b">
         <v>1</v>
@@ -5213,20 +5276,20 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B131">
         <v>12</v>
       </c>
       <c r="C131" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="2"/>
         <v>P12</v>
       </c>
       <c r="E131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F131" t="b">
         <v>1</v>
@@ -5249,20 +5312,20 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B132">
         <v>12</v>
       </c>
       <c r="C132" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" si="2"/>
         <v>P12</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F132" t="b">
         <v>1</v>
@@ -5285,20 +5348,20 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B133">
         <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="2"/>
         <v>P12</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F133" t="b">
         <v>1</v>
@@ -5321,20 +5384,20 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B134">
         <v>12</v>
       </c>
       <c r="C134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="2"/>
         <v>P12</v>
       </c>
       <c r="E134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F134" t="b">
         <v>1</v>
@@ -5357,20 +5420,20 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B135">
         <v>12</v>
       </c>
       <c r="C135" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="2"/>
         <v>P12</v>
       </c>
       <c r="E135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F135" t="b">
         <v>1</v>
@@ -5393,20 +5456,20 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B136">
         <v>12</v>
       </c>
       <c r="C136" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="2"/>
         <v>P12</v>
       </c>
       <c r="E136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F136" t="b">
         <v>1</v>
@@ -5429,20 +5492,20 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B137">
         <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="2"/>
         <v>P13</v>
       </c>
       <c r="E137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F137" t="b">
         <v>1</v>
@@ -5465,20 +5528,20 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B138">
         <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="2"/>
         <v>P13</v>
       </c>
       <c r="E138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F138" t="b">
         <v>1</v>
@@ -5501,20 +5564,20 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B139">
         <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" si="2"/>
         <v>P13</v>
       </c>
       <c r="E139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F139" t="b">
         <v>1</v>
@@ -5537,20 +5600,20 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B140">
         <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="2"/>
         <v>P13</v>
       </c>
       <c r="E140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F140" t="b">
         <v>1</v>
@@ -5573,20 +5636,20 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B141">
         <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="2"/>
         <v>P13</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F141" t="b">
         <v>1</v>
@@ -5609,20 +5672,20 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B142">
         <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="2"/>
         <v>P13</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F142" t="b">
         <v>1</v>
@@ -5645,20 +5708,20 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B143">
         <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="2"/>
         <v>P13</v>
       </c>
       <c r="E143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F143" t="b">
         <v>1</v>
@@ -5681,20 +5744,20 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B144">
         <v>13</v>
       </c>
       <c r="C144" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="2"/>
         <v>P13</v>
       </c>
       <c r="E144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F144" t="b">
         <v>1</v>
@@ -5717,20 +5780,20 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B145">
         <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="2"/>
         <v>P13</v>
       </c>
       <c r="E145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F145" t="b">
         <v>1</v>
@@ -5753,19 +5816,19 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B146">
         <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F146" t="b">
         <v>1</v>
@@ -5788,19 +5851,19 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B147">
         <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F147" t="b">
         <v>1</v>
@@ -5823,19 +5886,19 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B148">
         <v>13</v>
       </c>
       <c r="C148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D148" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F148" t="b">
         <v>1</v>
@@ -5858,19 +5921,19 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B149">
         <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F149" t="b">
         <v>1</v>
@@ -5893,19 +5956,19 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B150">
         <v>13</v>
       </c>
       <c r="C150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D150" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F150" t="b">
         <v>1</v>
@@ -5928,19 +5991,19 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B151">
         <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F151" t="b">
         <v>1</v>
@@ -5963,19 +6026,19 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B152">
         <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F152" t="b">
         <v>1</v>
@@ -5998,19 +6061,19 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B153">
         <v>13</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D153" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F153" t="b">
         <v>1</v>
@@ -6033,19 +6096,19 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B154">
         <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D154" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E154" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F154" t="b">
         <v>1</v>
@@ -6068,20 +6131,20 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B155">
         <v>14</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" ref="D155:D172" si="3">_xlfn.CONCAT("P",B155)</f>
         <v>P14</v>
       </c>
       <c r="E155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F155" t="b">
         <v>1</v>
@@ -6104,20 +6167,20 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B156">
         <v>14</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D156" t="str">
         <f t="shared" si="3"/>
         <v>P14</v>
       </c>
       <c r="E156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F156" t="b">
         <v>1</v>
@@ -6140,20 +6203,20 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B157">
         <v>14</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="3"/>
         <v>P14</v>
       </c>
       <c r="E157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F157" t="b">
         <v>1</v>
@@ -6176,20 +6239,20 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B158">
         <v>14</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" si="3"/>
         <v>P14</v>
       </c>
       <c r="E158" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F158" t="b">
         <v>1</v>
@@ -6212,20 +6275,20 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B159">
         <v>14</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="3"/>
         <v>P14</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F159" t="b">
         <v>1</v>
@@ -6248,20 +6311,20 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B160">
         <v>14</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D160" t="str">
         <f t="shared" si="3"/>
         <v>P14</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F160" t="b">
         <v>1</v>
@@ -6284,20 +6347,20 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B161">
         <v>14</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="3"/>
         <v>P14</v>
       </c>
       <c r="E161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F161" t="b">
         <v>1</v>
@@ -6320,20 +6383,20 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B162">
         <v>14</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D162" t="str">
         <f t="shared" si="3"/>
         <v>P14</v>
       </c>
       <c r="E162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F162" t="b">
         <v>1</v>
@@ -6356,20 +6419,20 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B163">
         <v>14</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D163" t="str">
         <f t="shared" si="3"/>
         <v>P14</v>
       </c>
       <c r="E163" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F163" t="b">
         <v>1</v>
@@ -6392,20 +6455,20 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B164">
         <v>15</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D164" t="str">
         <f t="shared" si="3"/>
         <v>P15</v>
       </c>
       <c r="E164" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F164" t="b">
         <v>1</v>
@@ -6428,20 +6491,20 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B165">
         <v>15</v>
       </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D165" t="str">
         <f t="shared" si="3"/>
         <v>P15</v>
       </c>
       <c r="E165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F165" t="b">
         <v>1</v>
@@ -6464,20 +6527,20 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B166">
         <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D166" t="str">
         <f t="shared" si="3"/>
         <v>P15</v>
       </c>
       <c r="E166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F166" t="b">
         <v>1</v>
@@ -6500,20 +6563,20 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B167">
         <v>15</v>
       </c>
       <c r="C167" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="3"/>
         <v>P15</v>
       </c>
       <c r="E167" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F167" t="b">
         <v>1</v>
@@ -6536,20 +6599,20 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B168">
         <v>15</v>
       </c>
       <c r="C168" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="3"/>
         <v>P15</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F168" t="b">
         <v>1</v>
@@ -6572,20 +6635,20 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B169">
         <v>15</v>
       </c>
       <c r="C169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="3"/>
         <v>P15</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F169" t="b">
         <v>1</v>
@@ -6608,20 +6671,20 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B170">
         <v>15</v>
       </c>
       <c r="C170" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="3"/>
         <v>P15</v>
       </c>
       <c r="E170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F170" t="b">
         <v>1</v>
@@ -6644,20 +6707,20 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B171">
         <v>15</v>
       </c>
       <c r="C171" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" si="3"/>
         <v>P15</v>
       </c>
       <c r="E171" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F171" t="b">
         <v>1</v>
@@ -6680,20 +6743,20 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B172">
         <v>15</v>
       </c>
       <c r="C172" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D172" t="str">
         <f t="shared" si="3"/>
         <v>P15</v>
       </c>
       <c r="E172" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F172" t="b">
         <v>1</v>
@@ -6716,19 +6779,19 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B173">
         <v>19</v>
       </c>
       <c r="C173" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D173" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E173" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F173" t="b">
         <v>1</v>
@@ -6751,19 +6814,19 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B174">
         <v>19</v>
       </c>
       <c r="C174" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D174" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F174" t="b">
         <v>1</v>
@@ -6786,19 +6849,19 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B175">
         <v>19</v>
       </c>
       <c r="C175" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D175" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F175" t="b">
         <v>1</v>
@@ -6821,19 +6884,19 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B176">
         <v>19</v>
       </c>
       <c r="C176" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D176" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E176" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F176" t="b">
         <v>1</v>
@@ -6856,19 +6919,19 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B177">
         <v>19</v>
       </c>
       <c r="C177" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F177" t="b">
         <v>1</v>
@@ -6891,19 +6954,19 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B178">
         <v>19</v>
       </c>
       <c r="C178" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D178" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F178" t="b">
         <v>1</v>
@@ -6926,19 +6989,19 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B179">
         <v>19</v>
       </c>
       <c r="C179" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D179" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E179" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F179" t="b">
         <v>1</v>
@@ -6961,19 +7024,19 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B180">
         <v>19</v>
       </c>
       <c r="C180" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D180" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E180" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F180" t="b">
         <v>1</v>
@@ -6996,19 +7059,19 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B181">
         <v>19</v>
       </c>
       <c r="C181" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D181" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E181" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F181" t="b">
         <v>1</v>
@@ -7031,19 +7094,19 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B182">
         <v>21</v>
       </c>
       <c r="C182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D182" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F182" t="b">
         <v>1</v>
@@ -7066,19 +7129,19 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B183">
         <v>21</v>
       </c>
       <c r="C183" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D183" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F183" t="b">
         <v>1</v>
@@ -7101,19 +7164,19 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B184">
         <v>21</v>
       </c>
       <c r="C184" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D184" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F184" t="b">
         <v>1</v>
@@ -7136,19 +7199,19 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B185">
         <v>21</v>
       </c>
       <c r="C185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D185" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E185" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F185" t="b">
         <v>1</v>
@@ -7171,19 +7234,19 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B186">
         <v>21</v>
       </c>
       <c r="C186" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D186" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F186" t="b">
         <v>1</v>
@@ -7206,19 +7269,19 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B187">
         <v>21</v>
       </c>
       <c r="C187" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D187" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
@@ -7239,24 +7302,24 @@
         <v>0</v>
       </c>
       <c r="L187" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B188">
         <v>21</v>
       </c>
       <c r="C188" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D188" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E188" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F188" t="b">
         <v>1</v>
@@ -7279,19 +7342,19 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B189">
         <v>21</v>
       </c>
       <c r="C189" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D189" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E189" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F189" t="b">
         <v>1</v>
@@ -7314,19 +7377,19 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B190">
         <v>21</v>
       </c>
       <c r="C190" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D190" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E190" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F190" t="b">
         <v>1</v>
@@ -7349,19 +7412,19 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B191">
         <v>25</v>
       </c>
       <c r="C191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D191" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F191" t="b">
         <v>1</v>
@@ -7384,19 +7447,19 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B192">
         <v>25</v>
       </c>
       <c r="C192" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D192" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F192" t="b">
         <v>1</v>
@@ -7419,19 +7482,19 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B193">
         <v>25</v>
       </c>
       <c r="C193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D193" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F193" t="b">
         <v>1</v>
@@ -7454,19 +7517,19 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B194">
         <v>25</v>
       </c>
       <c r="C194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D194" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F194" t="b">
         <v>1</v>
@@ -7489,19 +7552,19 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B195">
         <v>25</v>
       </c>
       <c r="C195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D195" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F195" t="b">
         <v>1</v>
@@ -7524,19 +7587,19 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B196">
         <v>25</v>
       </c>
       <c r="C196" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D196" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F196" t="b">
         <v>1</v>
@@ -7559,19 +7622,19 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B197">
         <v>25</v>
       </c>
       <c r="C197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D197" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E197" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F197" t="b">
         <v>1</v>
@@ -7594,19 +7657,19 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B198">
         <v>25</v>
       </c>
       <c r="C198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D198" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E198" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F198" t="b">
         <v>1</v>
@@ -7629,19 +7692,19 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B199">
         <v>25</v>
       </c>
       <c r="C199" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D199" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E199" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F199" t="b">
         <v>1</v>
@@ -7674,130 +7737,280 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63D1CEB-3449-E94D-A4D9-3E8B33886EFA}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>31</v>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tally.xlsx
+++ b/tally.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johngodlee/google_drive/phd/thesis/tls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7831F1-6518-F94D-89FF-592D6EBBB558}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A280ADE-504F-FA48-B27A-526BBDD9A491}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{E65B02AA-98F5-FA43-B70D-F94208D9632A}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{E65B02AA-98F5-FA43-B70D-F94208D9632A}"/>
   </bookViews>
   <sheets>
     <sheet name="subplot" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="68">
   <si>
     <t>subplot</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>P15</t>
+  </si>
+  <si>
+    <t>Missing S6,</t>
   </si>
 </sst>
 </file>
@@ -598,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9060313A-6E24-2846-B6EB-79326E1FC092}">
   <dimension ref="A1:L199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
@@ -7739,8 +7742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63D1CEB-3449-E94D-A4D9-3E8B33886EFA}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7936,7 +7939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -7947,7 +7950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -7958,7 +7961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -7969,7 +7972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -7980,7 +7983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -7991,7 +7994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -8002,7 +8005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -8011,6 +8014,9 @@
       </c>
       <c r="C23" t="b">
         <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
